--- a/dataset/lg/srikaalahasteeswara.xlsx
+++ b/dataset/lg/srikaalahasteeswara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీవిద్యుత్కలితాజవంజవ మహాజీమూతపాపాంబు ధా
 రావేగంబున మన్మనోబ్జ సముదీర్ణత్వంబు గోల్పోయితిన్‌
@@ -477,32 +474,29 @@
 సేవం దామరతంపరై మనియెదన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('వి', 'U'), ('ద్యు', 'U'), ('త్క', '|'), ('లి', '|'), ('తా', 'U'), ('జ', '|'), ('వం', 'U'), ('జ', '|'), ('వ', '|'), ('మ', '|'), ('హా', 'U'), ('జీ', 'U'), ('మూ', 'U'), ('త', '|'), ('పా', 'U'), ('పాం', 'U'), ('బు', '|'), ('ధా', 'U'), ('రా', 'U'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('బ్జ', '|'), ('స', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ణ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('గో', 'U'), ('ల్పో', 'U'), ('యి', '|'), ('తిన్', 'U'), ('దే', 'U'), ('వా', 'U'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('శ', '|'), ('ర', 'U'), ('త్స', '|'), ('మ', '|'), ('య', '|'), ('మిం', 'U'), ('తే', 'U'), ('జా', 'U'), ('లు', '|'), ('స', 'U'), ('ద్భా', 'U'), ('వ', '|'), ('నా', 'U'), ('సే', 'U'), ('వం', 'U'), ('దా', 'U'), ('మ', '|'), ('ర', '|'), ('తం', 'U'), ('ప', '|'), ('రై', 'U'), ('మ', '|'), ('ని', '|'), ('యె', '|'), ('దన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>వాణీవల్లభ దుర్లభంబగు భవద్ద్వారంబున న్నిల్చి ని
 ర్వాణశ్రీఁ జెఱపట్టజూచిన విచారద్రోహమో నిత్యక
@@ -510,32 +504,29 @@
 శ్రేణీద్వారము దూరఁజేసెదిపుడో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('ణీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భ', '|'), ('దు', 'U'), ('ర్ల', '|'), ('భం', 'U'), ('బ', '|'), ('గు', '|'), ('భ', '|'), ('వ', 'U'), ('ద్ద్వా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', 'U'), ('న్ని', 'U'), ('ల్చి', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('ణ', 'U'), ('శ్రీ', 'U'), ('జె', '|'), ('ఱ', '|'), ('ప', 'U'), ('ట్ట', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('ద్రో', 'U'), ('హ', '|'), ('మో', 'U'), ('ని', 'U'), ('త్య', '|'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('ల', '|'), ('బా', 'U'), ('సి', '|'), ('దు', '|'), ('ర్ద', '|'), ('శ', '|'), ('ల', '|'), ('పా', 'U'), ('లై', 'U'), ('రా', 'U'), ('జ', '|'), ('లో', 'U'), ('కా', 'U'), ('ధ', '|'), ('మ', 'U'), ('శ్రే', 'U'), ('ణీ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('దూ', 'U'), ('ర', '|'), ('జే', 'U'), ('సె', '|'), ('ది', '|'), ('పు', '|'), ('డో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>అంతామిథ్య తలంచిచూచిన నరుండట్లౌటెఱింగిన్‌ సదా
 కాంతల్పుత్రులు నర్థమున్‌ తనువు నిక్కంబంచు మోహార్ణవ
@@ -543,32 +534,29 @@
 జింతాకంతయుఁ జింతనిల్పఁడు గదా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('తా', 'U'), ('మి', 'U'), ('థ్య', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('రుం', 'U'), ('డ', 'U'), ('ట్లౌ', 'U'), ('టె', '|'), ('ఱిం', 'U'), ('గిన్', 'U'), ('స', '|'), ('దా', 'U'), ('కాం', 'U'), ('త', 'U'), ('ల్పు', 'U'), ('త్రు', '|'), ('లు', '|'), ('న', 'U'), ('ర్థ', '|'), ('మున్', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బం', 'U'), ('చు', '|'), ('మో', 'U'), ('హా', 'U'), ('ర్ణ', '|'), ('వ', 'U'), ('భ్రాం', 'U'), ('తిం', 'U'), ('జెం', 'U'), ('ది', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('గా', 'U'), ('ని', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('దా', 'U'), ('జిం', 'U'), ('తా', 'U'), ('కం', 'U'), ('త', '|'), ('యు', '|'), ('జిం', 'U'), ('త', '|'), ('ని', 'U'), ('ల్ప', '|'), ('డు', '|'), ('గ', '|'), ('దా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>నీనా సందొడబాటు మాట వినుమా! నీచేత జీతంబునేఁ
 గానింబట్టక సంతతంబు మదివేడ్కన్గొల్తు నంతస్సప
@@ -576,32 +564,29 @@
 జీనొల్లం గరినొల్ల నొల్లసిరులన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('నా', 'U'), ('సం', 'U'), ('దొ', '|'), ('డ', '|'), ('బా', 'U'), ('టు', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('ను', '|'), ('మా', 'U'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('జీ', 'U'), ('తం', 'U'), ('బు', '|'), ('నే', 'U'), ('గా', 'U'), ('నిం', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('క', '|'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('బు', '|'), ('మ', '|'), ('ది', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్గొ', 'U'), ('ల్తు', '|'), ('నం', 'U'), ('త', 'U'), ('స్స', '|'), ('ప', 'U'), ('త్నా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కొ', 'U'), ('ప్ప', '|'), ('గిం', 'U'), ('ప', '|'), ('కు', '|'), ('ము', '|'), ('న', 'U'), ('న్నా', 'U'), ('పా', 'U'), ('టి', '|'), ('యే', 'U'), ('చా', 'U'), ('లు', '|'), ('దే', 'U'), ('జీ', 'U'), ('నొ', 'U'), ('ల్లం', 'U'), ('గ', '|'), ('రి', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('సి', '|'), ('రు', '|'), ('లన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>భవకేళీ మదిరామదంబున మహాపాపాత్ముఁడై వీఁడు న
 న్ను వివేకింపఁడటంచు నేను నరకార్ణోరాశిపాలైనఁ బ
@@ -609,32 +594,29 @@
 డ్రి విచారింపకయుండునా కటకటా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('కే', 'U'), ('ళీ', 'U'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('వీ', 'U'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('వి', '|'), ('వే', 'U'), ('కిం', 'U'), ('ప', '|'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('నే', 'U'), ('ను', '|'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('ర్ణో', 'U'), ('రా', 'U'), ('శి', '|'), ('పా', 'U'), ('లై', 'U'), ('న', '|'), ('బ', 'U'), ('ట్ట', '|'), ('వు', '|'), ('బా', 'U'), ('లుం', 'U'), ('డొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('నా', 'U'), ('ట', '|'), ('త', '|'), ('మి', '|'), ('తో', 'U'), ('డ', 'U'), ('న్నూ', 'U'), ('త', '|'), ('గూ', 'U'), ('లం', 'U'), ('గ', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('ప', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('నా', 'U'), ('క', '|'), ('ట', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>స్వామిద్రోహముఁజేసి యేనొకని గొల్వంబోతినో కాక నే
 నీమాటన్విన నొల్లకుండితినో నిన్నేదిక్కుగాఁ జూడనో
@@ -642,32 +624,29 @@
 చీమధ్యంబున ముంచియుంపఁదగునా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('స్వా', 'U'), ('మి', '|'), ('ద్రో', 'U'), ('హ', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('యే', 'U'), ('నొ', '|'), ('క', '|'), ('ని', '|'), ('గొ', 'U'), ('ల్వం', 'U'), ('బో', 'U'), ('తి', '|'), ('నో', 'U'), ('కా', 'U'), ('క', '|'), ('నే', 'U'), ('నీ', 'U'), ('మా', 'U'), ('ట', 'U'), ('న్వి', '|'), ('న', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('కుం', 'U'), ('డి', '|'), ('తి', '|'), ('నో', 'U'), ('ని', 'U'), ('న్నే', 'U'), ('ది', 'U'), ('క్కు', '|'), ('గా', 'U'), ('జూ', 'U'), ('డ', '|'), ('నో', 'U'), ('యే', 'U'), ('మీ', 'U'), ('యి', 'U'), ('ట్టి', '|'), ('వృ', '|'), ('థా', 'U'), ('ప', '|'), ('రా', 'U'), ('ధి', '|'), ('న', '|'), ('గు', '|'), ('న', 'U'), ('న్నీ', 'U'), ('దుః', 'U'), ('ఖ', '|'), ('వా', 'U'), ('రా', 'U'), ('శి', '|'), ('వీ', 'U'), ('చీ', 'U'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('న', '|'), ('ముం', 'U'), ('చి', '|'), ('యుం', 'U'), ('ప', '|'), ('ద', '|'), ('గు', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>దివిజక్ష్మారుహధేనురత్న ఘనభూతి ప్రస్ఫురద్రత్న సా
 నువు నీ విల్లు, నిధీశ్వరుండు సఖుఁ, డర్ణోరాశి కన్యావిభుం
@@ -675,32 +654,29 @@
 చి విచారింపవు లేమి నెవ్వఁడుడుపున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('ది', '|'), ('వి', '|'), ('జ', 'U'), ('క్ష్మా', 'U'), ('రు', '|'), ('హ', '|'), ('ధే', 'U'), ('ను', '|'), ('ర', 'U'), ('త్న', '|'), ('ఘ', '|'), ('న', '|'), ('భూ', 'U'), ('తి', 'U'), ('ప్ర', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('సా', 'U'), ('ను', '|'), ('వు', '|'), ('నీ', 'U'), ('వి', 'U'), ('ల్లు', '|'), ('ని', '|'), ('ధీ', 'U'), ('శ్వ', '|'), ('రుం', 'U'), ('డు', '|'), ('స', '|'), ('ఖు', '|'), ('డ', 'U'), ('ర్ణో', 'U'), ('రా', 'U'), ('శి', '|'), ('క', 'U'), ('న్యా', 'U'), ('వి', '|'), ('భుం', 'U'), ('డు', '|'), ('వి', '|'), ('శే', 'U'), ('షా', 'U'), ('ర్చ', '|'), ('కు', '|'), ('డిం', 'U'), ('క', '|'), ('నీ', 'U'), ('కె', '|'), ('న', '|'), ('ఘ', '|'), ('నుం', 'U'), ('డుం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('నే', 'U'), ('నీ', 'U'), ('వు', '|'), ('చూ', 'U'), ('చి', '|'), ('వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('ప', '|'), ('వు', '|'), ('లే', 'U'), ('మి', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('డు', '|'), ('పున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>నీతో యుద్ధముఁ జేయనోప, గవితా నిర్మాణశక్తిన్నినుం
 బ్రీతుంజేయఁగలేను, నీకొఱకుఁ దండ్రిం జంపఁగాజాల నా
@@ -708,32 +684,29 @@
 రీతి న్నాకిఁక నిన్నుఁ జూడఁగలుగున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('తో', 'U'), ('యు', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('జే', 'U'), ('య', '|'), ('నో', 'U'), ('ప', '|'), ('గ', '|'), ('వి', '|'), ('తా', 'U'), ('ని', '|'), ('ర్మా', 'U'), ('ణ', '|'), ('శ', 'U'), ('క్తి', 'U'), ('న్ని', '|'), ('నుం', 'U'), ('బ్రీ', 'U'), ('తుం', 'U'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('ను', '|'), ('నీ', 'U'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('దం', 'U'), ('డ్రిం', 'U'), ('జం', 'U'), ('ప', '|'), ('గా', 'U'), ('జా', 'U'), ('ల', '|'), ('నా', 'U'), ('చే', 'U'), ('త', 'U'), ('న్రో', 'U'), ('క', '|'), ('ట', '|'), ('ని', 'U'), ('న్ను', '|'), ('మొ', 'U'), ('త్త', '|'), ('వె', '|'), ('ఱ', '|'), ('తుం', 'U'), ('జీ', 'U'), ('కా', 'U'), ('కు', '|'), ('నా', 'U'), ('భ', 'U'), ('క్తి', '|'), ('యే', 'U'), ('రీ', 'U'), ('తి', 'U'), ('న్నా', 'U'), ('కి', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లు', '|'), ('గున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>ఆలుంబిడ్డలు దలిదండ్రులు ధనంబంచు న్మహాబంధనం
 బేలా నామెడఁగట్టినాఁడవిఁక నిన్నేవేళఁ జింతింతు ని
@@ -741,32 +714,29 @@
 సీలామాలపుఁజింత నెట్లుడిపెదో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('లుం', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('లు', '|'), ('ద', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('ధ', '|'), ('నం', 'U'), ('బం', 'U'), ('చు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('బం', 'U'), ('ధ', '|'), ('నం', 'U'), ('బే', 'U'), ('లా', 'U'), ('నా', 'U'), ('మె', '|'), ('డ', '|'), ('గ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('డ', '|'), ('వి', '|'), ('క', '|'), ('ని', 'U'), ('న్నే', 'U'), ('వే', 'U'), ('ళ', '|'), ('జిం', 'U'), ('తిం', 'U'), ('తు', '|'), ('ని', '|'), ('ర్మూ', 'U'), ('లం', 'U'), ('బై', 'U'), ('న', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('గ', '|'), ('డు', '|'), ('దు', '|'), ('ర్మో', 'U'), ('హా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('గ్రుం', 'U'), ('కి', '|'), ('యీ', 'U'), ('సీ', 'U'), ('లా', 'U'), ('మా', 'U'), ('ల', '|'), ('పు', '|'), ('జిం', 'U'), ('త', '|'), ('నె', 'U'), ('ట్లు', '|'), ('డి', '|'), ('పె', '|'), ('దో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>నిప్పై పాతకతూల శైలమడఁచు న్నీనామమున్మానవుల్‌
 తప్పన్‌ దవ్వులవిన్న నంతకభుజాదర్పోద్ధత క్లేశముల్‌
@@ -774,32 +744,29 @@
 చెప్పంగాఁ దమకింక శంకవలెనా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('ప్పై', 'U'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('తూ', 'U'), ('ల', '|'), ('శై', 'U'), ('ల', '|'), ('మ', '|'), ('డ', '|'), ('చు', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', 'U'), ('న్మా', 'U'), ('న', '|'), ('వుల్', 'U'), ('త', '|'), ('ప్పన్', 'U'), ('ద', 'U'), ('వ్వు', '|'), ('ల', '|'), ('వి', 'U'), ('న్న', '|'), ('నం', 'U'), ('త', '|'), ('క', '|'), ('భు', '|'), ('జా', 'U'), ('ద', 'U'), ('ర్పో', 'U'), ('ద్ధ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శ', '|'), ('ముల్', 'U'), ('త', 'U'), ('ప్పుం', 'U'), ('దా', 'U'), ('రు', '|'), ('ను', '|'), ('ము', 'U'), ('క్తు', '|'), ('లౌ', 'U'), ('దు', '|'), ('ర', '|'), ('ని', '|'), ('శా', 'U'), ('స్త్రం', 'U'), ('బు', 'U'), ('ల్మ', '|'), ('హా', 'U'), ('పం', 'U'), ('డి', '|'), ('తుల్', 'U'), ('చె', 'U'), ('ప్పం', 'U'), ('గా', 'U'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('క', '|'), ('శం', 'U'), ('క', '|'), ('వ', '|'), ('లె', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>వీడెంబబ్బినయప్పుడుం దమ నుతుల్విన్నప్పుడుం బొట్టలోఁ
 గూడున్నప్పుడు శ్రీవిలాసములుపైకొన్నప్పుడుం గాయకుల్‌
@@ -807,32 +774,29 @@
 క్రీడాసక్తుల నేమి చెప్పవలెనో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('వీ', 'U'), ('డెం', 'U'), ('బ', 'U'), ('బ్బి', '|'), ('న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('తు', 'U'), ('ల్వి', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('బొ', 'U'), ('ట్ట', '|'), ('లో', 'U'), ('గూ', 'U'), ('డు', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('శ్రీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('పై', 'U'), ('కొ', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('గా', 'U'), ('య', '|'), ('కుల్', 'U'), ('పా', 'U'), ('డం', 'U'), ('గా', 'U'), ('వి', '|'), ('ను', '|'), ('న', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('జె', '|'), ('ల', '|'), ('గు', '|'), ('దం', 'U'), ('భ', 'U'), ('ప్రా', 'U'), ('య', '|'), ('వి', 'U'), ('శ్రా', 'U'), ('ణ', '|'), ('న', 'U'), ('క్రీ', 'U'), ('డా', 'U'), ('స', 'U'), ('క్తు', '|'), ('ల', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', '|'), ('లె', '|'), ('నో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>నినుసేవింపఁగ నాపదల్పొడమనీ, నిత్యోత్సవంబబ్బనీ
 జనమాత్రుండననీ, మహాత్ముఁడననీ, సంసార మోహంబు పై
@@ -840,32 +804,29 @@
 చ్చిన రానీ యవి నాకు భూషణములో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('గ', '|'), ('నా', 'U'), ('ప', '|'), ('ద', 'U'), ('ల్పొ', '|'), ('డ', '|'), ('మ', '|'), ('నీ', 'U'), ('ని', 'U'), ('త్యో', 'U'), ('త్స', '|'), ('వం', 'U'), ('బ', 'U'), ('బ్బ', '|'), ('నీ', 'U'), ('జ', '|'), ('న', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('న', '|'), ('నీ', 'U'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డ', '|'), ('న', '|'), ('నీ', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('పై', 'U'), ('కొ', '|'), ('న', '|'), ('నీ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('నీ', 'U'), ('గ్ర', '|'), ('హ', '|'), ('గ', '|'), ('తుల్', 'U'), ('గుం', 'U'), ('దిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('మే', 'U'), ('లు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('రా', 'U'), ('నీ', 'U'), ('య', '|'), ('వి', '|'), ('నా', 'U'), ('కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>ఏ వేదంబుఁ బఠించె లూత, భుజగంబే శాస్త్రముల్చూచెఁ దా
 నే విద్యాభ్యసనంబొనర్చెఁ గరి, చెంచే మంత్రమూహించె, బో
@@ -873,32 +834,29 @@
 సేవాసక్తియె కాక జంతుతతికిన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('వే', 'U'), ('దం', 'U'), ('బు', '|'), ('బ', '|'), ('ఠిం', 'U'), ('చె', '|'), ('లూ', 'U'), ('త', '|'), ('భు', '|'), ('జ', '|'), ('గం', 'U'), ('బే', 'U'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', 'U'), ('ల్చూ', 'U'), ('చె', '|'), ('దా', 'U'), ('నే', 'U'), ('వి', 'U'), ('ద్యా', 'U'), ('భ్య', '|'), ('స', '|'), ('నం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('గ', '|'), ('రి', '|'), ('చెం', 'U'), ('చే', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మూ', 'U'), ('హిం', 'U'), ('చె', '|'), ('బో', 'U'), ('ధా', 'U'), ('వి', 'U'), ('ర్భా', 'U'), ('వ', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('ముల్', 'U'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('ల', 'U'), ('య్యా', 'U'), ('కా', 'U'), ('వు', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', '|'), ('సం', 'U'), ('సే', 'U'), ('వా', 'U'), ('స', 'U'), ('క్తి', '|'), ('యె', '|'), ('కా', 'U'), ('క', '|'), ('జం', 'U'), ('తు', '|'), ('త', '|'), ('తి', '|'), ('కిన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>కాయల్గాచె వధూనఖాగ్రములచేఁ గాయంబు వక్షోజముల్‌
 రాయన్‌ రాపడెఱొమ్ము మన్మథ విహారక్లేశ విభ్రాంతిచే
@@ -906,32 +864,29 @@
 జేయంజాల విరక్తుఁ జేయఁగదవే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('య', 'U'), ('ల్గా', 'U'), ('చె', '|'), ('వ', '|'), ('ధూ', 'U'), ('న', '|'), ('ఖా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('గా', 'U'), ('యం', 'U'), ('బు', '|'), ('వ', 'U'), ('క్షో', 'U'), ('జ', '|'), ('ముల్', 'U'), ('రా', 'U'), ('యన్', 'U'), ('రా', 'U'), ('ప', '|'), ('డె', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('మ', 'U'), ('న్మ', '|'), ('థ', '|'), ('వి', '|'), ('హా', 'U'), ('ర', 'U'), ('క్లే', 'U'), ('శ', '|'), ('వి', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('చే', 'U'), ('బ్రా', 'U'), ('యం', 'U'), ('బా', 'U'), ('యె', '|'), ('ను', '|'), ('బ', 'U'), ('ట్ట', '|'), ('గ', 'U'), ('ట్టె', '|'), ('ద', '|'), ('ల', '|'), ('చె', 'U'), ('ప్ప', 'U'), ('న్రో', 'U'), ('త', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మే', 'U'), ('జే', 'U'), ('యం', 'U'), ('జా', 'U'), ('ల', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>నిన్నే రూపముగా భజింతుమదిలో, నీరూపుమోఁకాలొ, స్త్రీ
 చన్నో, కుంచమొ, మేఁకపెంట్రికయొ, యీసందేహముల్మాన్పి నా
@@ -939,32 +894,29 @@
 చిన్నీరేజవిహారమత్తమధుపా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్నే', 'U'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('గా', 'U'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నీ', 'U'), ('రూ', 'U'), ('పు', '|'), ('మో', 'U'), ('కా', 'U'), ('లొ', 'U'), ('స్త్రీ', 'U'), ('చ', 'U'), ('న్నో', 'U'), ('కుం', 'U'), ('చ', '|'), ('మొ', '|'), ('మే', 'U'), ('క', '|'), ('పెం', 'U'), ('ట్రి', '|'), ('క', '|'), ('యొ', '|'), ('యీ', 'U'), ('సం', 'U'), ('దే', 'U'), ('హ', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('న్పి', '|'), ('నా', 'U'), ('క', 'U'), ('న్నా', 'U'), ('ర', 'U'), ('న్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('స', '|'), ('గు', '|'), ('ణా', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('జూ', 'U'), ('ప', '|'), ('వే', 'U'), ('చి', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('జ', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('మ', 'U'), ('త్త', '|'), ('మ', '|'), ('ధు', '|'), ('పా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>నిను నావాఁకిలి గావుమంటినొ? మరున్నీలాలకభ్రాంతిఁ గుం
 టెన పొమ్మంటినొ? యెంగిలిచ్చి తిను తింటేఁగాని కాదంటినో
@@ -972,32 +924,29 @@
 సిన నావిన్నపమేల గైకొనవయా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('నా', 'U'), ('వా', 'U'), ('కి', '|'), ('లి', '|'), ('గా', 'U'), ('వు', '|'), ('మం', 'U'), ('టి', '|'), ('నొ', '|'), ('మ', '|'), ('రు', 'U'), ('న్నీ', 'U'), ('లా', 'U'), ('ల', '|'), ('క', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('గుం', 'U'), ('టె', '|'), ('న', '|'), ('పొ', 'U'), ('మ్మం', 'U'), ('టి', '|'), ('నొ', '|'), ('యెం', 'U'), ('గి', '|'), ('లి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('ను', '|'), ('తిం', 'U'), ('టే', 'U'), ('గా', 'U'), ('ని', '|'), ('కా', 'U'), ('దం', 'U'), ('టి', '|'), ('నో', 'U'), ('ని', '|'), ('ను', '|'), ('నె', 'U'), ('మ్మిం', 'U'), ('ద', '|'), ('గ', '|'), ('వి', 'U'), ('శ్వ', '|'), ('సిం', 'U'), ('చు', '|'), ('సు', '|'), ('జ', '|'), ('నా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('నా', 'U'), ('వి', 'U'), ('న్న', '|'), ('ప', '|'), ('మే', 'U'), ('ల', '|'), ('గై', 'U'), ('కొ', '|'), ('న', '|'), ('వ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>ఱాలన్‌ ఱువ్వఁగ జేతులాడవు కుమారా! రమ్మురమ్మంచునేఁ,
 జాలన్‌ జంపఁగ నేత్రముల్దివియఁగా శక్తుండనేఁగాను, నా
@@ -1005,32 +954,29 @@
 శ్రీలక్ష్మీపతి సేవితాంఘ్రియుగళా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('ఱా', 'U'), ('లన్', 'U'), ('ఱు', 'U'), ('వ్వ', '|'), ('గ', '|'), ('జే', 'U'), ('తు', '|'), ('లా', 'U'), ('డ', '|'), ('వు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U'), ('ర', 'U'), ('మ్ము', '|'), ('ర', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('నే', 'U'), ('జా', 'U'), ('లన్', 'U'), ('జం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('త్ర', '|'), ('ము', 'U'), ('ల్ది', '|'), ('వి', '|'), ('య', '|'), ('గా', 'U'), ('శ', 'U'), ('క్తుం', 'U'), ('డ', '|'), ('నే', 'U'), ('గా', 'U'), ('ను', '|'), ('నా', 'U'), ('శీ', 'U'), ('లం', 'U'), ('బే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('క', '|'), ('నీ', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మో', 'U'), ('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ప', '|'), ('తి', '|'), ('సే', 'U'), ('వి', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('యు', '|'), ('గ', '|'), ('ళా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>రాజుల్మత్తులు, వారిసేవ నరకప్రాయంబు, వారిచ్చు నం
 భోజాక్షీ చతురంతయాన తురగీ భూషాదు లాత్మవ్యథా
@@ -1038,32 +984,29 @@
 క్ష్మీ జాగ్రత్పరిణామ మిమ్ము దయతో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జు', 'U'), ('ల్మ', 'U'), ('త్తు', '|'), ('లు', '|'), ('వా', 'U'), ('రి', '|'), ('సే', 'U'), ('వ', '|'), ('న', '|'), ('ర', '|'), ('క', 'U'), ('ప్రా', 'U'), ('యం', 'U'), ('బు', '|'), ('వా', 'U'), ('రి', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('భో', 'U'), ('జా', 'U'), ('క్షీ', 'U'), ('చ', '|'), ('తు', '|'), ('రం', 'U'), ('త', '|'), ('యా', 'U'), ('న', '|'), ('తు', '|'), ('ర', '|'), ('గీ', 'U'), ('భూ', 'U'), ('షా', 'U'), ('దు', '|'), ('లా', 'U'), ('త్మ', 'U'), ('వ్య', '|'), ('థా', 'U'), ('బీ', 'U'), ('జం', 'U'), ('బు', 'U'), ('ల్త', '|'), ('ద', '|'), ('పే', 'U'), ('క్ష', '|'), ('చా', 'U'), ('లు', '|'), ('బ', '|'), ('రి', '|'), ('తృ', 'U'), ('ప్తిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('తిన్', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('జా', 'U'), ('గ్ర', 'U'), ('త్ప', '|'), ('రి', '|'), ('ణా', 'U'), ('మ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>నీరూపంబు దలంపగాఁ దుదమొదల్‌ నేఁగాన నీవైననున్‌
 రారా! రమ్మనియంచుఁ జెప్పవు వృథారంభంబు లింకేటికిన్‌
@@ -1071,32 +1014,29 @@
 శ్రీరామార్చిత పాదపద్మయుగళా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('గా', 'U'), ('దు', '|'), ('ద', '|'), ('మొ', '|'), ('దల్', 'U'), ('నే', 'U'), ('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('నున్', 'U'), ('రా', 'U'), ('రా', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('యం', 'U'), ('చు', '|'), ('జె', 'U'), ('ప్ప', '|'), ('వు', '|'), ('వృ', '|'), ('థా', 'U'), ('రం', 'U'), ('భం', 'U'), ('బు', '|'), ('లిం', 'U'), ('కే', 'U'), ('టి', '|'), ('కిన్', 'U'), ('నీ', 'U'), ('ర', 'U'), ('న్ముం', 'U'), ('పు', '|'), ('ము', '|'), ('పా', 'U'), ('ల', '|'), ('ముం', 'U'), ('పు', '|'), ('మి', '|'), ('క', '|'), ('ని', 'U'), ('న్నే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('డం', 'U'), ('జు', '|'), ('మీ', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర్చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('యు', '|'), ('గ', '|'), ('ళా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>నీకున్మాంసము వాంఛయేని కఱవా? నీచేతలేడుండఁగాఁ
 జోకైనట్టి కుఠారముండ ననలజ్యోతుండ, నీరుండఁగా
@@ -1104,32 +1044,29 @@
 జేకొంటెంగిలి మాంసమిట్లుదగునా? శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('కు', 'U'), ('న్మాం', 'U'), ('స', '|'), ('ము', '|'), ('వాం', 'U'), ('ఛ', '|'), ('యే', 'U'), ('ని', '|'), ('క', '|'), ('ఱ', '|'), ('వా', 'U'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('లే', 'U'), ('డుం', 'U'), ('డ', '|'), ('గా', 'U'), ('జో', 'U'), ('కై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('కు', '|'), ('ఠా', 'U'), ('ర', '|'), ('ముం', 'U'), ('డ', '|'), ('న', '|'), ('న', '|'), ('ల', 'U'), ('జ్యో', 'U'), ('తుం', 'U'), ('డ', '|'), ('నీ', 'U'), ('రుం', 'U'), ('డ', '|'), ('గా', 'U'), ('బా', 'U'), ('కం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చి', '|'), ('చే', 'U'), ('తి', '|'), ('పు', '|'), ('ను', '|'), ('క', 'U'), ('న్భ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('కా', 'U'), ('బో', 'U'), ('య', '|'), ('చే', 'U'), ('జే', 'U'), ('కొం', 'U'), ('టెం', 'U'), ('గి', '|'), ('లి', '|'), ('మాం', 'U'), ('స', '|'), ('మి', 'U'), ('ట్లు', '|'), ('ద', '|'), ('గు', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>రాజై దుష్కృతిజెందెఁ జందురుఁడు రారాజై కుబేరుండు దృ
 గ్రాజీవంబునఁగాంచె దుఃఖము కురుక్ష్మాపాలుఁడామాటనే
@@ -1137,32 +1074,29 @@
 చీ జన్మాంతరమందు నొల్లనుజుమీ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జై', 'U'), ('దు', 'U'), ('ష్కృ', '|'), ('తి', '|'), ('జెం', 'U'), ('దె', '|'), ('జం', 'U'), ('దు', '|'), ('రు', '|'), ('డు', '|'), ('రా', 'U'), ('రా', 'U'), ('జై', 'U'), ('కు', '|'), ('బే', 'U'), ('రుం', 'U'), ('డు', '|'), ('దృ', 'U'), ('గ్రా', 'U'), ('జీ', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('గాం', 'U'), ('చె', '|'), ('దుః', 'U'), ('ఖ', '|'), ('ము', '|'), ('కు', '|'), ('రు', 'U'), ('క్ష్మా', 'U'), ('పా', 'U'), ('లు', '|'), ('డా', 'U'), ('మా', 'U'), ('ట', '|'), ('నే', 'U'), ('యా', 'U'), ('జిం', 'U'), ('గూ', 'U'), ('లె', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('ల', '|'), ('తో', 'U'), ('నా', 'U'), ('రా', 'U'), ('జ', '|'), ('శ', 'U'), ('బ్దం', 'U'), ('బు', '|'), ('చీ', 'U'), ('చీ', 'U'), ('జ', 'U'), ('న్మాం', 'U'), ('త', '|'), ('ర', '|'), ('మం', 'U'), ('దు', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ను', '|'), ('జు', '|'), ('మీ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>రాజర్థాతురుఁడైనచో నెచట ధర్మంబుండు నేరీతి నా
 నాజాతి క్రియలేర్పడున్‌ సుఖము మాన్యశ్రేణి కెట్లబ్బు రూ
@@ -1170,32 +1104,29 @@
 రేజంబుల్‌ భజియింతురే తెఱఁగునన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ', 'U'), ('ర్థా', 'U'), ('తు', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('చో', 'U'), ('నె', '|'), ('చ', '|'), ('ట', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బుం', 'U'), ('డు', '|'), ('నే', 'U'), ('రీ', 'U'), ('తి', '|'), ('నా', 'U'), ('నా', 'U'), ('జా', 'U'), ('తి', 'U'), ('క్రి', '|'), ('య', '|'), ('లే', 'U'), ('ర్ప', '|'), ('డున్', 'U'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('మా', 'U'), ('న్య', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('కె', 'U'), ('ట్ల', 'U'), ('బ్బు', '|'), ('రూ', 'U'), ('పా', 'U'), ('జీ', 'U'), ('వా', 'U'), ('ళి', '|'), ('కి', '|'), ('నే', 'U'), ('ది', '|'), ('ది', 'U'), ('క్కు', '|'), ('ధృ', '|'), ('తి', '|'), ('నీ', 'U'), ('భ', '|'), ('క్తుల్', 'U'), ('భ', '|'), ('వ', 'U'), ('త్పా', 'U'), ('ద', '|'), ('నీ', 'U'), ('రే', 'U'), ('జం', 'U'), ('బుల్', 'U'), ('భ', '|'), ('జి', '|'), ('యిం', 'U'), ('తు', '|'), ('రే', 'U'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('నన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>తరఁగల్‌ పిప్పల పత్త్రముల్‌ మెఱుఁగుటద్దంబుల్‌ మరుద్దీపముల్‌,
 కరికర్ణాంతము లెండమావులతతుల్‌ ఖద్యోత కీట ప్రభల్‌
@@ -1203,32 +1134,29 @@
 సిరులందేల మదాంధులౌదురు జనుల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('గల్', 'U'), ('పి', 'U'), ('ప్ప', '|'), ('ల', '|'), ('ప', 'U'), ('త్త్ర', '|'), ('ముల్', 'U'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('ట', 'U'), ('ద్దం', 'U'), ('బుల్', 'U'), ('మ', '|'), ('రు', 'U'), ('ద్దీ', 'U'), ('ప', '|'), ('ము', 'U'), ('ల్క', '|'), ('రి', '|'), ('క', 'U'), ('ర్ణాం', 'U'), ('త', '|'), ('ము', '|'), ('లెం', 'U'), ('డ', '|'), ('మా', 'U'), ('వు', '|'), ('ల', '|'), ('త', '|'), ('తుల్', 'U'), ('ఖ', 'U'), ('ద్యో', 'U'), ('త', '|'), ('కీ', 'U'), ('ట', 'U'), ('ప్ర', '|'), ('భల్', 'U'), ('సు', '|'), ('ర', '|'), ('వీ', 'U'), ('థీ', 'U'), ('లి', '|'), ('ఖి', '|'), ('తా', 'U'), ('క్ష', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('సు', '|'), ('వుల్', 'U'), ('జ్యో', 'U'), ('త్స్నా', 'U'), ('ప', '|'), ('యః', 'U'), ('పిం', 'U'), ('డ', '|'), ('ముల్', 'U'), ('సి', '|'), ('రు', '|'), ('లం', 'U'), ('దే', 'U'), ('ల', '|'), ('మ', '|'), ('దాం', 'U'), ('ధు', '|'), ('లౌ', 'U'), ('దు', '|'), ('రు', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>నిన్ను న్నమ్మినరీతినమ్మనొరులన్‌, నీకన్న నాకెన్నలే
 రన్నల్దమ్ములు తల్లిదండ్రులు గురుండాపత్సహాయుండు నా
@@ -1236,32 +1164,29 @@
 చ్ఛిన్నానంద సుఖాబ్ధిఁ దేల్చెదొ కదే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్ను', 'U'), ('న్న', 'U'), ('మ్మి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('న', 'U'), ('మ్మ', '|'), ('నొ', '|'), ('రు', '|'), ('ల', 'U'), ('న్నీ', 'U'), ('క', 'U'), ('న్న', '|'), ('నా', 'U'), ('కె', 'U'), ('న్న', '|'), ('లే', 'U'), ('ర', 'U'), ('న్న', 'U'), ('ల్ద', 'U'), ('మ్ము', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('గు', '|'), ('రుం', 'U'), ('డా', 'U'), ('ప', 'U'), ('త్స', '|'), ('హా', 'U'), ('యుం', 'U'), ('డు', '|'), ('నా', 'U'), ('య', 'U'), ('న్నా', 'U'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('సం', 'U'), ('స్కృ', '|'), ('తి', '|'), ('వి', '|'), ('షా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('ధి', '|'), ('దా', 'U'), ('టిం', 'U'), ('చి', '|'), ('య', 'U'), ('చ్ఛి', 'U'), ('న్నా', 'U'), ('నం', 'U'), ('ద', '|'), ('సు', '|'), ('ఖా', 'U'), ('బ్ధి', '|'), ('దే', 'U'), ('ల్చె', '|'), ('దొ', '|'), ('క', '|'), ('దే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>నీపంచం బడియుండఁగాఁ గలిగిన న్భిక్షాన్నమే చాలు ని
 క్షేపంబబ్బిన రాజకీటముల నే సేవింపఁగా నోప నా
@@ -1269,32 +1194,29 @@
 జేపట్టం దయగల్గెనేని మదిలో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('పం', 'U'), ('చం', 'U'), ('బ', '|'), ('డి', '|'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('న్భి', 'U'), ('క్షా', 'U'), ('న్న', '|'), ('మే', 'U'), ('చా', 'U'), ('లు', '|'), ('ని', 'U'), ('క్షే', 'U'), ('పం', 'U'), ('బ', 'U'), ('బ్బి', '|'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('కీ', 'U'), ('ట', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('నో', 'U'), ('ప', '|'), ('నా', 'U'), ('శా', 'U'), ('పా', 'U'), ('శం', 'U'), ('బు', '|'), ('ల', '|'), ('జు', 'U'), ('ట్టి', 'U'), ('త్రి', 'U'), ('ప్ప', '|'), ('కు', '|'), ('ము', '|'), ('సం', 'U'), ('సా', 'U'), ('రా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('బం', 'U'), ('టు', '|'), ('గా', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టం', 'U'), ('ద', '|'), ('య', '|'), ('గ', 'U'), ('ల్గె', '|'), ('నే', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>నీపేరున్‌ భవదంఘ్రితీర్థము భవన్నిష్ఠ్యూత తాంబూలముల్‌
 నీ పళ్ళెంబు ప్రసాదముంగొనికదా నే బిడ్డఁడైనాఁడ న
@@ -1302,32 +1224,29 @@
 జేపట్టందగుఁ బట్టి మానఁదగదో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('పే', 'U'), ('రున్', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('భ', '|'), ('వ', 'U'), ('న్ని', 'U'), ('ష్ఠ్యూ', 'U'), ('త', '|'), ('తాం', 'U'), ('బూ', 'U'), ('ల', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('ప', 'U'), ('ళ్ళెం', 'U'), ('బు', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('ముం', 'U'), ('గొ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('నే', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('డై', 'U'), ('నా', 'U'), ('డ', '|'), ('న', 'U'), ('న్నీ', 'U'), ('పా', 'U'), ('టిం', 'U'), ('గ', '|'), ('రు', '|'), ('ణిం', 'U'), ('పు', '|'), ('మో', 'U'), ('ప', '|'), ('ని', '|'), ('క', '|'), ('నే', 'U'), ('నె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('గాన్', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టం', 'U'), ('ద', '|'), ('గు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మా', 'U'), ('న', '|'), ('ద', '|'), ('గ', '|'), ('దో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>"అమ్మా! యయ్య!" యటంచునెవ్వరిని నేనన్నన్శివా! నిన్ను నే
 సుమ్మీ నీ మదిఁ తల్లిదండ్రులనటంచు న్జూడఁగాఁబోకు నా
@@ -1335,32 +1254,29 @@
 జిమ్మంజీకటిఁగప్పిన\న్‌ గడుపు నన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('మ్మా', 'U'), ('య', 'U'), ('య్య', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('ని', '|'), ('నే', 'U'), ('న', 'U'), ('న్న', 'U'), ('న్శి', '|'), ('వా', 'U'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('సు', 'U'), ('మ్మీ', 'U'), ('నీ', 'U'), ('మ', '|'), ('ది', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('న', '|'), ('టం', 'U'), ('చు', 'U'), ('న్జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('బో', 'U'), ('కు', '|'), ('నా', 'U'), ('కి', 'U'), ('మ్మై', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('యు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('యున్', 'U'), ('గు', '|'), ('రు', '|'), ('డు', '|'), ('నీ', 'U'), ('వే', 'U'), ('కా', 'U'), ('న', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('పుం', 'U'), ('జి', 'U'), ('మ్మం', 'U'), ('జీ', 'U'), ('క', '|'), ('టి', '|'), ('గ', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('గ', '|'), ('డు', '|'), ('పు', '|'), ('నన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>కొడుకుల్‌ పుట్టరటంచు నేడ్తురవివేకు ల్జీవనభ్రాంతులై
 కొడుకుల్‌ పుట్టరె కౌరవేంద్రున కనేకుల్‌ వారిచే నేగతుల్‌
@@ -1368,32 +1284,29 @@
 చెడునే మోక్షపదం బపుత్త్రకునకున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('డు', '|'), ('కుల్', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('ర', '|'), ('టం', 'U'), ('చు', '|'), ('నే', 'U'), ('డ్తు', '|'), ('ర', '|'), ('వి', '|'), ('వే', 'U'), ('కు', 'U'), ('ల్జీ', 'U'), ('వ', '|'), ('న', 'U'), ('భ్రాం', 'U'), ('తు', '|'), ('లై', 'U'), ('కొ', '|'), ('డు', '|'), ('కుల్', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('రె', '|'), ('కౌ', 'U'), ('ర', '|'), ('వేం', 'U'), ('ద్రు', '|'), ('న', '|'), ('క', '|'), ('నే', 'U'), ('కుల్', 'U'), ('వా', 'U'), ('రి', '|'), ('చే', 'U'), ('నే', 'U'), ('గ', '|'), ('తుల్', 'U'), ('వ', '|'), ('డ', '|'), ('సెం', 'U'), ('బు', 'U'), ('త్త్రు', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('యా', 'U'), ('శు', '|'), ('కు', '|'), ('న', '|'), ('కున్', 'U'), ('బా', 'U'), ('టి', 'U'), ('ల్లె', '|'), ('నే', 'U'), ('దు', 'U'), ('ర్గ', '|'), ('తుల్', 'U'), ('చె', '|'), ('డు', '|'), ('నే', 'U'), ('మో', 'U'), ('క్ష', '|'), ('ప', '|'), ('దం', 'U'), ('బ', '|'), ('పు', 'U'), ('త్త్ర', '|'), ('కు', '|'), ('న', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>గ్రహదోషంబులు దుర్నిమిత్తములు నీ కల్యాణనామంబు ప్ర
 త్యహముంబేర్కొను నుత్తమోత్తముల బాధంబెట్టగానోపునే
@@ -1401,32 +1314,29 @@
 సి హతక్లేశులుగారుగాక మనుజుల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('గ్ర', '|'), ('హ', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('దు', 'U'), ('ర్ని', '|'), ('మి', 'U'), ('త్త', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', 'U'), ('ప్ర', 'U'), ('త్య', '|'), ('హ', '|'), ('ముం', 'U'), ('బే', 'U'), ('ర్కొ', '|'), ('ను', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('బా', 'U'), ('ధం', 'U'), ('బె', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('నో', 'U'), ('పు', '|'), ('నే', 'U'), ('ద', '|'), ('హ', '|'), ('నుం', 'U'), ('గ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('జా', 'U'), ('లు', '|'), ('నే', 'U'), ('శ', '|'), ('ల', '|'), ('భ', '|'), ('సం', 'U'), ('తా', 'U'), ('నం', 'U'), ('బు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('హ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శు', '|'), ('లు', '|'), ('గా', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('మ', '|'), ('ను', '|'), ('జుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>అడుగంబోనిఁక నన్యమార్గరతులం బ్రాణావనోత్సాహినై,
 యడుగంబోయినఁబోదు నీదు పదపద్మారాధకశ్రేణియు
@@ -1434,32 +1344,29 @@
 రెడిదింకేమి? భవత్ప్రసాదమె తగున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('డు', '|'), ('గం', 'U'), ('బో', 'U'), ('ని', '|'), ('క', '|'), ('న', 'U'), ('న్య', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ర', '|'), ('తు', '|'), ('లం', 'U'), ('బ్రా', 'U'), ('ణా', 'U'), ('వ', '|'), ('నో', 'U'), ('త్సా', 'U'), ('హి', '|'), ('నై', 'U'), ('య', '|'), ('డు', '|'), ('గం', 'U'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('బో', 'U'), ('దు', '|'), ('నీ', 'U'), ('దు', '|'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('రా', 'U'), ('ధ', '|'), ('క', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('యు', 'U'), ('న్నె', '|'), ('డ', '|'), ('కు', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ని', '|'), ('యు', '|'), ('నా', 'U'), ('కే', 'U'), ('లా', 'U'), ('ప', '|'), ('రా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('కో', 'U'), ('రె', '|'), ('డి', '|'), ('దిం', 'U'), ('కే', 'U'), ('మి', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('మె', '|'), ('త', '|'), ('గున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>అదమాతంగము లందలంబులు హరుల్మాణిక్యము ల్పల్లకుల్‌,
 ముదితల్‌, చిత్రదుకూలము ల్పరిమళంబు ల్మోక్షమీఁజాలునేఁ
@@ -1467,32 +1374,29 @@
 చి దినంబుల్‌ వృథపుత్తురజ్ఞులకటా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ద', '|'), ('మా', 'U'), ('తం', 'U'), ('గ', '|'), ('ము', '|'), ('లం', 'U'), ('ద', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('హ', '|'), ('రు', 'U'), ('ల్మా', 'U'), ('ణి', 'U'), ('క్య', '|'), ('ము', 'U'), ('ల్ప', 'U'), ('ల్ల', '|'), ('కు', 'U'), ('ల్ము', '|'), ('ది', '|'), ('త', 'U'), ('ల్చి', 'U'), ('త్ర', '|'), ('దు', '|'), ('కూ', 'U'), ('ల', '|'), ('ము', 'U'), ('ల్ప', '|'), ('రి', '|'), ('మ', '|'), ('ళం', 'U'), ('బు', 'U'), ('ల్మో', 'U'), ('క్ష', '|'), ('మీ', 'U'), ('జా', 'U'), ('లు', '|'), ('నే', 'U'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('వీ', 'U'), ('ని', '|'), ('న', '|'), ('పే', 'U'), ('క్ష', '|'), ('సే', 'U'), ('సి', '|'), ('నృ', '|'), ('ప', '|'), ('ధా', 'U'), ('మ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('చి', '|'), ('ది', '|'), ('నం', 'U'), ('బుల్', 'U'), ('వృ', '|'), ('థ', '|'), ('పు', 'U'), ('త్తు', '|'), ('ర', 'U'), ('జ్ఞు', '|'), ('ల', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>రోసీరోయదు కామినీజనుల తారుణ్యోరుసౌఖ్యంబులన్‌
 బాసీపాయదు పుత్త్రమిత్రజన సంపద్భ్రాంతి వాంఛాలతల్‌
@@ -1500,32 +1404,29 @@
 చేసీచేయదు దీనిత్రుళ్ళణఁపవే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('రో', 'U'), ('సీ', 'U'), ('రో', 'U'), ('య', '|'), ('దు', '|'), ('కా', 'U'), ('మి', '|'), ('నీ', 'U'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('తా', 'U'), ('రు', 'U'), ('ణ్యో', 'U'), ('రు', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బా', 'U'), ('సీ', 'U'), ('పా', 'U'), ('య', '|'), ('దు', '|'), ('పు', 'U'), ('త్త్ర', '|'), ('మి', 'U'), ('త్ర', '|'), ('జ', '|'), ('న', '|'), ('సం', 'U'), ('ప', '|'), ('ద్భ్రాం', 'U'), ('తి', '|'), ('వాం', 'U'), ('ఛా', 'U'), ('ల', '|'), ('తల్', 'U'), ('కో', 'U'), ('సీ', 'U'), ('కో', 'U'), ('య', '|'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('నం', 'U'), ('బ', '|'), ('క', '|'), ('ట', '|'), ('నీ', 'U'), ('కుం', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('గా', 'U'), ('స', 'U'), ('త్క్రి', '|'), ('యల్', 'U'), ('చే', 'U'), ('సీ', 'U'), ('చే', 'U'), ('య', '|'), ('దు', '|'), ('దీ', 'U'), ('ని', 'U'), ('త్రు', 'U'), ('ళ్ళ', '|'), ('ణ', '|'), ('ప', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>ఎన్నేళ్ళుండితి నేమిగంటినిఁక నే నెవ్వారి రక్షించెదన్‌
 నిన్నే నిష్ఠ భజించెద న్నిరుపమోన్నిద్రప్రమోదంబు నా
@@ -1533,32 +1434,29 @@
 జిన్నంబుచ్చక నన్ను నేలుకొనవే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('న్నే', 'U'), ('ళ్ళుం', 'U'), ('డి', '|'), ('తి', '|'), ('నే', 'U'), ('మి', '|'), ('గం', 'U'), ('టి', '|'), ('ని', '|'), ('క', '|'), ('నే', 'U'), ('నె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('ని', 'U'), ('న్నే', 'U'), ('ని', 'U'), ('ష్ఠ', '|'), ('భ', '|'), ('జిం', 'U'), ('చె', '|'), ('ద', 'U'), ('న్ని', '|'), ('రు', '|'), ('ప', '|'), ('మో', 'U'), ('న్ని', '|'), ('ద్ర', 'U'), ('ప్ర', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నా', 'U'), ('కె', 'U'), ('న్నం', 'U'), ('డ', 'U'), ('బ్బె', '|'), ('డు', '|'), ('నెం', 'U'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('మి', '|'), ('క', '|'), ('నే', 'U'), ('ని', 'U'), ('ట్లు', 'U'), ('న్న', '|'), ('నే', 'U'), ('మ', 'U'), ('య్యె', '|'), ('డిం', 'U'), ('జి', 'U'), ('న్నం', 'U'), ('బు', 'U'), ('చ్చ', '|'), ('క', '|'), ('న', 'U'), ('న్ను', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>చావంకాలము చేరువౌటెఱిఁగియుం జాలింపఁగా లేక త
 న్నేవైద్యుండు చికిత్సఁబ్రోవగలఁడో? యేమందు రక్షించునో?
@@ -1566,32 +1464,29 @@
 జీవచ్ఛ్రాద్ధముఁజేసికొన్న యతియున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('వం', 'U'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('చే', 'U'), ('రు', '|'), ('వౌ', 'U'), ('టె', '|'), ('ఱి', '|'), ('గి', '|'), ('యుం', 'U'), ('జా', 'U'), ('లిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('త', 'U'), ('న్నే', 'U'), ('వై', 'U'), ('ద్యుం', 'U'), ('డు', '|'), ('చి', '|'), ('కి', 'U'), ('త్స', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('డో', 'U'), ('యే', 'U'), ('మం', 'U'), ('దు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యే', 'U'), ('వే', 'U'), ('ల్పు', 'U'), ('ల్కృ', '|'), ('ప', '|'), ('జూ', 'U'), ('తు', '|'), ('రో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('ని', 'U'), ('న్నిం', 'U'), ('తై', 'U'), ('న', '|'), ('జిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('డా', 'U'), ('జీ', 'U'), ('వ', 'U'), ('చ్ఛ్రా', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('కొ', 'U'), ('న్న', '|'), ('య', '|'), ('తి', '|'), ('యున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>దినముంజిత్తములో సువర్ణముఖరీతీరప్రదేశామ్ర కా
 ననమధ్యోపల వేదికాగ్రమున నానందంబునం బంకజా
@@ -1599,32 +1494,29 @@
 సిని మాయానటనల్‌ సుఖంబులగునే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('ది', '|'), ('న', '|'), ('ముం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('లో', 'U'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ఖ', '|'), ('రీ', 'U'), ('తీ', 'U'), ('ర', 'U'), ('ప్ర', '|'), ('దే', 'U'), ('శా', 'U'), ('మ్ర', '|'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('మ', 'U'), ('ధ్యో', 'U'), ('ప', '|'), ('ల', '|'), ('వే', 'U'), ('ది', '|'), ('కా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('బం', 'U'), ('క', '|'), ('జా', 'U'), ('స', '|'), ('న', '|'), ('ని', 'U'), ('ష్ఠ', 'U'), ('న్ని', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', 'U'), ('న్న', '|'), ('న', '|'), ('ది', '|'), ('వో', 'U'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('వి', '|'), ('లా', 'U'), ('సి', '|'), ('ని', '|'), ('మా', 'U'), ('యా', 'U'), ('న', '|'), ('ట', '|'), ('నల్', 'U'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('గు', '|'), ('నే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>ఆలంచున్మెడఁగట్టి దానికి నపత్యశ్రేణి గల్పించి త
 ద్బాల వ్రాతము నిచ్చిపుచ్చుకొను సంబంధంబుగావించి యా
@@ -1632,32 +1524,29 @@
 సీలన్సీల యమర్పినట్లొసంగితో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('లం', 'U'), ('చు', 'U'), ('న్మె', '|'), ('డ', '|'), ('గ', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('ని', '|'), ('కి', '|'), ('న', '|'), ('ప', 'U'), ('త్య', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('త', 'U'), ('ద్బా', 'U'), ('ల', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('ని', 'U'), ('చ్చి', '|'), ('పు', 'U'), ('చ్చు', '|'), ('కొ', '|'), ('ను', '|'), ('సం', 'U'), ('బం', 'U'), ('ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('యా', 'U'), ('మా', 'U'), ('ల', 'U'), ('ర్కం', 'U'), ('బు', '|'), ('న', '|'), ('బాం', 'U'), ('ధ', '|'), ('వం', 'U'), ('బ', '|'), ('నె', '|'), ('డి', 'U'), ('ప్రే', 'U'), ('మం', 'U'), ('గొం', 'U'), ('ద', '|'), ('ఱం', 'U'), ('ద్రి', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('సీ', 'U'), ('ల', 'U'), ('న్సీ', 'U'), ('ల', '|'), ('య', '|'), ('మ', 'U'), ('ర్పి', '|'), ('న', 'U'), ('ట్లొ', '|'), ('సం', 'U'), ('గి', '|'), ('తో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>తనువే నిత్యముగానొనర్చు మది లేదా, చచ్చి జన్మింపకుం
 డ నుపాయంబు ఘటింపు, మీ గతుల రెంటన్నేర్పు లేకున్న లే
@@ -1665,32 +1554,29 @@
 సి నినుంగాంచెదఁగాక కాలముననో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ను', '|'), ('వే', 'U'), ('ని', 'U'), ('త్య', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('మ', '|'), ('ది', '|'), ('లే', 'U'), ('దా', 'U'), ('చ', 'U'), ('చ్చి', '|'), ('జ', 'U'), ('న్మిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('డ', '|'), ('ను', '|'), ('పా', 'U'), ('యం', 'U'), ('బు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('రెం', 'U'), ('ట', 'U'), ('న్నే', 'U'), ('ర్పు', '|'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('నా', 'U'), ('కి', 'U'), ('ప్పు', '|'), ('డె', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('కా', 'U'), ('ర్యం', 'U'), ('బు', 'U'), ('న్న', '|'), ('సం', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('ని', '|'), ('నుం', 'U'), ('గాం', 'U'), ('చె', '|'), ('ద', '|'), ('గా', 'U'), ('క', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('నో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>పదునాల్గేలె మహాయుగంబులొక భూపాలుండు, చెల్లించె న
 య్యుదయాస్తాచలసంధినాజ్ఞ నొకఁడాయుష్మంతుఁడై వీరి య
@@ -1698,32 +1584,29 @@
 చ్చెదరో రాజులమంచు నక్కటకటా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('దు', '|'), ('నా', 'U'), ('ల్గే', 'U'), ('లె', '|'), ('మ', '|'), ('హా', 'U'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('లొ', '|'), ('క', '|'), ('భూ', 'U'), ('పా', 'U'), ('లుం', 'U'), ('డు', '|'), ('చె', 'U'), ('ల్లిం', 'U'), ('చె', '|'), ('న', 'U'), ('య్యు', '|'), ('ద', '|'), ('యా', 'U'), ('స్తా', 'U'), ('చ', '|'), ('ల', '|'), ('సం', 'U'), ('ధి', '|'), ('నా', 'U'), ('జ్ఞ', '|'), ('నొ', '|'), ('క', '|'), ('డా', 'U'), ('యు', 'U'), ('ష్మం', 'U'), ('తు', '|'), ('డై', 'U'), ('వీ', 'U'), ('రి', '|'), ('య', 'U'), ('భ్యు', '|'), ('ద', '|'), ('యం', 'U'), ('బె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('వి', '|'), ('న', '|'), ('రొ', '|'), ('య', 'U'), ('ల్పు', 'U'), ('ల్మ', 'U'), ('త్తు', '|'), ('లై', 'U'), ('యే', 'U'), ('ల', '|'), ('చ', 'U'), ('చ్చె', '|'), ('ద', '|'), ('రో', 'U'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('మం', 'U'), ('చు', '|'), ('న', 'U'), ('క్క', '|'), ('ట', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>రాజన్నంతనెపోవునా కృపయు ధర్మంబాభిజాత్యంబు వి
 ద్యాజాత క్షమ సత్యభాషణము విద్వన్మిత్ర సంరక్షయున్‌
@@ -1731,32 +1614,29 @@
 ర్బీజ శ్రేష్ఠులుగా గతంబుగలదే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ', 'U'), ('న్నం', 'U'), ('త', '|'), ('నె', '|'), ('పో', 'U'), ('వు', '|'), ('నా', 'U'), ('కృ', '|'), ('ప', '|'), ('యు', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బా', 'U'), ('భి', '|'), ('జా', 'U'), ('త్యం', 'U'), ('బు', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('జా', 'U'), ('త', 'U'), ('క్ష', '|'), ('మ', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('న్మి', 'U'), ('త్ర', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('యున్', 'U'), ('సౌ', 'U'), ('జ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('కృ', '|'), ('తం', 'U'), ('బె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ట', '|'), ('యు', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('సం', 'U'), ('బు', '|'), ('గా', 'U'), ('కు', 'U'), ('న్న', '|'), ('దు', 'U'), ('ర్బీ', 'U'), ('జ', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>మును నీచే నపవర్గ రాజ్యపదవీమూర్ధాభిషేకంబు గాం
 చిన పుణ్యాత్ములు నేను నొక్కసరివో చింతించి చూడంగ నె
@@ -1764,32 +1644,29 @@
 రినిఁగాఁగా నినుఁగానఁగాక మదిలో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('నీ', 'U'), ('చే', 'U'), ('న', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', '|'), ('రా', 'U'), ('జ్య', '|'), ('ప', '|'), ('ద', '|'), ('వీ', 'U'), ('మూ', 'U'), ('ర్ధా', 'U'), ('భి', '|'), ('షే', 'U'), ('కం', 'U'), ('బు', '|'), ('గాం', 'U'), ('చి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('లు', '|'), ('నే', 'U'), ('ను', '|'), ('నొ', 'U'), ('క్క', '|'), ('స', '|'), ('రి', '|'), ('వో', 'U'), ('చిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డం', 'U'), ('గ', '|'), ('నె', 'U'), ('ట్ల', '|'), ('ని', '|'), ('నం', 'U'), ('గీ', 'U'), ('ట', '|'), ('ఫ', '|'), ('ణీం', 'U'), ('ద్ర', '|'), ('పో', 'U'), ('త', '|'), ('మ', '|'), ('ద', '|'), ('వే', 'U'), ('దం', 'U'), ('డో', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('సా', 'U'), ('వి', '|'), ('చా', 'U'), ('రి', '|'), ('ని', '|'), ('గా', 'U'), ('గా', 'U'), ('ని', '|'), ('ను', '|'), ('గా', 'U'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>పవమానాశన భూషణప్రకరము ల్భద్రేభచర్మంబు నా
 టవికత్వంబు ప్రియంబులై భుజగశుండాలాటవీచారులన్‌
@@ -1797,32 +1674,29 @@
 చ్చివినోదించుట కేమి కారణమయా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('వ', '|'), ('మా', 'U'), ('నా', 'U'), ('శ', '|'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('క', '|'), ('ర', '|'), ('ము', 'U'), ('ల్భ', '|'), ('ద్రే', 'U'), ('భ', '|'), ('చ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('నా', 'U'), ('ట', '|'), ('వి', '|'), ('క', 'U'), ('త్వం', 'U'), ('బు', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బు', '|'), ('లై', 'U'), ('భు', '|'), ('జ', '|'), ('గ', '|'), ('శుం', 'U'), ('డా', 'U'), ('లా', 'U'), ('ట', '|'), ('వీ', 'U'), ('చా', 'U'), ('రు', '|'), ('లన్', 'U'), ('భ', '|'), ('వ', '|'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('బా', 'U'), ('పు', '|'), ('టొ', 'U'), ('ప్పు', '|'), ('చె', '|'), ('ల', '|'), ('దిం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('చి', '|'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('మి', 'U'), ('చ్చి', '|'), ('వి', '|'), ('నో', 'U'), ('దిం', 'U'), ('చు', '|'), ('ట', '|'), ('కే', 'U'), ('మి', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>అమరస్త్రీలరమించినంజెడదు మోహంబింతయు\న్‌, బ్రహ్మప
 ట్టము సిద్ధించిన నాసదీఱదు నిరూఢక్రోధము\న్‌ సర్వలో
@@ -1830,32 +1704,29 @@
 సి మహాపాతకవారిరాశిఁగడతు\న్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('ర', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('ర', '|'), ('మిం', 'U'), ('చి', '|'), ('నం', 'U'), ('జె', '|'), ('డ', '|'), ('దు', '|'), ('మో', 'U'), ('హం', 'U'), ('బిం', 'U'), ('త', '|'), ('యు', 'U'), ('న్బ్ర', 'U'), ('హ్మ', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ము', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('స', '|'), ('దీ', 'U'), ('ఱ', '|'), ('దు', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', 'U'), ('క్రో', 'U'), ('ధ', '|'), ('మున్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('న్మ్రిం', 'U'), ('గి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('దిం', 'U'), ('దు', '|'), ('గ', '|'), ('ల', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బొ', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('వా', 'U'), ('రి', '|'), ('రా', 'U'), ('శి', '|'), ('గ', '|'), ('డ', '|'), ('తున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>చనువారిం గని యేడ్చువారు జముఁడా సత్యంబుగా వత్తు మే
 మనుమానంబిఁకలేదు నమ్మమని తారావేళ నా రేవునన్‌
@@ -1863,32 +1734,29 @@
 జెనఁటుల్గానరు దీని భావమిదివో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ను', '|'), ('వా', 'U'), ('రిం', 'U'), ('గ', '|'), ('ని', '|'), ('యే', 'U'), ('డ్చు', '|'), ('వా', 'U'), ('రు', '|'), ('జ', '|'), ('ము', '|'), ('డా', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('వ', 'U'), ('త్తు', '|'), ('మే', 'U'), ('మ', '|'), ('ను', '|'), ('మా', 'U'), ('నం', 'U'), ('బి', '|'), ('క', '|'), ('లే', 'U'), ('దు', '|'), ('న', 'U'), ('మ్మ', '|'), ('మ', '|'), ('ని', '|'), ('తా', 'U'), ('రా', 'U'), ('వే', 'U'), ('ళ', '|'), ('నా', 'U'), ('రే', 'U'), ('వు', '|'), ('నన్', 'U'), ('ము', '|'), ('ను', '|'), ('గం', 'U'), ('బో', 'U'), ('వు', '|'), ('చు', '|'), ('బా', 'U'), ('స', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('సు', '|'), ('మీ', 'U'), ('ము', 'U'), ('మ్మా', 'U'), ('టి', '|'), ('కిం', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('జె', '|'), ('న', '|'), ('టు', 'U'), ('ల్గా', 'U'), ('న', '|'), ('రు', '|'), ('దీ', 'U'), ('ని', '|'), ('భా', 'U'), ('వ', '|'), ('మి', '|'), ('ది', '|'), ('వో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>భవదుఃఖంబులు రాజకీటముల నేఁ బ్రార్థించినం బాయునే
 భవదంఘ్రిస్తుతి చేతఁగాక, విలసద్బాల క్షుథాక్లేశ దు
@@ -1896,32 +1764,29 @@
 ష్టి విశేషంబుననిచ్చు చంటబలెనో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('లు', '|'), ('రా', 'U'), ('జ', '|'), ('కీ', 'U'), ('ట', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చి', '|'), ('నం', 'U'), ('బా', 'U'), ('యు', '|'), ('నే', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', 'U'), ('స్తు', '|'), ('తి', '|'), ('చే', 'U'), ('త', '|'), ('గా', 'U'), ('క', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('ద్బా', 'U'), ('ల', 'U'), ('క్షు', '|'), ('థా', 'U'), ('క్లే', 'U'), ('శ', '|'), ('దు', 'U'), ('ష్ట', '|'), ('వి', '|'), ('ధు', 'U'), ('ల్మా', 'U'), ('ను', '|'), ('నె', '|'), ('చూ', 'U'), ('డ', '|'), ('మే', 'U'), ('క', '|'), ('మె', '|'), ('డ', '|'), ('చం', 'U'), ('టం', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('వి', '|'), ('శే', 'U'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('చ్చు', '|'), ('చం', 'U'), ('ట', '|'), ('బ', '|'), ('లె', '|'), ('నో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>పవి పుష్పంబగు, నగ్ని మంచగు, నకూపారంబు భూమిస్థలం
 బవు, శత్రుండతిమిత్రుఁడౌ, విషము దివ్యాహారమౌ నెన్నఁగా
@@ -1929,32 +1794,29 @@
 శివ! నీనామము సర్వవశ్యకరమౌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('వి', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('గ్ని', '|'), ('మం', 'U'), ('చ', '|'), ('గు', '|'), ('న', '|'), ('కూ', 'U'), ('పా', 'U'), ('రం', 'U'), ('బు', '|'), ('భూ', 'U'), ('మి', 'U'), ('స్థ', '|'), ('లం', 'U'), ('బ', '|'), ('వు', '|'), ('శ', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('తి', '|'), ('మి', 'U'), ('త్రు', '|'), ('డౌ', 'U'), ('వి', '|'), ('ష', '|'), ('ము', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('హా', 'U'), ('ర', '|'), ('మౌ', 'U'), ('నె', 'U'), ('న్న', '|'), ('గా', 'U'), ('న', '|'), ('వ', '|'), ('నీ', 'U'), ('మం', 'U'), ('డ', '|'), ('లి', '|'), ('లో', 'U'), ('ప', '|'), ('లన్', 'U'), ('శి', '|'), ('వ', '|'), ('శి', '|'), ('వే', 'U'), ('త్యా', 'U'), ('భా', 'U'), ('ష', '|'), ('ణో', 'U'), ('ల్లా', 'U'), ('సి', '|'), ('కిన్', 'U'), ('శి', '|'), ('వ', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('స', 'U'), ('ర్వ', '|'), ('వ', 'U'), ('శ్య', '|'), ('క', '|'), ('ర', '|'), ('మౌ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>లేవో కానలఁ గందమూలఫలముల్‌ లేవో గుహల్‌ తోయముల్‌
 లేవో యేఱులఁ బల్లవాస్తరణముల్‌ లేవో సదాయాత్మలో
@@ -1962,32 +1824,29 @@
 సేవల్సేయఁగఁ బోదురేలొకొ జనుల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('లే', 'U'), ('వో', 'U'), ('కా', 'U'), ('న', '|'), ('ల', '|'), ('గం', 'U'), ('ద', '|'), ('మూ', 'U'), ('ల', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('లే', 'U'), ('వో', 'U'), ('గు', '|'), ('హల్', 'U'), ('తో', 'U'), ('య', '|'), ('ముల్', 'U'), ('లే', 'U'), ('వో', 'U'), ('యే', 'U'), ('ఱు', '|'), ('ల', '|'), ('బ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('స్త', '|'), ('ర', '|'), ('ణ', '|'), ('ముల్', 'U'), ('లే', 'U'), ('వో', 'U'), ('స', '|'), ('దా', 'U'), ('యా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('లే', 'U'), ('వో', 'U'), ('నీ', 'U'), ('వు', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('ల', 'U'), ('న్మ', '|'), ('ను', '|'), ('ప', '|'), ('జా', 'U'), ('లిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('భూ', 'U'), ('పా', 'U'), ('లు', '|'), ('రన్', 'U'), ('సే', 'U'), ('వ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గ', '|'), ('బో', 'U'), ('దు', '|'), ('రే', 'U'), ('లొ', '|'), ('కొ', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>మును నేఁ బుట్టిన పుట్టులెన్నిగలవో మోహంబుచే నందుఁ జే
 సిన కర్మంబుల ప్రోవులెన్నిగలవో చింతించినం గాన నీ
@@ -1995,32 +1854,29 @@
 ల్చినపుణ్యంబునకుం గృపారతుఁడవై శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('నే', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('ట్టు', '|'), ('లె', 'U'), ('న్ని', '|'), ('గ', '|'), ('ల', '|'), ('వో', 'U'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('చే', 'U'), ('నం', 'U'), ('దు', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('క', '|'), ('ర్మం', 'U'), ('బు', '|'), ('ల', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('లె', 'U'), ('న్ని', '|'), ('గ', '|'), ('ల', '|'), ('వో', 'U'), ('చిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('నం', 'U'), ('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('జ', '|'), ('న', '|'), ('నం', 'U'), ('బే', 'U'), ('య', '|'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('వా', 'U'), ('డ', '|'), ('ని', '|'), ('ది', '|'), ('యే', 'U'), ('చా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('న', '|'), ('కుం', 'U'), ('గృ', '|'), ('పా', 'U'), ('ర', '|'), ('తు', '|'), ('డ', '|'), ('వై', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>తనువెందాఁక ధరిత్రినుండు నను నందాఁక న్మహారోగదీ
 పన దుఃఖాదులఁ బొందకుండ ననుకంపాదృష్టి వీక్షించి యా
@@ -2028,32 +1884,29 @@
 సిన చిత్తంబుననుండఁజేయ గదవే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ను', '|'), ('వెం', 'U'), ('దా', 'U'), ('క', '|'), ('ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('నుం', 'U'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('నం', 'U'), ('దా', 'U'), ('క', 'U'), ('న్మ', '|'), ('హా', 'U'), ('రో', 'U'), ('గ', '|'), ('దీ', 'U'), ('ప', '|'), ('న', '|'), ('దుః', 'U'), ('ఖా', 'U'), ('దు', '|'), ('ల', '|'), ('బొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('న', '|'), ('ను', '|'), ('కం', 'U'), ('పా', 'U'), ('దృ', 'U'), ('ష్టి', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('యా', 'U'), ('వె', '|'), ('ను', '|'), ('క', 'U'), ('న్నీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ము', 'U'), ('ల్ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', 'U'), ('న్వి', 'U'), ('శ్వ', 'U'), ('ప్ర', '|'), ('పం', 'U'), ('చం', 'U'), ('బు', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డ', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>మలభూయిష్ఠ మనోజధామము సుషుమ్నాద్వారమో? యారు కుం
 డలియో? పాదకరాక్షియుగ్మములు షట్కంజంబులో? మోముదా
@@ -2061,32 +1914,29 @@
 సిలిసేవింతురు కాంతల\న్‌ భువి జనుల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ల', '|'), ('భూ', 'U'), ('యి', 'U'), ('ష్ఠ', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('ధా', 'U'), ('మ', '|'), ('ము', '|'), ('సు', '|'), ('షు', 'U'), ('మ్నా', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('మో', 'U'), ('యా', 'U'), ('రు', '|'), ('కుం', 'U'), ('డ', '|'), ('లి', '|'), ('యో', 'U'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('రా', 'U'), ('క్షి', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('లు', '|'), ('ష', 'U'), ('ట్కం', 'U'), ('జం', 'U'), ('బు', '|'), ('లో', 'U'), ('మో', 'U'), ('ము', '|'), ('దా', 'U'), ('జ', '|'), ('ల', '|'), ('జం', 'U'), ('బో', 'U'), ('ని', '|'), ('ట', '|'), ('లం', 'U'), ('బు', '|'), ('చం', 'U'), ('ద్ర', '|'), ('క', '|'), ('ళ', '|'), ('యో', 'U'), ('సం', 'U'), ('గం', 'U'), ('బు', '|'), ('యో', 'U'), ('గం', 'U'), ('బొ', '|'), ('గా', 'U'), ('సి', '|'), ('లి', '|'), ('సే', 'U'), ('విం', 'U'), ('తు', '|'), ('రు', '|'), ('కాం', 'U'), ('త', '|'), ('లన్', 'U'), ('భు', '|'), ('వి', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>జలకంబుల్‌, రసముల్‌, ప్రసూనములు, వాచాబంధముల్‌, వాద్యము
 ల్కలశబ్దధ్వను లంచితాంబరమలంకారంబు దీప్తుల్మెఱుం
@@ -2094,32 +1944,29 @@
 జిల దివ్యార్చన గూర్చినేర్చిన క్రియన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', 'U'), ('ల్ర', '|'), ('స', '|'), ('ము', 'U'), ('ల్ప్ర', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('వా', 'U'), ('చా', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్వా', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్క', '|'), ('ల', '|'), ('శ', 'U'), ('బ్ద', 'U'), ('ధ్వ', '|'), ('ను', '|'), ('లం', 'U'), ('చి', '|'), ('తాం', 'U'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('లం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('దీ', 'U'), ('ప్తు', 'U'), ('ల్మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('లు', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ము', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('గా', 'U'), ('గొ', 'U'), ('ల్తు', 'U'), ('న్ని', '|'), ('నున్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('రం', 'U'), ('జి', '|'), ('ల', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('ర్చ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', 'U'), ('క్రి', '|'), ('యన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>ఏలీలన్నుతియింపవచ్చు నుపమోత్ప్రేక్షా ధ్వనివ్యంగ్యశ
 బ్దాలంకార విశేషభాషల కలభ్యంబైన నీరూపముం
@@ -2127,32 +1974,29 @@
 చీ! లజ్జింపరుగాక మాదృశకవుల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('లీ', 'U'), ('ల', 'U'), ('న్ను', '|'), ('తి', '|'), ('యిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('ప', '|'), ('మో', 'U'), ('త్ప్రే', 'U'), ('క్షా', 'U'), ('ధ్వ', '|'), ('ని', 'U'), ('వ్యం', 'U'), ('గ్య', '|'), ('శ', 'U'), ('బ్దా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('భా', 'U'), ('ష', '|'), ('ల', '|'), ('క', '|'), ('ల', 'U'), ('భ్యం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('రూ', 'U'), ('ప', '|'), ('ముం', 'U'), ('జా', 'U'), ('లుం', 'U'), ('జా', 'U'), ('లు', '|'), ('గ', '|'), ('వి', 'U'), ('త్వ', '|'), ('ము', 'U'), ('న్ని', '|'), ('లు', '|'), ('చు', '|'), ('నే', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చు', '|'), ('చో', 'U'), ('చీ', 'U'), ('ల', 'U'), ('జ్జిం', 'U'), ('ప', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('మా', 'U'), ('దృ', '|'), ('శ', '|'), ('క', '|'), ('వుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>పాలుంబువ్వయుఁ బెట్టెదం గుడువరా పాపన్న రా! యన్న లే
 లే లెమ్మన నరంటిపండ్లుఁగొని తేలేకున్న నే నొల్లనం
@@ -2160,32 +2004,29 @@
 క్ష్మీ లీలావచనంబులం గుడుపరా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('లుం', 'U'), ('బు', 'U'), ('వ్వ', '|'), ('యు', '|'), ('బె', 'U'), ('ట్టె', '|'), ('దం', 'U'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('రా', 'U'), ('పా', 'U'), ('ప', 'U'), ('న్న', '|'), ('రా', 'U'), ('య', 'U'), ('న్న', '|'), ('లే', 'U'), ('లే', 'U'), ('లె', 'U'), ('మ్మ', '|'), ('న', '|'), ('న', '|'), ('రం', 'U'), ('టి', '|'), ('పం', 'U'), ('డ్లు', '|'), ('గొ', '|'), ('ని', '|'), ('తే', 'U'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('నే', 'U'), ('నొ', 'U'), ('ల్ల', '|'), ('నం', 'U'), ('టే', 'U'), ('లా', 'U'), ('లిం', 'U'), ('ప', '|'), ('రె', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('పు', '|'), ('డ', 'U'), ('ట్లే', 'U'), ('తె', 'U'), ('చ్చి', '|'), ('వా', 'U'), ('త్స', 'U'), ('ల్య', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('లీ', 'U'), ('లా', 'U'), ('వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('లం', 'U'), ('గు', '|'), ('డు', '|'), ('ప', '|'), ('రా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>కలలంచు న్శకునంబులంచు గ్రహయోగంబంచు సాముద్రికం
 బులటంచుం దెవులంచు దిష్టియనుచు న్భూతంబులంచున్విషా
@@ -2193,32 +2034,29 @@
 సిలుగుల్‌ ప్రాణుల కెన్నిచేసితివయా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('లం', 'U'), ('చు', 'U'), ('న్శ', '|'), ('కు', '|'), ('నం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', 'U'), ('గ్ర', '|'), ('హ', '|'), ('యో', 'U'), ('గం', 'U'), ('బం', 'U'), ('చు', '|'), ('సా', 'U'), ('ము', '|'), ('ద్రి', '|'), ('కం', 'U'), ('బు', '|'), ('ల', '|'), ('టం', 'U'), ('చుం', 'U'), ('దె', '|'), ('వు', '|'), ('లం', 'U'), ('చు', '|'), ('ది', 'U'), ('ష్టి', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', 'U'), ('న్వి', '|'), ('షా', 'U'), ('దు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', 'U'), ('న్ని', '|'), ('మి', '|'), ('షా', 'U'), ('ర్ధ', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('లం', 'U'), ('దుం', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('బు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('యీ', 'U'), ('సి', '|'), ('లు', '|'), ('గుల్', 'U'), ('ప్రా', 'U'), ('ణు', '|'), ('ల', '|'), ('కె', 'U'), ('న్ని', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('వ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>తలమీఁదం గుసుమప్రసాద మలికస్థానంబుపై భూతియున్‌
 గళసీమంబున దండ నాసికతుదన్గంధప్రసారంబు లో
@@ -2226,32 +2064,29 @@
 జెలికాడై విహరించు రౌప్యగిరిపై శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('మీ', 'U'), ('దం', 'U'), ('గు', '|'), ('సు', '|'), ('మ', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('మ', '|'), ('లి', '|'), ('క', 'U'), ('స్థా', 'U'), ('నం', 'U'), ('బు', '|'), ('పై', 'U'), ('భూ', 'U'), ('తి', '|'), ('యున్', 'U'), ('గ', '|'), ('ళ', '|'), ('సీ', 'U'), ('మం', 'U'), ('బు', '|'), ('న', '|'), ('దం', 'U'), ('డ', '|'), ('నా', 'U'), ('సి', '|'), ('క', '|'), ('తు', '|'), ('ద', 'U'), ('న్గం', 'U'), ('ధ', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ము', '|'), ('జే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('డా', 'U'), ('భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('కె', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('జె', '|'), ('లి', '|'), ('కా', 'U'), ('డై', 'U'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('రౌ', 'U'), ('ప్య', '|'), ('గి', '|'), ('రి', '|'), ('పై', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>ఆలుంబిడ్డలు మిత్రులున్‌ హితులు నిశ్టార్థంబు లీనేర్తు రే
 వేళ న్వారిభజింపఁ జాలిపడ కావిర్భూత మోదంబునం
@@ -2259,32 +2094,29 @@
 శ్రీ లెవ్వారికిఁ గూడఁబెట్టెదవయా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('లుం', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('లు', '|'), ('మి', 'U'), ('త్రు', '|'), ('లున్', 'U'), ('హి', '|'), ('తు', '|'), ('లు', '|'), ('ని', 'U'), ('శ్టా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లీ', 'U'), ('నే', 'U'), ('ర్తు', '|'), ('రే', 'U'), ('వే', 'U'), ('ళ', 'U'), ('న్వా', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('జా', 'U'), ('లి', '|'), ('ప', '|'), ('డ', '|'), ('కా', 'U'), ('వి', 'U'), ('ర్భూ', 'U'), ('త', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('గా', 'U'), ('లం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కు', '|'), ('ని', '|'), ('క', '|'), ('భ', 'U'), ('క్త', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('కే', 'U'), ('శ్రీ', 'U'), ('లె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కి', '|'), ('గూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టె', '|'), ('ద', '|'), ('వ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>సులభుల్మూర్ఖు లనుత్తమోత్తములు రాజుల్గల్గి యేవేళన
 న్నలఁతం బెట్టిన నీ పదాబ్జములఁ బాయంజాల నేమిచ్చినం
@@ -2292,32 +2124,29 @@
 జెలువొప్పన్సుఖియింపఁ గాంచుటసుమీ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ల', '|'), ('భు', 'U'), ('ల్మూ', 'U'), ('ర్ఖు', '|'), ('ల', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ము', '|'), ('లు', '|'), ('రా', 'U'), ('జు', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('యే', 'U'), ('వే', 'U'), ('ళ', '|'), ('న', 'U'), ('న్న', '|'), ('ల', '|'), ('తం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('నీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('ల', '|'), ('బా', 'U'), ('యం', 'U'), ('జా', 'U'), ('ల', '|'), ('నే', 'U'), ('మి', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('గ', '|'), ('ల', '|'), ('ధౌ', 'U'), ('తా', 'U'), ('చ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('టం', 'U'), ('బు', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('గా', 'U'), ('పుం', 'U'), ('డు', '|'), ('ట', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('పై', 'U'), ('జె', '|'), ('లు', '|'), ('వొ', 'U'), ('ప్ప', 'U'), ('న్సు', '|'), ('ఖి', '|'), ('యిం', 'U'), ('ప', '|'), ('గాం', 'U'), ('చు', '|'), ('ట', '|'), ('సు', '|'), ('మీ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>కలధౌతాద్రియు నస్థిమాలికయు గోగంధర్వమున్బున్నయుం,
 బులిలోలున్భసితంబుఁ బాపతొడవుల్పోకుండఁ దోఁబుట్లకై,
@@ -2325,32 +2154,29 @@
 సిలువుల్దూరము చేసికొంటెఱిగియే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('ధౌ', 'U'), ('తా', 'U'), ('ద్రి', '|'), ('యు', '|'), ('న', 'U'), ('స్థి', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('యు', '|'), ('గో', 'U'), ('గం', 'U'), ('ధ', 'U'), ('ర్వ', '|'), ('ము', 'U'), ('న్బు', 'U'), ('న్న', '|'), ('యుం', 'U'), ('బు', '|'), ('లి', '|'), ('లో', 'U'), ('లు', 'U'), ('న్భ', '|'), ('సి', '|'), ('తం', 'U'), ('బు', '|'), ('బా', 'U'), ('ప', '|'), ('తొ', '|'), ('డ', '|'), ('వు', 'U'), ('ల్పో', 'U'), ('కుం', 'U'), ('డ', '|'), ('దో', 'U'), ('బు', 'U'), ('ట్ల', '|'), ('కై', 'U'), ('తొ', '|'), ('లి', '|'), ('నే', 'U'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('బు', 'U'), ('ట్ట', '|'), ('గ', '|'), ('గ', '|'), ('ళా', 'U'), ('దు', 'U'), ('ల్గ', 'U'), ('ల్గె', '|'), ('మే', 'U'), ('ల', 'U'), ('య్యె', '|'), ('నా', 'U'), ('సి', '|'), ('లు', '|'), ('వు', 'U'), ('ల్దూ', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('కొం', 'U'), ('టె', '|'), ('ఱి', '|'), ('గి', '|'), ('యే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>శ్రుతులభ్యాసముచేసి శాస్త్రగరిమల్శోధించి తత్త్వంబులన్‌
 మతినూహించి శరీరమస్థిరము బ్రహ్మంబెన్నసత్యంబు గాం
@@ -2358,32 +2184,29 @@
 ర్జిత చిత్తస్థిరసౌఖ్యముల్‌ దెలియరో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('శ్రు', '|'), ('తు', '|'), ('ల', 'U'), ('భ్యా', 'U'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('గ', '|'), ('రి', '|'), ('మ', 'U'), ('ల్శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('లన్', 'U'), ('మ', '|'), ('తి', '|'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('మ', 'U'), ('స్థి', '|'), ('ర', '|'), ('ము', 'U'), ('బ్ర', 'U'), ('హ్మం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గాం', 'U'), ('చి', '|'), ('తి', '|'), ('మం', 'U'), ('చున్', 'U'), ('స', '|'), ('భ', '|'), ('లన్', 'U'), ('వృ', '|'), ('థా', 'U'), ('వ', '|'), ('చ', '|'), ('న', '|'), ('ము', 'U'), ('ల్చె', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('నే', 'U'), ('కా', 'U'), ('ని', '|'), ('ని', 'U'), ('ర్జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', 'U'), ('స్థి', '|'), ('ర', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ముల్', 'U'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>గతినీవంచు భజించువార లపవర్గంబొందఁగానేల సం
 తతముం గూటికినై చరింప వినలేదా "యాయురన్నం ప్రయ
@@ -2391,32 +2214,29 @@
 శిత దుర్మార్గులు గానఁ గానఁబడవో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('తి', '|'), ('నీ', 'U'), ('వం', 'U'), ('చు', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ముం', 'U'), ('గూ', 'U'), ('టి', '|'), ('కి', '|'), ('నై', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('వి', '|'), ('న', '|'), ('లే', 'U'), ('దా', 'U'), ('యా', 'U'), ('యు', '|'), ('ర', 'U'), ('న్నం', 'U'), ('ప్ర', '|'), ('య', 'U'), ('చ్ఛ', '|'), ('తి', '|'), ('యం', 'U'), ('చు', 'U'), ('న్మొ', '|'), ('ఱ', '|'), ('వె', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('శ్రు', '|'), ('తు', '|'), ('లు', '|'), ('సం', 'U'), ('సా', 'U'), ('రాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('రా', 'U'), ('భి', '|'), ('దూ', 'U'), ('శి', '|'), ('త', '|'), ('దు', '|'), ('ర్మా', 'U'), ('ర్గు', '|'), ('లు', '|'), ('గా', 'U'), ('న', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('వో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>రతిరాజుద్ధతి మీఱనొక్క మఱి గోరాజాశ్వునిన్‌ నొక్కఁబో
 నతఁడా దర్పకు వేగ నొత్తఁ గవయం బాఁబోతునుందాఁకి యు
@@ -2424,32 +2244,29 @@
 స్థితిపాలై మొఱపెట్టినన్‌ మనుపవే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('తి', '|'), ('రా', 'U'), ('జు', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నొ', 'U'), ('క్క', '|'), ('మ', '|'), ('ఱి', '|'), ('గో', 'U'), ('రా', 'U'), ('జా', 'U'), ('శ్వు', '|'), ('నిన్', 'U'), ('నొ', 'U'), ('క్క', '|'), ('బో', 'U'), ('న', '|'), ('త', '|'), ('డా', 'U'), ('ద', 'U'), ('ర్ప', '|'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('నొ', 'U'), ('త్త', '|'), ('గ', '|'), ('వ', '|'), ('యం', 'U'), ('బా', 'U'), ('బో', 'U'), ('తు', '|'), ('నుం', 'U'), ('దా', 'U'), ('కి', '|'), ('యు', 'U'), ('గ్ర', '|'), ('త', '|'), ('బో', 'U'), ('రా', 'U'), ('డ', '|'), ('గ', '|'), ('ను', 'U'), ('న్న', '|'), ('య', 'U'), ('న్న', '|'), ('డి', '|'), ('మి', '|'), ('లే', 'U'), ('గ', 'U'), ('ల్వో', 'U'), ('లె', '|'), ('శో', 'U'), ('కా', 'U'), ('న', '|'), ('ల', 'U'), ('స్థి', '|'), ('తి', '|'), ('పా', 'U'), ('లై', 'U'), ('మొ', '|'), ('ఱ', '|'), ('పె', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('మ', '|'), ('ను', '|'), ('ప', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>అంతా సంశయమే శరీర ఘటనంబంతా విచారంబె లో
 నంతా దుఃఖపరంపరాన్వితమె మేనంతా భయభ్రాంతమే
@@ -2457,32 +2274,29 @@
 జింతన్నిన్నుఁ దలంచి పొందరు నరుల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('తా', 'U'), ('సం', 'U'), ('శ', '|'), ('య', '|'), ('మే', 'U'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('ఘ', '|'), ('ట', '|'), ('నం', 'U'), ('బం', 'U'), ('తా', 'U'), ('వి', '|'), ('చా', 'U'), ('రం', 'U'), ('బె', '|'), ('లో', 'U'), ('నం', 'U'), ('తా', 'U'), ('దుః', 'U'), ('ఖ', '|'), ('ప', '|'), ('రం', 'U'), ('ప', '|'), ('రా', 'U'), ('న్వి', '|'), ('త', '|'), ('మె', '|'), ('మే', 'U'), ('నం', 'U'), ('తా', 'U'), ('భ', '|'), ('య', 'U'), ('భ్రాం', 'U'), ('త', '|'), ('మే', 'U'), ('యం', 'U'), ('తా', 'U'), ('నాం', 'U'), ('త', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('శో', 'U'), ('ష', '|'), ('ణ', '|'), ('మె', '|'), ('దు', 'U'), ('ర్వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('మే', 'U'), ('దే', 'U'), ('హి', '|'), ('కిన్', 'U'), ('జిం', 'U'), ('త', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('పొం', 'U'), ('ద', '|'), ('రు', '|'), ('న', '|'), ('రుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>సంతోషించితిఁ జాలుఁజాలు రతి రాజద్వార సౌఖ్యంబులన్‌
 శాంతిం బొందితిఁ జాలుఁజాలు బహురాజద్వార సౌఖ్యంబులన్‌
@@ -2490,32 +2304,29 @@
 శ్చింత న్శాంతుఁడనౌదు నీ కరుణచే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('తో', 'U'), ('షిం', 'U'), ('చి', '|'), ('తి', '|'), ('జా', 'U'), ('లు', '|'), ('జా', 'U'), ('లు', '|'), ('ర', '|'), ('తి', '|'), ('రా', 'U'), ('జ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('లన్', 'U'), ('శాం', 'U'), ('తిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('తి', '|'), ('జా', 'U'), ('లు', '|'), ('జా', 'U'), ('లు', '|'), ('బ', '|'), ('హు', '|'), ('రా', 'U'), ('జ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('లన్', 'U'), ('శాం', 'U'), ('తిం', 'U'), ('బొం', 'U'), ('దె', '|'), ('ద', '|'), ('జూ', 'U'), ('పు', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('ప', '|'), ('ద', '|'), ('రా', 'U'), ('జ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('ని', 'U'), ('శ్చిం', 'U'), ('త', 'U'), ('న్శాం', 'U'), ('తు', '|'), ('డ', '|'), ('నౌ', 'U'), ('దు', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('చే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>స్తోత్రంబన్యులఁ జేయనొల్లని వ్రతస్థుల్వోలె వేసంబుతోఁ
 బుత్త్రీపుత్త్ర కళత్రరక్షణ కళాబుద్ధిన్‌ నృపాలాధమున్‌
@@ -2523,32 +2334,29 @@
 రిత్రంబెన్నఁడు మెచ్చనెంత మదిలో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('స్తో', 'U'), ('త్రం', 'U'), ('బ', 'U'), ('న్యు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', 'U'), ('వ్ర', '|'), ('త', 'U'), ('స్థు', 'U'), ('ల్వో', 'U'), ('లె', '|'), ('వే', 'U'), ('సం', 'U'), ('బు', '|'), ('తో', 'U'), ('బు', 'U'), ('త్త్రీ', 'U'), ('పు', 'U'), ('త్త్ర', '|'), ('క', '|'), ('ళ', 'U'), ('త్ర', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('బు', '|'), ('ద్ధిన్', 'U'), ('నృ', '|'), ('పా', 'U'), ('లా', 'U'), ('ధ', '|'), ('మున్', 'U'), ('బా', 'U'), ('త్రం', 'U'), ('బం', 'U'), ('చు', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('బో', 'U'), ('దు', '|'), ('రి', '|'), ('ది', '|'), ('యు', 'U'), ('న్భా', 'U'), ('వ్యం', 'U'), ('బె', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('చా', 'U'), ('రి', 'U'), ('త్రం', 'U'), ('బె', 'U'), ('న్న', '|'), ('డు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('నెం', 'U'), ('త', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>అకలంకస్థితి నిల్పి నాదమను ఘంటారావమున్‌ బిందు దీ
 పకళా శ్రేణి వివేక సాధనములొప్పన్బూని యానందతా
@@ -2556,32 +2364,29 @@
 రికిఁగా వీడు భవోగ్రబంధలతికల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('క', '|'), ('లం', 'U'), ('క', 'U'), ('స్థి', '|'), ('తి', '|'), ('ని', 'U'), ('ల్పి', '|'), ('నా', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('ఘం', 'U'), ('టా', 'U'), ('రా', 'U'), ('వ', '|'), ('మున్', 'U'), ('బిం', 'U'), ('దు', '|'), ('దీ', 'U'), ('ప', '|'), ('క', '|'), ('ళా', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('లొ', 'U'), ('ప్ప', 'U'), ('న్బూ', 'U'), ('ని', '|'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('దు', 'U'), ('ర్గా', 'U'), ('ట', '|'), ('వి', '|'), ('లో', 'U'), ('మ', '|'), ('నో', 'U'), ('మృ', '|'), ('గ', '|'), ('ము', '|'), ('గ', 'U'), ('ర్వ', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('వా', 'U'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('గా', 'U'), ('వీ', 'U'), ('డు', '|'), ('భ', '|'), ('వో', 'U'), ('గ్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ల', '|'), ('తి', '|'), ('కల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>ఒకయర్థంబును నిన్ను నే నడుగఁగా నూహింప నెట్లైన బొ
 మ్ము కవిత్వంబులు నాకు జెందవని యేమోయంటివా నాదు జి
@@ -2589,32 +2394,29 @@
 రికల న్నిన్నును గాన నాకు వశమా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('య', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('గా', 'U'), ('నూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('నె', 'U'), ('ట్లై', 'U'), ('న', '|'), ('బొ', 'U'), ('మ్ము', '|'), ('క', '|'), ('వి', 'U'), ('త్వం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('కు', '|'), ('జెం', 'U'), ('ద', '|'), ('వ', '|'), ('ని', '|'), ('యే', 'U'), ('మో', 'U'), ('యం', 'U'), ('టి', '|'), ('వా', 'U'), ('నా', 'U'), ('దు', '|'), ('జి', 'U'), ('హ్వ', '|'), ('కు', '|'), ('నై', 'U'), ('స', 'U'), ('ర్గి', '|'), ('క', '|'), ('కృ', 'U'), ('త్య', '|'), ('మిం', 'U'), ('త', '|'), ('యు', '|'), ('సు', '|'), ('మీ', 'U'), ('ప్రా', 'U'), ('ర్థిం', 'U'), ('చు', '|'), ('టే', 'U'), ('కా', 'U'), ('దు', '|'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('ల', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('గా', 'U'), ('న', '|'), ('నా', 'U'), ('కు', '|'), ('వ', '|'), ('శ', '|'), ('మా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>శుకముల్కింశుకపుష్పము ల్గని ఫలస్తోమంబటంచు న్సము
 త్సుకతం జేరఁగఁబోవ నచ్చట మహాదుఃఖంబు సిద్ధించుఁ గ
@@ -2622,32 +2424,29 @@
 రికి నిత్యత్వమనీష దూరమగునో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('శు', '|'), ('క', '|'), ('ము', 'U'), ('ల్కిం', 'U'), ('శు', '|'), ('క', '|'), ('పు', 'U'), ('ష్ప', '|'), ('ము', 'U'), ('ల్గ', '|'), ('ని', '|'), ('ఫ', '|'), ('ల', 'U'), ('స్తో', 'U'), ('మం', 'U'), ('బ', '|'), ('టం', 'U'), ('చు', 'U'), ('న్స', '|'), ('ము', 'U'), ('త్సు', '|'), ('క', '|'), ('తం', 'U'), ('జే', 'U'), ('ర', '|'), ('గ', '|'), ('బో', 'U'), ('వ', '|'), ('న', 'U'), ('చ్చ', '|'), ('ట', '|'), ('మ', '|'), ('హా', 'U'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చు', '|'), ('గ', '|'), ('ర్మ', '|'), ('క', '|'), ('ళా', 'U'), ('భా', 'U'), ('ష', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', 'U'), ('బ్రా', 'U'), ('పు', '|'), ('ల', '|'), ('గు', '|'), ('శా', 'U'), ('స్త్రం', 'U'), ('బు', 'U'), ('ల్వి', '|'), ('లో', 'U'), ('కిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('ని', 'U'), ('త్య', 'U'), ('త్వ', '|'), ('మ', '|'), ('నీ', 'U'), ('ష', '|'), ('దూ', 'U'), ('ర', '|'), ('మ', '|'), ('గు', '|'), ('నో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>ఒకరింజంపి పదస్థులై బ్రదుకఁ దామొక్కొక్కరూహింతురే
 లొకొ తామెన్నఁడు జావరో? తమకుఁ బోవో సంపదల్‌? పుత్త్రమి
@@ -2655,32 +2454,29 @@
 రికి లేదో మృతి యెన్నఁడుం గటకటా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('రిం', 'U'), ('జం', 'U'), ('పి', '|'), ('ప', '|'), ('ద', 'U'), ('స్థు', '|'), ('లై', 'U'), ('బ్ర', '|'), ('దు', '|'), ('క', '|'), ('దా', 'U'), ('మొ', 'U'), ('క్కొ', 'U'), ('క్క', '|'), ('రూ', 'U'), ('హిం', 'U'), ('తు', '|'), ('రే', 'U'), ('లొ', '|'), ('కొ', '|'), ('తా', 'U'), ('మె', 'U'), ('న్న', '|'), ('డు', '|'), ('జా', 'U'), ('వ', '|'), ('రో', 'U'), ('త', '|'), ('మ', '|'), ('కు', '|'), ('బో', 'U'), ('వో', 'U'), ('సం', 'U'), ('ప', '|'), ('ద', 'U'), ('ల్పు', 'U'), ('త్త్ర', '|'), ('మి', 'U'), ('త్ర', '|'), ('క', '|'), ('ళ', 'U'), ('త్రా', 'U'), ('దు', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('ని', 'U'), ('త్య', '|'), ('సు', '|'), ('ఖ', '|'), ('మం', 'U'), ('దం', 'U'), ('గం', 'U'), ('దు', '|'), ('రో', 'U'), ('యు', 'U'), ('న్న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('లే', 'U'), ('దో', 'U'), ('మృ', '|'), ('తి', '|'), ('యె', 'U'), ('న్న', '|'), ('డుం', 'U'), ('గ', '|'), ('ట', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>నీ కారుణ్యముఁ గల్గినట్టి నరుఁడే నీచాలయంబుం జొరం
 డే కార్పణ్యపు మాటలాడనరుగం డెవ్వారితో వేషముల్‌
@@ -2688,32 +2484,29 @@
 జీకాకై చెడిపోఁడు జీవనదశన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('న', '|'), ('రు', '|'), ('డే', 'U'), ('నీ', 'U'), ('చా', 'U'), ('ల', '|'), ('యం', 'U'), ('బుం', 'U'), ('జొ', '|'), ('రం', 'U'), ('డే', 'U'), ('కా', 'U'), ('ర్ప', 'U'), ('ణ్య', '|'), ('పు', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డ', '|'), ('న', '|'), ('రు', '|'), ('గం', 'U'), ('డె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('తో', 'U'), ('వే', 'U'), ('ష', '|'), ('ముల్', 'U'), ('గై', 'U'), ('కో', 'U'), ('డే', 'U'), ('మ', '|'), ('త', '|'), ('ము', 'U'), ('ల్భ', '|'), ('జిం', 'U'), ('ప', '|'), ('డి', '|'), ('ల', '|'), ('నే', 'U'), ('క', 'U'), ('ష్ట', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('జీ', 'U'), ('కా', 'U'), ('కై', 'U'), ('చె', '|'), ('డి', '|'), ('పో', 'U'), ('డు', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('ద', '|'), ('శన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>జ్ఞాతుల్ద్రోహులు! వాండ్రు సేయు కపటేర్ష్యాది క్రియాదోషముల్‌
 మా తండ్రాన సహింపరాదు ప్రతికర్మంబించుకేఁ జేయగాఁ
@@ -2721,32 +2514,29 @@
 చేతఃక్రోధము మానదెట్లు నడుతున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('జ్ఞా', 'U'), ('తు', '|'), ('ల్ద్రో', 'U'), ('హు', '|'), ('లు', '|'), ('వాం', 'U'), ('డ్రు', '|'), ('సే', 'U'), ('యు', '|'), ('క', '|'), ('ప', '|'), ('టే', 'U'), ('ర్ష్యా', 'U'), ('ది', 'U'), ('క్రి', '|'), ('యా', 'U'), ('దో', 'U'), ('ష', '|'), ('ముల్', 'U'), ('మా', 'U'), ('తం', 'U'), ('డ్రా', 'U'), ('న', '|'), ('స', '|'), ('హిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దు', 'U'), ('ప్ర', '|'), ('తి', '|'), ('క', '|'), ('ర్మం', 'U'), ('బిం', 'U'), ('చు', '|'), ('కే', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('బో', 'U'), ('తే', 'U'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('మా', 'U'), ('ని', '|'), ('య', '|'), ('తి', '|'), ('నై', 'U'), ('పో', 'U'), ('గో', 'U'), ('రి', '|'), ('నన్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('దా', 'U'), ('చే', 'U'), ('తః', 'U'), ('క్రో', 'U'), ('ధ', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('దె', 'U'), ('ట్లు', '|'), ('న', '|'), ('డు', '|'), ('తున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>చదువుల్నేర్చిన పండితాధములు స్వేచ్ఛాభాషణ క్రీడలన్‌
 వదరన్‌ సంశయ భీకరాటవులఁ ద్రోవల్దప్పి వర్తింపఁగా
@@ -2754,32 +2544,29 @@
 చెదరుంజిత్తము చిత్తగింపఁగదవే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('పం', 'U'), ('డి', '|'), ('తా', 'U'), ('ధ', '|'), ('ము', '|'), ('లు', 'U'), ('స్వే', 'U'), ('చ్ఛా', 'U'), ('భా', 'U'), ('ష', '|'), ('ణ', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('లన్', 'U'), ('వ', '|'), ('ద', '|'), ('రన్', 'U'), ('సం', 'U'), ('శ', '|'), ('య', '|'), ('భీ', 'U'), ('క', '|'), ('రా', 'U'), ('ట', '|'), ('వు', '|'), ('ల', '|'), ('ద్రో', 'U'), ('వ', 'U'), ('ల్ద', 'U'), ('ప్పి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మ', '|'), ('ద', '|'), ('న', 'U'), ('క్రో', 'U'), ('ధ', '|'), ('కి', '|'), ('రా', 'U'), ('తు', '|'), ('లం', 'U'), ('దు', '|'), ('గ', '|'), ('ని', '|'), ('భీ', 'U'), ('మ', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('చే', 'U'), ('దా', 'U'), ('కి', '|'), ('నం', 'U'), ('చె', '|'), ('ద', '|'), ('రుం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('చి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>రోసిందేఁటిది రోఁతలేఁటిది మనోరోగస్థుఁడై దేహి తాఁ
 బూసిందేఁటిది పూఁతలేఁటివి మదాపూతంబులీ దేహంబుల్‌
@@ -2787,32 +2574,29 @@
 జేసిందేఁటిది చేఁతలేఁటివి వృథా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('రో', 'U'), ('సిం', 'U'), ('దే', 'U'), ('టి', '|'), ('ది', '|'), ('రో', 'U'), ('త', '|'), ('లే', 'U'), ('టి', '|'), ('ది', '|'), ('మ', '|'), ('నో', 'U'), ('రో', 'U'), ('గ', 'U'), ('స్థు', '|'), ('డై', 'U'), ('దే', 'U'), ('హి', '|'), ('తా', 'U'), ('బూ', 'U'), ('సిం', 'U'), ('దే', 'U'), ('టి', '|'), ('ది', '|'), ('పూ', 'U'), ('త', '|'), ('లే', 'U'), ('టి', '|'), ('వి', '|'), ('మ', '|'), ('దా', 'U'), ('పూ', 'U'), ('తం', 'U'), ('బు', '|'), ('లీ', 'U'), ('దే', 'U'), ('హం', 'U'), ('బుల్', 'U'), ('మూ', 'U'), ('సిం', 'U'), ('దే', 'U'), ('టి', '|'), ('ది', '|'), ('మూ', 'U'), ('త', '|'), ('లే', 'U'), ('టి', '|'), ('వి', '|'), ('స', '|'), ('దా', 'U'), ('మూ', 'U'), ('ఢ', 'U'), ('త్వ', '|'), ('మే', 'U'), ('కా', 'U'), ('ని', '|'), ('తా', 'U'), ('జే', 'U'), ('సిం', 'U'), ('దే', 'U'), ('టి', '|'), ('ది', '|'), ('చే', 'U'), ('త', '|'), ('లే', 'U'), ('టి', '|'), ('వి', '|'), ('వృ', '|'), ('థా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>శ్రీశైలేశు భజింతునో యభవుఁ గాంచీనాథు సేవింతునో
 కాశీవల్లభుఁ గొల్వఁబోదునొ మహాకాళేశుఁ బూజింతునో
@@ -2820,32 +2604,29 @@
 శ్రీ శృంగార విలాసహాసములచే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('శై', 'U'), ('లే', 'U'), ('శు', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('నో', 'U'), ('య', '|'), ('భ', '|'), ('వు', '|'), ('గాం', 'U'), ('చీ', 'U'), ('నా', 'U'), ('థు', '|'), ('సే', 'U'), ('విం', 'U'), ('తు', '|'), ('నో', 'U'), ('కా', 'U'), ('శీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('బో', 'U'), ('దు', '|'), ('నొ', '|'), ('మ', '|'), ('హా', 'U'), ('కా', 'U'), ('ళే', 'U'), ('శు', '|'), ('బూ', 'U'), ('జిం', 'U'), ('తు', '|'), ('నో', 'U'), ('నా', 'U'), ('శీ', 'U'), ('లం', 'U'), ('బ', '|'), ('ణు', '|'), ('వై', 'U'), ('న', '|'), ('మే', 'U'), ('రు', '|'), ('వ', '|'), ('ను', '|'), ('చున్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('నీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('శ్రీ', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>అయవారై చరియింపవచ్చుఁ దనపాదాంభోజ తీర్థంబులన్‌
 దయతోఁ గొమ్మనవచ్చు సేవకుని నర్థప్రాణదేహాదుల
@@ -2853,32 +2634,29 @@
 ష్క్రియతం గానఁగరాదు పండితులకున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('య', '|'), ('వా', 'U'), ('రై', 'U'), ('చ', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ద', '|'), ('న', '|'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లన్', 'U'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('గొ', 'U'), ('మ్మ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ని', '|'), ('న', 'U'), ('ర్థ', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('దే', 'U'), ('హా', 'U'), ('దు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('నా', 'U'), ('సొ', 'U'), ('మ్మ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గా', 'U'), ('ని', '|'), ('న', '|'), ('రు', '|'), ('ల', 'U'), ('న్నిం', 'U'), ('దిం', 'U'), ('చి', '|'), ('ని', 'U'), ('న్నా', 'U'), ('త్మ', '|'), ('ని', 'U'), ('ష్క్రి', '|'), ('య', '|'), ('తం', 'U'), ('గా', 'U'), ('న', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('పం', 'U'), ('డి', '|'), ('తు', '|'), ('ల', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>మాయాజాండ కరండకోటిఁ బొడిగా మర్దించిరో విక్రమా
 జేయుం గాయజుఁ జంపిరో కపటలక్ష్మీమోహముం బాసిరో
@@ -2886,32 +2664,29 @@
 శ్రేయోదాయకులౌదు రెట్టులితరుల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('యా', 'U'), ('జాం', 'U'), ('డ', '|'), ('క', '|'), ('రం', 'U'), ('డ', '|'), ('కో', 'U'), ('టి', '|'), ('బొ', '|'), ('డి', '|'), ('గా', 'U'), ('మ', '|'), ('ర్దిం', 'U'), ('చి', '|'), ('రో', 'U'), ('వి', 'U'), ('క్ర', '|'), ('మా', 'U'), ('జే', 'U'), ('యుం', 'U'), ('గా', 'U'), ('య', '|'), ('జు', '|'), ('జం', 'U'), ('పి', '|'), ('రో', 'U'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('మో', 'U'), ('హ', '|'), ('ముం', 'U'), ('బా', 'U'), ('సి', '|'), ('రో', 'U'), ('యా', 'U'), ('యు', '|'), ('ర్దా', 'U'), ('య', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('న', '|'), ('నా', 'U'), ('యా', 'U'), ('సం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గె', 'U'), ('ల్చి', '|'), ('రో', 'U'), ('శ్రే', 'U'), ('యో', 'U'), ('దా', 'U'), ('య', '|'), ('కు', '|'), ('లౌ', 'U'), ('దు', '|'), ('రె', 'U'), ('ట్టు', '|'), ('లి', '|'), ('త', '|'), ('రుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>చవిగాఁజూడ వినంగ మూర్కొనఁ దనూసంఘర్షణాస్వాద మొం
 ద వినిర్మించెదవేల జంతువుల నేతత్క్రీడలే పాతక
@@ -2919,32 +2694,29 @@
 చ్చి వినోదింపగఁ దీన నేమిఫలమో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('వి', '|'), ('గా', 'U'), ('జూ', 'U'), ('డ', '|'), ('వి', '|'), ('నం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్కొ', '|'), ('న', '|'), ('ద', '|'), ('నూ', 'U'), ('సం', 'U'), ('ఘ', 'U'), ('ర్ష', '|'), ('ణా', 'U'), ('స్వా', 'U'), ('ద', '|'), ('మొం', 'U'), ('ద', '|'), ('వి', '|'), ('ని', '|'), ('ర్మిం', 'U'), ('చె', '|'), ('ద', '|'), ('వే', 'U'), ('ల', '|'), ('జం', 'U'), ('తు', '|'), ('వు', '|'), ('ల', '|'), ('నే', 'U'), ('త', 'U'), ('త్క్రీ', 'U'), ('డ', '|'), ('లే', 'U'), ('పా', 'U'), ('త', '|'), ('క', 'U'), ('వ్య', '|'), ('వ', '|'), ('హా', 'U'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('సే', 'U'), ('య', '|'), ('నే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('మా', 'U'), ('యా', 'U'), ('వి', 'U'), ('ద్య', '|'), ('చే', 'U'), ('బ్రొ', 'U'), ('ద్దు', '|'), ('పు', 'U'), ('చ్చి', '|'), ('వి', '|'), ('నో', 'U'), ('దిం', 'U'), ('ప', '|'), ('గ', '|'), ('దీ', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('ఫ', '|'), ('ల', '|'), ('మో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>వెనుకంజేసిన ఘోరదుర్దశలు భావింపంగ రోఁతయ్యెడున్‌
 వెనుకన్ముందటవచ్చు దుర్మరణముల్వీక్షింప భీతయ్యెడున్‌
@@ -2952,32 +2724,29 @@
 జెనకుంజీకటినాయెఁ గాలమునకున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ను', '|'), ('కం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('ఘో', 'U'), ('ర', '|'), ('దు', '|'), ('ర్ద', '|'), ('శ', '|'), ('లు', '|'), ('భా', 'U'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('రో', 'U'), ('త', 'U'), ('య్యె', '|'), ('డున్', 'U'), ('వె', '|'), ('ను', '|'), ('క', 'U'), ('న్ముం', 'U'), ('ద', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('దు', '|'), ('ర్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('భీ', 'U'), ('త', 'U'), ('య్యె', '|'), ('డున్', 'U'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('జూ', 'U'), ('చి', '|'), ('యు', '|'), ('నా', 'U'), ('వి', '|'), ('ధు', 'U'), ('ల్ద', '|'), ('ల', '|'), ('చి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('కే', 'U'), ('భ', '|'), ('యం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('డుం', 'U'), ('జె', '|'), ('న', '|'), ('కుం', 'U'), ('జీ', 'U'), ('క', '|'), ('టి', '|'), ('నా', 'U'), ('యె', '|'), ('గా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>పరిశీలించితి మంత్రతంత్రములు చెప్పన్వింటి సాంఖ్యాది యో
 గరహస్యంబులు వేదశాస్త్రములు వక్కాణించితిన్‌ శంకవో
@@ -2985,32 +2754,29 @@
 స్థిరవిజ్ఞానము త్రోవఁ జూపగదవే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రి', '|'), ('శీ', 'U'), ('లిం', 'U'), ('చి', '|'), ('తి', '|'), ('మం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('ప్ప', 'U'), ('న్విం', 'U'), ('టి', '|'), ('సాం', 'U'), ('ఖ్యా', 'U'), ('ది', '|'), ('యో', 'U'), ('గ', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', '|'), ('లు', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('వ', 'U'), ('క్కా', 'U'), ('ణిం', 'U'), ('చి', '|'), ('తిన్', 'U'), ('శం', 'U'), ('క', '|'), ('వో', 'U'), ('ద', '|'), ('ర', '|'), ('యం', 'U'), ('గు', 'U'), ('మ్మ', '|'), ('డి', '|'), ('కా', 'U'), ('య', '|'), ('లో', 'U'), ('ను', '|'), ('య', '|'), ('వ', '|'), ('గిం', 'U'), ('జం', 'U'), ('తై', 'U'), ('న', '|'), ('న', 'U'), ('మ్మిం', 'U'), ('చి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', 'U'), ('త్రో', 'U'), ('వ', '|'), ('జూ', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>మొదలంజేసిన వారి ధర్మములు నిర్మూలంబుగాఁ జేసి దు
 ర్మదులై యిప్పుడు వారధర్మములొనర్పం దమ్ము దైవంబు న
@@ -3018,32 +2784,29 @@
 సెదరో మీఁదు దలంచి చూడకధముల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('ని', '|'), ('ర్మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('దు', '|'), ('ర్మ', '|'), ('దు', '|'), ('లై', 'U'), ('యి', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వా', 'U'), ('ర', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లొ', '|'), ('న', 'U'), ('ర్పం', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('న', 'U'), ('వ్వ', '|'), ('దె', '|'), ('రా', 'U'), ('ను', 'U'), ('న్న', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ద', '|'), ('మ', 'U'), ('త్రో', 'U'), ('వం', 'U'), ('బో', 'U'), ('వ', '|'), ('రే', 'U'), ('యే', 'U'), ('ల', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('రో', 'U'), ('మీ', 'U'), ('దు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('ధ', '|'), ('ముల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>కాసంతైన సుఖంబొనర్చునొ మనఃకామంబు లీడేర్చునో
 వీసంబైనను వెంటవచ్చునొ జగద్విఖ్యాతిఁ గావించునో
@@ -3051,32 +2814,29 @@
 ఛీ! సంసారదురాశలేలుడుపవో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('సం', 'U'), ('తై', 'U'), ('న', '|'), ('సు', '|'), ('ఖం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('నొ', '|'), ('మ', '|'), ('నః', 'U'), ('కా', 'U'), ('మం', 'U'), ('బు', '|'), ('లీ', 'U'), ('డే', 'U'), ('ర్చు', '|'), ('నో', 'U'), ('వీ', 'U'), ('సం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నొ', '|'), ('జ', '|'), ('గ', 'U'), ('ద్వి', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నో', 'U'), ('దో', 'U'), ('సం', 'U'), ('బు', 'U'), ('ల్పె', '|'), ('డ', '|'), ('బా', 'U'), ('పు', '|'), ('నో', 'U'), ('వ', '|'), ('ల', '|'), ('సి', '|'), ('నం', 'U'), ('దో', 'U'), ('డ్తో', 'U'), ('మి', '|'), ('ముం', 'U'), ('జూ', 'U'), ('పు', '|'), ('నో', 'U'), ('ఛీ', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('దు', '|'), ('రా', 'U'), ('శ', '|'), ('లే', 'U'), ('లు', '|'), ('డు', '|'), ('ప', '|'), ('వో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>ఒకపూఁటించుక కూడు తక్కువగునే నోర్వంగలేఁ డెండకో
 పక నీడన్వెదకుం జలికింజడిసి కుంపట్లెత్తుకోఁ జూచు వా
@@ -3084,32 +2844,29 @@
 సి కడాసింపరుగాక మర్త్యులకటా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('పూ', 'U'), ('టిం', 'U'), ('చు', '|'), ('క', '|'), ('కూ', 'U'), ('డు', '|'), ('త', 'U'), ('క్కు', '|'), ('వ', '|'), ('గు', '|'), ('నే', 'U'), ('నో', 'U'), ('ర్వం', 'U'), ('గ', '|'), ('లే', 'U'), ('డెం', 'U'), ('డ', '|'), ('కో', 'U'), ('ప', '|'), ('క', '|'), ('నీ', 'U'), ('డ', 'U'), ('న్వె', '|'), ('ద', '|'), ('కుం', 'U'), ('జ', '|'), ('లి', '|'), ('కిం', 'U'), ('జ', '|'), ('డి', '|'), ('సి', '|'), ('కుం', 'U'), ('ప', 'U'), ('ట్లె', 'U'), ('త్తు', '|'), ('కో', 'U'), ('జూ', 'U'), ('చు', '|'), ('వా', 'U'), ('న', '|'), ('కు', '|'), ('ని', 'U'), ('ల్లి', 'U'), ('ల్లు', '|'), ('ను', '|'), ('దూ', 'U'), ('ఱు', '|'), ('నీ', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('దీ', 'U'), ('న', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('రో', 'U'), ('సి', '|'), ('క', '|'), ('డా', 'U'), ('సిం', 'U'), ('ప', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('ల', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>కేదారాదిసమస్త తీర్థములు కోర్కింజూడఁ బోనేఁటికిం
 గాదా ముంగిలి వారణాసి కడుపే కైలాసశైలంబు మీ
@@ -3117,32 +2874,29 @@
 క్ష్మీదారిద్ర్యులుగారె లోకు లకటా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('కే', 'U'), ('దా', 'U'), ('రా', 'U'), ('ది', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లు', '|'), ('కో', 'U'), ('ర్కిం', 'U'), ('జూ', 'U'), ('డ', '|'), ('బో', 'U'), ('నే', 'U'), ('టి', '|'), ('కిం', 'U'), ('గా', 'U'), ('దా', 'U'), ('ముం', 'U'), ('గి', '|'), ('లి', '|'), ('వా', 'U'), ('ర', '|'), ('ణా', 'U'), ('సి', '|'), ('క', '|'), ('డు', '|'), ('పే', 'U'), ('కై', 'U'), ('లా', 'U'), ('స', '|'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('సం', 'U'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('న', '|'), ('పు', '|'), ('డే', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('న', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('దా', 'U'), ('రి', '|'), ('ద్ర్యు', '|'), ('లు', '|'), ('గా', 'U'), ('రె', '|'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>తమకంబొప్పఁ బరాంగనాజన పరద్రవ్యంబులన్‌ మ్రుచ్చిలం
 గ మహోద్యోగము సేయు నెమ్మనము దొంగంబట్టి వైరాగ్యపా
@@ -3150,32 +2904,29 @@
 చి ముదంబెప్పుడుఁ గల్గజేయఁగదవే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('మ', '|'), ('కం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బ', '|'), ('రాం', 'U'), ('గ', '|'), ('నా', 'U'), ('జ', '|'), ('న', '|'), ('ప', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('లన్', 'U'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లం', 'U'), ('గ', '|'), ('మ', '|'), ('హో', 'U'), ('ద్యో', 'U'), ('గ', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('దొం', 'U'), ('గం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('పా', 'U'), ('శ', '|'), ('ము', '|'), ('లం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('బి', '|'), ('గిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('దు', '|'), ('చ', '|'), ('ర', '|'), ('ణ', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('వై', 'U'), ('చి', '|'), ('ము', '|'), ('దం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>వేధం దిట్టఁగరాదు గాని భువిలో విద్వాంసులం జేయనే
 లా ధీచాతురిఁ జేసిఁ జేసిన గులామాపాటునే పోక క్షు
@@ -3183,32 +2934,29 @@
 ఛీ! ధాత్రీశులఁ జేయనేఁటి కకటా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('ధం', 'U'), ('ది', 'U'), ('ట్ట', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('గా', 'U'), ('ని', '|'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('లం', 'U'), ('జే', 'U'), ('య', '|'), ('నే', 'U'), ('లా', 'U'), ('ధీ', 'U'), ('చా', 'U'), ('తు', '|'), ('రి', '|'), ('జే', 'U'), ('సి', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('గు', '|'), ('లా', 'U'), ('మా', 'U'), ('పా', 'U'), ('టు', '|'), ('నే', 'U'), ('పో', 'U'), ('క', 'U'), ('క్షు', 'U'), ('ద్బా', 'U'), ('ధా', 'U'), ('దుల్', 'U'), ('క', '|'), ('లి', '|'), ('గిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ల', '|'), ('య', '|'), ('ది', '|'), ('కృ', 'U'), ('త్యం', 'U'), ('బై', 'U'), ('న', '|'), ('దు', '|'), ('ర్మా', 'U'), ('ర్గు', '|'), ('లన్', 'U'), ('ఛీ', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('శు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('నే', 'U'), ('టి', '|'), ('క', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>పుడమిన్నిన్నొక బిల్వపత్త్రమున నేఁ బూజించి పుణ్యంబునుం
 బడయన్నేరక పెక్కుదైవములకుం బప్పుల్‌ ప్రసాదంబులుం
@@ -3216,32 +2964,29 @@
 జెడి యెందుం గొఱగాకపోదురకటా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('డ', '|'), ('మి', 'U'), ('న్ని', 'U'), ('న్నొ', '|'), ('క', '|'), ('బి', 'U'), ('ల్వ', '|'), ('ప', 'U'), ('త్త్ర', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బ', '|'), ('డ', '|'), ('య', 'U'), ('న్నే', 'U'), ('ర', '|'), ('క', '|'), ('పె', 'U'), ('క్కు', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('బ', '|'), ('ప్పుల్', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('దం', 'U'), ('బు', '|'), ('లుం', 'U'), ('గు', '|'), ('డు', '|'), ('ముల్', 'U'), ('దో', 'U'), ('సె', '|'), ('లు', '|'), ('సా', 'U'), ('రె', '|'), ('స', 'U'), ('త్తు', '|'), ('ల', '|'), ('డు', '|'), ('కుల్', 'U'), ('గు', 'U'), ('గ్గి', 'U'), ('ళ్లు', '|'), ('నుం', 'U'), ('బె', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('జె', '|'), ('డి', '|'), ('యెం', 'U'), ('దుం', 'U'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('క', '|'), ('పో', 'U'), ('దు', '|'), ('ర', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>విత్తజ్ఞానము పాడుచిత్తము భవావేశంబు రక్షాంబువుల్‌
 మత్తత్త్వంబు తదంకురం బనృతముల్‌ మాఱాకులత్యంత దు
@@ -3249,32 +2994,29 @@
 జిత్తాభ్యున్నత నింబభూజమునకున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('త్త', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('పా', 'U'), ('డు', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('భ', '|'), ('వా', 'U'), ('వే', 'U'), ('శం', 'U'), ('బు', '|'), ('ర', 'U'), ('క్షాం', 'U'), ('బు', '|'), ('వుల్', 'U'), ('మ', 'U'), ('త్త', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('త', '|'), ('దం', 'U'), ('కు', '|'), ('రం', 'U'), ('బ', '|'), ('నృ', '|'), ('త', '|'), ('ముల్', 'U'), ('మా', 'U'), ('ఱా', 'U'), ('కు', '|'), ('ల', 'U'), ('త్యం', 'U'), ('త', '|'), ('దు', 'U'), ('ర్వృ', '|'), ('త్తుల్', 'U'), ('పు', 'U'), ('వ్వు', '|'), ('లు', '|'), ('పం', 'U'), ('డ్లు', '|'), ('మ', 'U'), ('న్మ', '|'), ('థ', '|'), ('ము', '|'), ('ఖా', 'U'), ('వి', 'U'), ('ర్భూ', 'U'), ('త', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లుం', 'U'), ('జి', 'U'), ('త్తా', 'U'), ('భ్యు', 'U'), ('న్న', '|'), ('త', '|'), ('నిం', 'U'), ('బ', '|'), ('భూ', 'U'), ('జ', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>నీపై గావ్యము చెప్పుచున్నయతఁడు న్నీపద్యముల్‌ వ్రాసియి
 మ్మా పాఠంబొనరింతు నన్నయతఁడున్‌ మంజుప్రబంధంబు ని
@@ -3282,32 +3024,29 @@
 చీ పృశ్ఠాగత బాంధవంబు నిజమా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('పై', 'U'), ('గా', 'U'), ('వ్య', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('త', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('యి', 'U'), ('మ్మా', 'U'), ('పా', 'U'), ('ఠం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('తు', '|'), ('న', 'U'), ('న్న', '|'), ('య', '|'), ('త', '|'), ('డున్', 'U'), ('మం', 'U'), ('జు', 'U'), ('ప్ర', '|'), ('బం', 'U'), ('ధం', 'U'), ('బు', '|'), ('ని', 'U'), ('ష్టా', 'U'), ('పూ', 'U'), ('ర్తిం', 'U'), ('బ', '|'), ('ఠి', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('త', '|'), ('డున్', 'U'), ('స', 'U'), ('ద్బాం', 'U'), ('ధ', '|'), ('వు', 'U'), ('ల్గా', 'U'), ('క', '|'), ('చీ', 'U'), ('చీ', 'U'), ('పృ', 'U'), ('శ్ఠా', 'U'), ('గ', '|'), ('త', '|'), ('బాం', 'U'), ('ధ', '|'), ('వం', 'U'), ('బు', '|'), ('ని', '|'), ('జ', '|'), ('మా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>సంపద్వర్గముఁ బాఱఁదోలి రిపులన్‌ జంకించి యాకాంక్షలన్‌
 దంపుల్వెట్టి కళంకముల్నఱికి బంధక్లేశ దోషంబులం
@@ -3315,32 +3054,29 @@
 జెంపల్వేయక నిన్నుఁ గాననగునా? శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('ప', 'U'), ('ద్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('బా', 'U'), ('ఱ', '|'), ('దో', 'U'), ('లి', '|'), ('రి', '|'), ('పు', '|'), ('లన్', 'U'), ('జం', 'U'), ('కిం', 'U'), ('చి', '|'), ('యా', 'U'), ('కాం', 'U'), ('క్ష', '|'), ('లన్', 'U'), ('దం', 'U'), ('పు', 'U'), ('ల్వె', 'U'), ('ట్టి', '|'), ('క', '|'), ('ళం', 'U'), ('క', '|'), ('ము', 'U'), ('ల్న', '|'), ('ఱి', '|'), ('కి', '|'), ('బం', 'U'), ('ధ', 'U'), ('క్లే', 'U'), ('శ', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లం', 'U'), ('జిం', 'U'), ('పు', 'U'), ('ల్చే', 'U'), ('సి', '|'), ('వ', '|'), ('యో', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('సం', 'U'), ('క్షే', 'U'), ('పిం', 'U'), ('చి', '|'), ('భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('లం', 'U'), ('జెం', 'U'), ('ప', 'U'), ('ల్వే', 'U'), ('య', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('న', '|'), ('గు', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>రాజశ్రేణికి దాసులై సిరులఁ గోరం జేరఁగా సౌఖ్యమో
 యీ జన్మంబు తరింపఁజేయఁగల మిమ్మే ప్రొద్దు సేవించు ని
@@ -3348,32 +3084,29 @@
 జీజాతాది మదాంధ బుద్ధులగుచున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('కి', '|'), ('దా', 'U'), ('సు', '|'), ('లై', 'U'), ('సి', '|'), ('రు', '|'), ('ల', '|'), ('గో', 'U'), ('రం', 'U'), ('జే', 'U'), ('ర', '|'), ('గా', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మో', 'U'), ('యీ', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('త', '|'), ('రిం', 'U'), ('ప', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('మి', 'U'), ('మ్మే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('ని', 'U'), ('ర్వ్యా', 'U'), ('జా', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మో', 'U'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('లే', 'U'), ('రో', 'U'), ('మా', 'U'), ('న', '|'), ('వు', 'U'), ('ల్బా', 'U'), ('ప', '|'), ('రా', 'U'), ('జీ', 'U'), ('జా', 'U'), ('తా', 'U'), ('ది', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', '|'), ('బు', 'U'), ('ద్ధు', '|'), ('ల', '|'), ('గు', '|'), ('చున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>నిన్నం జూడరొ మొన్నఁజూడరో జనుల్‌ నిత్యంబుఁజావంగ నా
 పన్నుల్గన్న నిధానమయ్యెడి ధనభ్రాంతి న్విసర్జింపలే
@@ -3381,32 +3114,29 @@
 న్చిన్నంబుచ్చక ప్రోవకుండునెడలన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్నం', 'U'), ('జూ', 'U'), ('డ', '|'), ('రొ', '|'), ('మొ', 'U'), ('న్న', '|'), ('జూ', 'U'), ('డ', '|'), ('రో', 'U'), ('జ', '|'), ('నుల్', 'U'), ('ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('జా', 'U'), ('వం', 'U'), ('గ', '|'), ('నా', 'U'), ('ప', 'U'), ('న్ను', 'U'), ('ల్గ', 'U'), ('న్న', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('మ', 'U'), ('య్యె', '|'), ('డి', '|'), ('ధ', '|'), ('న', 'U'), ('భ్రాం', 'U'), ('తి', 'U'), ('న్వి', '|'), ('స', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('లే', 'U'), ('కు', 'U'), ('న్నా', 'U'), ('రె', 'U'), ('న్న', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గం', 'U'), ('దు', '|'), ('రి', '|'), ('క', '|'), ('మ', '|'), ('ర్త్యుల్', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('రే', 'U'), ('మో', 'U'), ('ని', '|'), ('ను', 'U'), ('న్చి', 'U'), ('న్నం', 'U'), ('బు', 'U'), ('చ్చ', '|'), ('క', 'U'), ('ప్రో', 'U'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('నె', '|'), ('డ', '|'), ('లన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>వన్నేయేనుఁగు తోలుదుప్పటము బువ్వా కాలకూటంబు చే
 గిన్నే కపాల ముగ్రమగు భోగే కంఠహారంబు మే
@@ -3414,32 +3144,29 @@
 ర్చెన్నారాయణుఁడెట్లు మానసముఁ దా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('న్నే', 'U'), ('యే', 'U'), ('ను', '|'), ('గు', '|'), ('తో', 'U'), ('లు', '|'), ('దు', 'U'), ('ప్ప', '|'), ('ట', '|'), ('ము', '|'), ('బు', 'U'), ('వ్వా', 'U'), ('కా', 'U'), ('ల', '|'), ('కూ', 'U'), ('టం', 'U'), ('బు', '|'), ('చే', 'U'), ('గి', 'U'), ('న్నే', 'U'), ('క', '|'), ('పా', 'U'), ('ల', '|'), ('ము', 'U'), ('గ్ర', '|'), ('మ', '|'), ('గు', '|'), ('భో', 'U'), ('గే', 'U'), ('కం', 'U'), ('ఠ', '|'), ('హా', 'U'), ('రం', 'U'), ('బు', '|'), ('మే', 'U'), ('ల్ని', 'U'), ('న్నీ', 'U'), ('లా', 'U'), ('గు', '|'), ('న', '|'), ('నుం', 'U'), ('ట', '|'), ('యుం', 'U'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('చే', 'U'), ('ర్చె', 'U'), ('న్నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణు', '|'), ('డె', 'U'), ('ట్లు', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('ము', '|'), ('దా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>ద్వారద్వారములందుఁ గంచుకిజన వ్రాతంబు దండంబులన్‌
 దోరంతస్స్థలి బగ్గనంబొడుచుచున్‌ దుర్భాషలాడన్మఱిన్‌
@@ -3447,32 +3174,29 @@
 క్ష్మీ రాజ్యంబునుగోరి నీ పరిజనుల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('ద్వా', 'U'), ('ర', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('గం', 'U'), ('చు', '|'), ('కి', '|'), ('జ', '|'), ('న', 'U'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('లన్', 'U'), ('దో', 'U'), ('రం', 'U'), ('త', 'U'), ('స్స్థ', '|'), ('లి', '|'), ('బ', 'U'), ('గ్గ', '|'), ('నం', 'U'), ('బొ', '|'), ('డు', '|'), ('చు', '|'), ('చున్', 'U'), ('దు', 'U'), ('ర్భా', 'U'), ('ష', '|'), ('లా', 'U'), ('డ', 'U'), ('న్మ', '|'), ('ఱిన్', 'U'), ('వా', 'U'), ('రిం', 'U'), ('బ్రా', 'U'), ('ర్థ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('కు', '|'), ('సే', 'U'), ('వ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గా', 'U'), ('బో', 'U'), ('రు', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('రా', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('నీ', 'U'), ('ప', '|'), ('రి', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>ఊరూరం జనులెల్ల భిక్షమిడరో యుండం గుహల్గల్గవో
 చీరానీకము వీథులందొరకదో శీతామృత స్వచ్ఛవాః
@@ -3480,32 +3204,29 @@
 చేరంబోవుదురేల రాజుల జనుల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('ఊ', 'U'), ('రూ', 'U'), ('రం', 'U'), ('జ', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('భి', 'U'), ('క్ష', '|'), ('మి', '|'), ('డ', '|'), ('రో', 'U'), ('యుం', 'U'), ('డం', 'U'), ('గు', '|'), ('హ', 'U'), ('ల్గ', 'U'), ('ల్గ', '|'), ('వో', 'U'), ('చీ', 'U'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('ము', '|'), ('వీ', 'U'), ('థు', '|'), ('లం', 'U'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('దో', 'U'), ('శీ', 'U'), ('తా', 'U'), ('మృ', '|'), ('త', 'U'), ('స్వ', 'U'), ('చ్ఛ', '|'), ('వాః', 'U'), ('పూ', 'U'), ('రం', 'U'), ('బే', 'U'), ('ఱు', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('దో', 'U'), ('త', '|'), ('ప', '|'), ('సు', '|'), ('లం', 'U'), ('బ్రో', 'U'), ('వం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వో', 'U'), ('ప', '|'), ('వో', 'U'), ('చే', 'U'), ('రం', 'U'), ('బో', 'U'), ('వు', '|'), ('దు', '|'), ('రే', 'U'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>దయ సేయుండని గొందఱాడుదురు నిత్యంబున్నినుంగొల్చుచున్‌
 నియమంబెంతొ ఫలంబునంతియగదా నీవీయ పిండెంతొ యం
@@ -3513,32 +3234,29 @@
 త్క్రియలన్నిన్ను భజింప కిష్టసుఖముల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('య', '|'), ('సే', 'U'), ('యుం', 'U'), ('డ', '|'), ('ని', '|'), ('గొం', 'U'), ('ద', '|'), ('ఱా', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బు', 'U'), ('న్ని', '|'), ('నుం', 'U'), ('గొ', 'U'), ('ల్చు', '|'), ('చున్', 'U'), ('ని', '|'), ('య', '|'), ('మం', 'U'), ('బెం', 'U'), ('తొ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('తి', '|'), ('య', '|'), ('గ', '|'), ('దా', 'U'), ('నీ', 'U'), ('వీ', 'U'), ('య', '|'), ('పిం', 'U'), ('డెం', 'U'), ('తొ', '|'), ('యం', 'U'), ('తి', '|'), ('య', '|'), ('కా', 'U'), ('యె', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కిం', 'U'), ('ద', '|'), ('ళం', 'U'), ('బ', '|'), ('శ', '|'), ('న', '|'), ('బు', 'U'), ('ద్ధిం', 'U'), ('జూ', 'U'), ('డ', '|'), ('నే', 'U'), ('ల', 'U'), ('బ్బు', '|'), ('స', 'U'), ('త్క్రి', '|'), ('య', '|'), ('ల', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('కి', 'U'), ('ష్ట', '|'), ('సు', '|'), ('ఖ', '|'), ('ముల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>ఆరావంబుదయించెఁ దారకముగా నాత్మాభ్రవీధిన్మహా
 కారోకారమకార యుక్తమగునోంకారాభిధానంబు చె
@@ -3546,32 +3264,29 @@
 శ్రీ రంజిల్లఁగడంగు నీవదె సుమీ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('రా', 'U'), ('వం', 'U'), ('బు', '|'), ('ద', '|'), ('యిం', 'U'), ('చె', '|'), ('దా', 'U'), ('ర', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('నా', 'U'), ('త్మా', 'U'), ('భ్ర', '|'), ('వీ', 'U'), ('ధి', 'U'), ('న్మ', '|'), ('హా', 'U'), ('కా', 'U'), ('రో', 'U'), ('కా', 'U'), ('ర', '|'), ('మ', '|'), ('కా', 'U'), ('ర', '|'), ('యు', 'U'), ('క్త', '|'), ('మ', '|'), ('గు', '|'), ('నోం', 'U'), ('కా', 'U'), ('రా', 'U'), ('భి', '|'), ('ధా', 'U'), ('నం', 'U'), ('బు', '|'), ('చె', 'U'), ('న్నా', 'U'), ('రు', 'U'), ('న్వి', 'U'), ('శ్వ', '|'), ('మ', '|'), ('నం', 'U'), ('గ', '|'), ('ద', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('చే', 'U'), ('నా', 'U'), ('నా', 'U'), ('ద', '|'), ('బిం', 'U'), ('దు', 'U'), ('ల్సు', '|'), ('ఖ', 'U'), ('శ్రీ', 'U'), ('రం', 'U'), ('జి', 'U'), ('ల్ల', '|'), ('గ', '|'), ('డం', 'U'), ('గు', '|'), ('నీ', 'U'), ('వ', '|'), ('దె', '|'), ('సు', '|'), ('మీ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>నీ భక్తుల్పదివేల భంగుల నినున్సేవింపుచున్‌ వేఁడఁగా
 లోభంబేఁటికి వారి కోర్కులు కృపాళుత్వంబుఁనం దీర్పరా
@@ -3579,32 +3294,29 @@
 శ్రీ భాండారములోఁ గొఱంతపడునా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('భ', 'U'), ('క్తు', 'U'), ('ల్ప', '|'), ('ది', '|'), ('వే', 'U'), ('ల', '|'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('ని', '|'), ('ను', 'U'), ('న్సే', 'U'), ('విం', 'U'), ('పు', '|'), ('చున్', 'U'), ('వే', 'U'), ('డ', '|'), ('గా', 'U'), ('లో', 'U'), ('భం', 'U'), ('బే', 'U'), ('టి', '|'), ('కి', '|'), ('వా', 'U'), ('రి', '|'), ('కో', 'U'), ('ర్కు', '|'), ('లు', '|'), ('కృ', '|'), ('పా', 'U'), ('ళు', 'U'), ('త్వం', 'U'), ('బు', '|'), ('నం', 'U'), ('దీ', 'U'), ('ర్ప', '|'), ('రా', 'U'), ('దా', 'U'), ('భ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బి', 'U'), ('చ్చి', '|'), ('పొ', 'U'), ('మ్మ', 'U'), ('న్న', '|'), ('నీ', 'U'), ('శ్రీ', 'U'), ('భాం', 'U'), ('డా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('గొ', '|'), ('ఱం', 'U'), ('త', '|'), ('ప', '|'), ('డు', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>మొదలన్భక్తులకిచ్చినాఁడవు గదా మోక్షంబు నేఁడేమయా
 ముదియంగా ముదియంగఁబుట్టె ఘనమౌ మోహంబు లోభంబున
@@ -3612,32 +3324,29 @@
 ల్చి దినంబున్మొఱవెట్టఁగా గటకటా! శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('ద', '|'), ('ల', 'U'), ('న్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డ', '|'), ('వు', '|'), ('గ', '|'), ('దా', 'U'), ('మో', 'U'), ('క్షం', 'U'), ('బు', '|'), ('నే', 'U'), ('డే', 'U'), ('మ', '|'), ('యా', 'U'), ('ము', '|'), ('ది', '|'), ('యం', 'U'), ('గా', 'U'), ('ము', '|'), ('ది', '|'), ('యం', 'U'), ('గ', '|'), ('బు', 'U'), ('ట్టె', '|'), ('ఘ', '|'), ('న', '|'), ('మౌ', 'U'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('లో', 'U'), ('భం', 'U'), ('బు', '|'), ('న', 'U'), ('న్న', '|'), ('ది', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('కృ', '|'), ('పం', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('వొ', '|'), ('క', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ముం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్నా', 'U'), ('త్మ', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('ది', '|'), ('నం', 'U'), ('బు', 'U'), ('న్మొ', '|'), ('ఱ', '|'), ('వె', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('గ', '|'), ('ట', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>కాలద్వార కవాటబంధనము దుష్కాల ప్రమాణక్రియా
 లీలాజాలక చిత్రగుప్త ముఖవల్మీకోగ్ర జిహ్వాద్భుత
@@ -3645,32 +3354,29 @@
 క్చేలాలంకృత! నీదు నామ మరయన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ల', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('క', '|'), ('వా', 'U'), ('ట', '|'), ('బం', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('దు', 'U'), ('ష్కా', 'U'), ('ల', 'U'), ('ప్ర', '|'), ('మా', 'U'), ('ణ', 'U'), ('క్రి', '|'), ('యా', 'U'), ('లీ', 'U'), ('లా', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('చి', 'U'), ('త్ర', '|'), ('గు', 'U'), ('ప్త', '|'), ('ము', '|'), ('ఖ', '|'), ('వ', 'U'), ('ల్మీ', 'U'), ('కో', 'U'), ('గ్ర', '|'), ('జి', 'U'), ('హ్వా', 'U'), ('ద్భు', '|'), ('త', 'U'), ('వ్యా', 'U'), ('ళ', 'U'), ('వ్యా', 'U'), ('ళ', '|'), ('వి', '|'), ('రో', 'U'), ('ధి', '|'), ('మృ', 'U'), ('త్యు', '|'), ('ము', '|'), ('ఖ', '|'), ('దం', 'U'), ('ష్ట్రా', 'U'), ('హా', 'U'), ('ర్య', '|'), ('వ', 'U'), ('జ్రం', 'U'), ('బు', '|'), ('ది', 'U'), ('క్చే', 'U'), ('లా', 'U'), ('లం', 'U'), ('కృ', '|'), ('త', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('ర', '|'), ('యన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>పదివేలైనను లోకకంటకులచేఁ బ్రాపించు సౌఖ్యంబు నా
 మదికిం బథ్యముగాదు సర్వమునకున్‌ మధ్యస్థుఁడై సత్యదా
@@ -3678,32 +3384,29 @@
 చి దినంబున్ముద మొందుదుం గడపటన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ది', '|'), ('వే', 'U'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('లో', 'U'), ('క', '|'), ('కం', 'U'), ('ట', '|'), ('కు', '|'), ('ల', '|'), ('చే', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చు', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('కిం', 'U'), ('బ', 'U'), ('థ్య', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('మ', 'U'), ('ధ్య', 'U'), ('స్థు', '|'), ('డై', 'U'), ('స', 'U'), ('త్య', '|'), ('దా', 'U'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('దు', 'U'), ('ల్గ', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('నా', 'U'), ('కొ', '|'), ('స', '|'), ('గు', '|'), ('మె', 'U'), ('న్న', 'U'), ('న్వా', 'U'), ('ని', '|'), ('నీ', 'U'), ('య', 'U'), ('ట్ల', '|'), ('చూ', 'U'), ('చి', '|'), ('ది', '|'), ('నం', 'U'), ('బు', 'U'), ('న్ము', '|'), ('ద', '|'), ('మొం', 'U'), ('దు', '|'), ('దుం', 'U'), ('గ', '|'), ('డ', '|'), ('ప', '|'), ('టన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>తాతల్‌ తల్లియుఁ దండ్రియున్‌ మఱియు బెద్దల్చావగాఁ జూడరో
 భీతింబొందఁగనేల చావునకుఁగాఁ బెండ్లాము బిడ్డల్హిత
@@ -3711,32 +3414,29 @@
 జేతోవీధి నరుండు నిన్గొలువఁడో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('తల్', 'U'), ('త', 'U'), ('ల్లి', '|'), ('యు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('యున్', 'U'), ('మ', '|'), ('ఱి', '|'), ('యు', '|'), ('బె', 'U'), ('ద్ద', 'U'), ('ల్చా', 'U'), ('వ', '|'), ('గా', 'U'), ('జూ', 'U'), ('డ', '|'), ('రో', 'U'), ('భీ', 'U'), ('తిం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('చా', 'U'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('బెం', 'U'), ('డ్లా', 'U'), ('ము', '|'), ('బి', 'U'), ('డ్డ', 'U'), ('ల్హి', '|'), ('త', 'U'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', 'U'), ('న్బ', '|'), ('ల', '|'), ('విం', 'U'), ('ప', '|'), ('జం', 'U'), ('తు', '|'), ('వు', '|'), ('ల', '|'), ('కు', 'U'), ('న్వా', 'U'), ('లా', 'U'), ('య', '|'), ('మై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('జే', 'U'), ('తో', 'U'), ('వీ', 'U'), ('ధి', '|'), ('న', '|'), ('రుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లు', '|'), ('వ', '|'), ('డో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>జాతుల్సెప్పుట సేవసేయుట మృషల్‌ సంధించు టన్యాయవి
 ఖ్యాతింబొందుట కొండెకాడవుట హింసారంభకుండౌట మి
@@ -3744,32 +3444,29 @@
 శ్రీ తానెన్నియుగంబు లుండఁగలదో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('తు', 'U'), ('ల్సె', 'U'), ('ప్పు', '|'), ('ట', '|'), ('సే', 'U'), ('వ', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('మృ', '|'), ('షల్', 'U'), ('సం', 'U'), ('ధిం', 'U'), ('చు', '|'), ('ట', 'U'), ('న్యా', 'U'), ('య', '|'), ('వి', 'U'), ('ఖ్యా', 'U'), ('తిం', 'U'), ('బొం', 'U'), ('దు', '|'), ('ట', '|'), ('కొం', 'U'), ('డె', '|'), ('కా', 'U'), ('డ', '|'), ('వు', '|'), ('ట', '|'), ('హిం', 'U'), ('సా', 'U'), ('రం', 'U'), ('భ', '|'), ('కుం', 'U'), ('డౌ', 'U'), ('ట', '|'), ('మి', 'U'), ('థ్యా', 'U'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('ము', '|'), ('లా', 'U'), ('డు', '|'), ('ట', 'U'), ('న్ని', '|'), ('యు', '|'), ('బ', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('శిం', 'U'), ('చి', '|'), ('యీ', 'U'), ('శ్రీ', 'U'), ('తా', 'U'), ('నె', 'U'), ('న్ని', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('లుం', 'U'), ('డ', '|'), ('గ', '|'), ('ల', '|'), ('దో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>చెడుగుల్‌ కొందఱు కూడి చేయఁగఁ బనుల్‌ చీకట్లు దూఱంగఁ బా
 ల్పడితింగాని చరింపరాని నిను నొల్లంజాలుఁ బొమ్మంచు ని
@@ -3777,32 +3474,29 @@
 రెడి యర్థంబులు నాకు వే గలుగవో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('డు', '|'), ('గుల్', 'U'), ('కొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('కూ', 'U'), ('డి', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('బ', '|'), ('నుల్', 'U'), ('చీ', 'U'), ('క', 'U'), ('ట్లు', '|'), ('దూ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('బా', 'U'), ('ల్ప', '|'), ('డి', '|'), ('తిం', 'U'), ('గా', 'U'), ('ని', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('రా', 'U'), ('ని', '|'), ('ని', '|'), ('ను', '|'), ('నొ', 'U'), ('ల్లం', 'U'), ('జా', 'U'), ('లు', '|'), ('బొ', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('ని', 'U'), ('ల్వె', '|'), ('డ', '|'), ('లం', 'U'), ('ద్రో', 'U'), ('చి', '|'), ('న', '|'), ('జూ', 'U'), ('రు', '|'), ('వ', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('నే', 'U'), ('వ్రే', 'U'), ('లా', 'U'), ('డు', '|'), ('దుం', 'U'), ('గో', 'U'), ('ర్కి', '|'), ('గో', 'U'), ('రె', '|'), ('డి', '|'), ('య', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('వో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>భసితోద్ధూళన ధూసరాంగులు జటాభారోత్తమాంగుల్‌ తపో
 వ్యసనుల్‌ సాధితపంచవర్ణరసనుల్‌ వైరాగ్యవంతుల్‌ నితాం
@@ -3810,32 +3504,29 @@
 జిసమేతుల్‌ తుదనెవ్వరైనఁ గొలుతున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('సి', '|'), ('తో', 'U'), ('ద్ధూ', 'U'), ('ళ', '|'), ('న', '|'), ('ధూ', 'U'), ('స', '|'), ('రాం', 'U'), ('గు', '|'), ('లు', '|'), ('జ', '|'), ('టా', 'U'), ('భా', 'U'), ('రో', 'U'), ('త్త', '|'), ('మాం', 'U'), ('గుల్', 'U'), ('త', '|'), ('పో', 'U'), ('వ్య', '|'), ('స', '|'), ('నుల్', 'U'), ('సా', 'U'), ('ధి', '|'), ('త', '|'), ('పం', 'U'), ('చ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ర', '|'), ('స', '|'), ('నుల్', 'U'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తుల్', 'U'), ('ని', '|'), ('తాం', 'U'), ('త', '|'), ('సు', '|'), ('ఖ', 'U'), ('స్వాం', 'U'), ('తు', '|'), ('లు', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('రు', '|'), ('ద్రా', 'U'), ('క్ష', '|'), ('రా', 'U'), ('జి', '|'), ('స', '|'), ('మే', 'U'), ('తుల్', 'U'), ('తు', '|'), ('ద', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('గొ', '|'), ('లు', '|'), ('తున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>జలజశ్రీగల మంచినీళ్ళు గలవా చట్రాతిలో బాపురే!
 వెలివాడన్మఱి బాఁపనిల్లు గలదా వేసాలు గాకక్కటా!
@@ -3843,32 +3534,29 @@
 చెలువంబైన గుణంబు లెంచుకొనవే శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('జ', 'U'), ('శ్రీ', 'U'), ('గ', '|'), ('ల', '|'), ('మం', 'U'), ('చి', '|'), ('నీ', 'U'), ('ళ్ళు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('చ', 'U'), ('ట్రా', 'U'), ('తి', '|'), ('లో', 'U'), ('బా', 'U'), ('పు', '|'), ('రే', 'U'), ('వె', '|'), ('లి', '|'), ('వా', 'U'), ('డ', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('బా', 'U'), ('ప', '|'), ('ని', 'U'), ('ల్లు', '|'), ('గ', '|'), ('ల', '|'), ('దా', 'U'), ('వే', 'U'), ('సా', 'U'), ('లు', '|'), ('గా', 'U'), ('క', 'U'), ('క్క', '|'), ('టా', 'U'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('రెం', 'U'), ('డు', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లెం', 'U'), ('చి', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('న', 'U'), ('న్నే', 'U'), ('మి', '|'), ('రో', 'U'), ('యం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బై', 'U'), ('న', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లెం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>గడియల్‌ రెంటికొ మూఁటికో గడియకో కాదేని నేఁడెల్లియో
 కడనేఁడాదికొ యెన్నడో యెఱుఁగ మీ కాయంబు లీ భూమిపైఁ
@@ -3876,32 +3564,29 @@
 చెడుగుల్‌ నీ పదభక్తిం దెలియరో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('డి', '|'), ('యల్', 'U'), ('రెం', 'U'), ('టి', '|'), ('కొ', '|'), ('మూ', 'U'), ('టి', '|'), ('కో', 'U'), ('గ', '|'), ('డి', '|'), ('య', '|'), ('కో', 'U'), ('కా', 'U'), ('దే', 'U'), ('ని', '|'), ('నే', 'U'), ('డె', 'U'), ('ల్లి', '|'), ('యో', 'U'), ('క', '|'), ('డ', '|'), ('నే', 'U'), ('డా', 'U'), ('ది', '|'), ('కొ', '|'), ('యె', 'U'), ('న్న', '|'), ('డో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('మీ', 'U'), ('కా', 'U'), ('యం', 'U'), ('బు', '|'), ('లీ', 'U'), ('భూ', 'U'), ('మి', '|'), ('పై', 'U'), ('బ', '|'), ('డ', '|'), ('గా', 'U'), ('ను', 'U'), ('న్న', '|'), ('వి', '|'), ('ధ', '|'), ('ర్మ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మొ', '|'), ('క', '|'), ('టిం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('ప', '|'), ('రీ', 'U'), ('మా', 'U'), ('న', '|'), ('వుల్', 'U'), ('చె', '|'), ('డు', '|'), ('గుల్', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>క్షితిలో దొడ్డతురంగసామజములే చిత్రమ్ము లాందోళికా
 తతులే లెక్క విలాసినీజన సువస్త్రవ్రాత భూషాకలా
@@ -3909,32 +3594,29 @@
 జితపంకేరుహ పాదపద్మయుగళా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('క్షి', '|'), ('తి', '|'), ('లో', 'U'), ('దొ', 'U'), ('డ్డ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('సా', 'U'), ('మ', '|'), ('జ', '|'), ('ము', '|'), ('లే', 'U'), ('చి', 'U'), ('త్ర', 'U'), ('మ్ము', '|'), ('లాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('త', '|'), ('తు', '|'), ('లే', 'U'), ('లె', 'U'), ('క్క', '|'), ('వి', '|'), ('లా', 'U'), ('సి', '|'), ('నీ', 'U'), ('జ', '|'), ('న', '|'), ('సు', '|'), ('వ', 'U'), ('స్త్ర', 'U'), ('వ్రా', 'U'), ('త', '|'), ('భూ', 'U'), ('షా', 'U'), ('క', '|'), ('లా', 'U'), ('ప', '|'), ('త', '|'), ('నూ', 'U'), ('జా', 'U'), ('ది', '|'), ('క', '|'), ('మే', 'U'), ('మి', '|'), ('దు', 'U'), ('ర్ల', '|'), ('భ', '|'), ('ము', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('ల', 'U'), ('ర్చిం', 'U'), ('చు', '|'), ('చో', 'U'), ('జి', '|'), ('త', '|'), ('పం', 'U'), ('కే', 'U'), ('రు', '|'), ('హ', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('యు', '|'), ('గ', '|'), ('ళా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>సలిలమ్మున్జుళుకప్రమాణ మొక పుష్పమ్మున్భవన్మౌళి ని
 శ్చల భక్తిప్రపత్తిచే నరుఁడు పూజల్సేయఁగా ధన్యుఁడౌ
@@ -3942,32 +3624,29 @@
 చెలువంబంతయు నీ మహత్త్వమిదిగా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('లి', '|'), ('ల', 'U'), ('మ్ము', 'U'), ('న్జు', '|'), ('ళు', '|'), ('క', 'U'), ('ప్ర', '|'), ('మా', 'U'), ('ణ', '|'), ('మొ', '|'), ('క', '|'), ('పు', 'U'), ('ష్ప', 'U'), ('మ్ము', 'U'), ('న్భ', '|'), ('వ', 'U'), ('న్మౌ', 'U'), ('ళి', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('భ', 'U'), ('క్తి', 'U'), ('ప్ర', '|'), ('ప', 'U'), ('త్తి', '|'), ('చే', 'U'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('పూ', 'U'), ('జ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గా', 'U'), ('ధ', 'U'), ('న్యు', '|'), ('డౌ', 'U'), ('ని', '|'), ('ల', '|'), ('గం', 'U'), ('గా', 'U'), ('న', '|'), ('ది', '|'), ('జం', 'U'), ('ద్ర', '|'), ('ఖం', 'U'), ('డ', '|'), ('ము', '|'), ('ను', '|'), ('దా', 'U'), ('నిం', 'U'), ('దుం', 'U'), ('దు', '|'), ('దిం', 'U'), ('గాం', 'U'), ('చు', '|'), ('నీ', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బం', 'U'), ('త', '|'), ('యు', '|'), ('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('మి', '|'), ('ది', '|'), ('గా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>తమ నేత్రద్యుతిఁ దామెచూడ సుఖమై తాదాత్మ్యమున్గూర్పఁగా
 విమలమ్ము ల్కమలాభము ల్జితలసద్విత్యుల్లతాలాస్యముల్‌
@@ -3975,32 +3654,29 @@
 రిమృగాక్షీనివహమ్ము కన్నుఁగవలన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('మ', '|'), ('నే', 'U'), ('త్ర', 'U'), ('ద్యు', '|'), ('తి', '|'), ('దా', 'U'), ('మె', '|'), ('చూ', 'U'), ('డ', '|'), ('సు', '|'), ('ఖ', '|'), ('మై', 'U'), ('తా', 'U'), ('దా', 'U'), ('త్మ్య', '|'), ('ము', 'U'), ('న్గూ', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('వి', '|'), ('మ', '|'), ('ల', 'U'), ('మ్ము', 'U'), ('ల్క', '|'), ('మ', '|'), ('లా', 'U'), ('భ', '|'), ('ము', 'U'), ('ల్జి', '|'), ('త', '|'), ('ల', '|'), ('స', 'U'), ('ద్వి', 'U'), ('త్యు', 'U'), ('ల్ల', '|'), ('తా', 'U'), ('లా', 'U'), ('స్య', '|'), ('ముల్', 'U'), ('సు', '|'), ('మ', '|'), ('నో', 'U'), ('బా', 'U'), ('ణ', '|'), ('జ', '|'), ('య', 'U'), ('ప్ర', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('ను', '|'), ('చు', 'U'), ('న్జూ', 'U'), ('చున్', 'U'), ('జ', '|'), ('నం', 'U'), ('బూ', 'U'), ('ని', '|'), ('హా', 'U'), ('రి', '|'), ('మృ', '|'), ('గా', 'U'), ('క్షీ', 'U'), ('ని', '|'), ('వ', '|'), ('హ', 'U'), ('మ్ము', '|'), ('క', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('లన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t>పటవద్రజ్జుభుజంగవద్రజత విభ్రాంతి స్ఫురచ్ఛుక్తివ
 ద్ఘటవ చ్చంద్రశిలాజపాకుసుమ రుక్సాంగత్యవత్తంచు వా
@@ -4008,32 +3684,29 @@
 చిటుకన్నం దలపోయఁజూతురధముల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ట', '|'), ('వ', '|'), ('ద్ర', 'U'), ('జ్జు', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('వ', '|'), ('ద్ర', '|'), ('జ', '|'), ('త', '|'), ('వి', 'U'), ('భ్రాం', 'U'), ('తి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('చ్ఛు', 'U'), ('క్తి', '|'), ('వ', 'U'), ('ద్ఘ', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చం', 'U'), ('ద్ర', '|'), ('శి', '|'), ('లా', 'U'), ('జ', '|'), ('పా', 'U'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('రు', 'U'), ('క్సాం', 'U'), ('గ', 'U'), ('త్య', '|'), ('వ', 'U'), ('త్తం', 'U'), ('చు', '|'), ('వా', 'U'), ('క్ప', '|'), ('టి', '|'), ('మ', 'U'), ('ల్నే', 'U'), ('ర్తు', '|'), ('రు', '|'), ('చి', 'U'), ('త్సు', '|'), ('ఖం', 'U'), ('బ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('పన్', 'U'), ('లే', 'U'), ('క', '|'), ('దు', '|'), ('ర్మే', 'U'), ('ధ', '|'), ('సుల్', 'U'), ('చి', '|'), ('టు', '|'), ('క', 'U'), ('న్నం', 'U'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('జూ', 'U'), ('తు', '|'), ('ర', '|'), ('ధ', '|'), ('ముల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>నిను నిందించిన దక్షుపైఁ దెగవో వాణీనాథు శాసింపవో
 చనునా నీ పదపద్మ సేవకులఁ దుచ్ఛంబాడు దుర్మార్గునిం\న్‌
@@ -4041,32 +3714,29 @@
 చ్చెనో లేకుండిన నూఱకుండఁగలవా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('నిం', 'U'), ('దిం', 'U'), ('చి', '|'), ('న', '|'), ('ద', 'U'), ('క్షు', '|'), ('పై', 'U'), ('దె', '|'), ('గ', '|'), ('వో', 'U'), ('వా', 'U'), ('ణీ', 'U'), ('నా', 'U'), ('థు', '|'), ('శా', 'U'), ('సిం', 'U'), ('ప', '|'), ('వో', 'U'), ('చ', '|'), ('ను', '|'), ('నా', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('దు', 'U'), ('చ్ఛం', 'U'), ('బా', 'U'), ('డు', '|'), ('దు', '|'), ('ర్మా', 'U'), ('ర్గు', '|'), ('నింన్', 'U'), ('బె', '|'), ('ను', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('కు', '|'), ('ను', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్త', '|'), ('త', '|'), ('తి', '|'), ('కిన్', 'U'), ('భే', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('నం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చె', '|'), ('నో', 'U'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('నూ', 'U'), ('ఱ', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
         <is>
           <t>కరిదైత్యున్బొరిగొన్న శూలము కరగ్రస్తంబుగాదో రతీ
 శ్వరునిన్‌ గాల్చిన ఫాలలోచన శిఖావర్గంబు చల్లాఱెనో
@@ -4074,32 +3744,29 @@
 సిరి నీకున్బరమోపకార మరయన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రి', '|'), ('దై', 'U'), ('త్యు', 'U'), ('న్బొ', '|'), ('రి', '|'), ('గొ', 'U'), ('న్న', '|'), ('శూ', 'U'), ('ల', '|'), ('ము', '|'), ('క', '|'), ('ర', 'U'), ('గ్ర', 'U'), ('స్తం', 'U'), ('బు', '|'), ('గా', 'U'), ('దో', 'U'), ('ర', '|'), ('తీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('నిన్', 'U'), ('గా', 'U'), ('ల్చి', '|'), ('న', '|'), ('ఫా', 'U'), ('ల', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('శి', '|'), ('ఖా', 'U'), ('వ', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('చ', 'U'), ('ల్లా', 'U'), ('ఱె', '|'), ('నో', 'U'), ('ప', '|'), ('ర', '|'), ('నిం', 'U'), ('దా', 'U'), ('ప', '|'), ('రు', '|'), ('ల', 'U'), ('న్వ', '|'), ('ధిం', 'U'), ('ప', '|'), ('వి', '|'), ('ది', '|'), ('యున్', 'U'), ('భా', 'U'), ('వ్యం', 'U'), ('బె', '|'), ('వా', 'U'), ('రే', 'U'), ('మి', '|'), ('చే', 'U'), ('సి', '|'), ('రి', '|'), ('నీ', 'U'), ('కు', 'U'), ('న్బ', '|'), ('ర', '|'), ('మో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('యన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>దురము న్దుర్గము రాయబారము మఱిన్‌ దొంగర్కమున్‌ వైద్యమున్‌
 నరనాథాశ్రయమోడ బేరమును బెన్మంత్రంబు సిద్ధించినన్‌
@@ -4107,32 +3774,29 @@
 సిరియుంబోవును బ్రాణహానియు నగున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('దు', '|'), ('ర', '|'), ('ము', 'U'), ('న్దు', 'U'), ('ర్గ', '|'), ('ము', '|'), ('రా', 'U'), ('య', '|'), ('బా', 'U'), ('ర', '|'), ('ము', '|'), ('మ', '|'), ('ఱిన్', 'U'), ('దొం', 'U'), ('గ', 'U'), ('ర్క', '|'), ('మున్', 'U'), ('వై', 'U'), ('ద్య', '|'), ('మున్', 'U'), ('న', '|'), ('ర', '|'), ('నా', 'U'), ('థా', 'U'), ('శ్ర', '|'), ('య', '|'), ('మో', 'U'), ('డ', '|'), ('బే', 'U'), ('ర', '|'), ('ము', '|'), ('ను', '|'), ('బె', 'U'), ('న్మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('అ', '|'), ('ర', '|'), ('యన్', 'U'), ('దొ', 'U'), ('డ్డ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('ది', '|'), ('గా', 'U'), ('కా', 'U'), ('కా', 'U'), ('ర్య', '|'), ('మే', 'U'), ('త', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('సి', '|'), ('రి', '|'), ('యుం', 'U'), ('బో', 'U'), ('వు', '|'), ('ను', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('ని', '|'), ('యు', '|'), ('న', '|'), ('గున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
         <is>
           <t>తనయుం గాంచి ధనంబు వాడి దివిజస్థానంబు గట్టించి వి
 ప్రున కుద్వాహముఁ జేసి సత్కృతికిఁ బాత్రుండై తటాకంబు నే
@@ -4140,32 +3804,29 @@
 సిన పుణ్యాత్ముఁడు పోవు లోకమునకున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యుం', 'U'), ('గాం', 'U'), ('చి', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('వా', 'U'), ('డి', '|'), ('ది', '|'), ('వి', '|'), ('జ', 'U'), ('స్థా', 'U'), ('నం', 'U'), ('బు', '|'), ('గ', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('వి', 'U'), ('ప్రు', '|'), ('న', '|'), ('కు', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('స', 'U'), ('త్కృ', '|'), ('తి', '|'), ('కి', '|'), ('బా', 'U'), ('త్రుం', 'U'), ('డై', 'U'), ('త', '|'), ('టా', 'U'), ('కం', 'U'), ('బు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('ద్ర', 'U'), ('వ్విం', 'U'), ('చి', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('మ', '|'), ('న', '|'), ('నీ', 'U'), ('పో', 'U'), ('లే', 'U'), ('డు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('డు', '|'), ('పో', 'U'), ('వు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>క్షితినాథోత్తమ! సత్కవీశ్వరుఁడు వచ్చెన్‌ మిమ్ములంజూడఁగా
 నతఁడే మేటి కవిత్వ వైఖరిని? సద్యఃకావ్యనిర్మాత త
@@ -4173,32 +3834,29 @@
 గ్రితమే చూచెను బొమ్మటంచురథముల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('క్షి', '|'), ('తి', '|'), ('నా', 'U'), ('థో', 'U'), ('త్త', '|'), ('మ', '|'), ('స', 'U'), ('త్క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('వ', '|'), ('చ్చెన్', 'U'), ('మి', 'U'), ('మ్ము', '|'), ('లం', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('త', '|'), ('డే', 'U'), ('మే', 'U'), ('టి', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('ని', '|'), ('స', 'U'), ('ద్యః', 'U'), ('కా', 'U'), ('వ్య', '|'), ('ని', '|'), ('ర్మా', 'U'), ('త', '|'), ('త', 'U'), ('త్ప్ర', '|'), ('తి', '|'), ('భ', 'U'), ('ల్మం', 'U'), ('చి', '|'), ('వి', '|'), ('తి', 'U'), ('ట్టు', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పం', 'U'), ('డా', 'U'), ('త', '|'), ('డై', 'U'), ('నన్', 'U'), ('మ', '|'), ('ముం', 'U'), ('గ్రి', '|'), ('త', '|'), ('మే', 'U'), ('చూ', 'U'), ('చె', '|'), ('ను', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('ర', '|'), ('థ', '|'), ('ముల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
         <is>
           <t>నీకుంగాని కవిత్వమెవ్వరికి నేనీనంచు మీఁదెత్తితిన్‌
 జేకొంటిన్‌ బిరుదంబు కంకణము ముంజేగట్టితిం బట్టితిన్‌
@@ -4206,32 +3864,29 @@
 ఛీ కాలంబుల రీతి దప్పెడు జుమీ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('కుం', 'U'), ('గా', 'U'), ('ని', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('నే', 'U'), ('నీ', 'U'), ('నం', 'U'), ('చు', '|'), ('మీ', 'U'), ('దె', 'U'), ('త్తి', '|'), ('తిన్', 'U'), ('జే', 'U'), ('కొం', 'U'), ('టిన్', 'U'), ('బి', '|'), ('రు', '|'), ('దం', 'U'), ('బు', '|'), ('కం', 'U'), ('క', '|'), ('ణ', '|'), ('ము', '|'), ('ముం', 'U'), ('జే', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('తిం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('తిన్', 'U'), ('లో', 'U'), ('కుల్', 'U'), ('మె', 'U'), ('చ్చ', 'U'), ('వ్ర', '|'), ('తం', 'U'), ('బు', '|'), ('నా', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('కీ', 'U'), ('లున్', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('లుం', 'U'), ('గా', 'U'), ('వు', '|'), ('ఛీ', 'U'), ('ఛీ', 'U'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('రీ', 'U'), ('తి', '|'), ('ద', 'U'), ('ప్పె', '|'), ('డు', '|'), ('జు', '|'), ('మీ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>నిచ్చల్‌ నిన్ను భజింప చిన్మయమహా నిర్వాణ పీఠంబుపై
 రచ్చల్సేయక యార్జవంబు కుజనవ్రాతంబుచేఁగ్రాఁగి భూ
@@ -4239,32 +3894,29 @@
 చిచ్చాఱం జమురెల్లఁ జల్లుకొనునో శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('చ్చల్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('చి', 'U'), ('న్మ', '|'), ('య', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('పీ', 'U'), ('ఠం', 'U'), ('బు', '|'), ('పై', 'U'), ('ర', 'U'), ('చ్చ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('క', '|'), ('యా', 'U'), ('ర్జ', '|'), ('వం', 'U'), ('బు', '|'), ('కు', '|'), ('జ', '|'), ('న', 'U'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('చే', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('భూ', 'U'), ('భృ', 'U'), ('చ్చం', 'U'), ('డా', 'U'), ('లు', '|'), ('ర', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('వా', 'U'), ('రు', '|'), ('ద', '|'), ('ను', '|'), ('గో', 'U'), ('పిం', 'U'), ('పన్', 'U'), ('బు', '|'), ('ధుం', 'U'), ('డా', 'U'), ('ర్తు', '|'), ('డై', 'U'), ('చి', 'U'), ('చ్చా', 'U'), ('ఱం', 'U'), ('జ', '|'), ('ము', '|'), ('రె', 'U'), ('ల్ల', '|'), ('జ', 'U'), ('ల్లు', '|'), ('కొ', '|'), ('ను', '|'), ('నో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
         <is>
           <t>దంతంబుల్పడనప్పుడే తనువునన్‌ దార్ఢ్యంబు నున్నప్పుడే
 కాంతాసంఘము రోయనప్పుడె జరాక్రాంతంబు గానప్పుడే
@@ -4272,32 +3924,29 @@
 చింతింపన్‌వలె నీ పదాంబుజములన్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('తం', 'U'), ('బు', 'U'), ('ల్ప', '|'), ('డ', '|'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('నన్', 'U'), ('దా', 'U'), ('ర్ఢ్యం', 'U'), ('బు', '|'), ('ను', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('కాం', 'U'), ('తా', 'U'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('రో', 'U'), ('య', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('జ', '|'), ('రా', 'U'), ('క్రాం', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('విం', 'U'), ('త', 'U'), ('ల్మే', 'U'), ('న', '|'), ('జ', '|'), ('రిం', 'U'), ('చ', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('కు', '|'), ('రు', 'U'), ('ల్వె', 'U'), ('ల్వె', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('చిం', 'U'), ('తిం', 'U'), ('ప', 'U'), ('న్వ', '|'), ('లె', '|'), ('నీ', 'U'), ('ప', '|'), ('దాం', 'U'), ('బు', '|'), ('జ', '|'), ('ము', '|'), ('లన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
         <is>
           <t>ఊరూరన్‌ బవినీని కాండ్లు కవులై యొక్కొక్కచోఁ గొందఱన్‌
 కేరే మీరును బాణకాదురనుచున్‌ గీతాలు బోధింపఁగా
@@ -4305,32 +3954,29 @@
 జేరంజోటికనేది సత్కవులకున్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('ఊ', 'U'), ('రూ', 'U'), ('రన్', 'U'), ('బ', '|'), ('వి', '|'), ('నీ', 'U'), ('ని', '|'), ('కాం', 'U'), ('డ్లు', '|'), ('క', '|'), ('వు', '|'), ('లై', 'U'), ('యొ', 'U'), ('క్కొ', 'U'), ('క్క', '|'), ('చో', 'U'), ('గొం', 'U'), ('ద', '|'), ('ఱన్', 'U'), ('కే', 'U'), ('రే', 'U'), ('మీ', 'U'), ('రు', '|'), ('ను', '|'), ('బా', 'U'), ('ణ', '|'), ('కా', 'U'), ('దు', '|'), ('ర', '|'), ('ను', '|'), ('చున్', 'U'), ('గీ', 'U'), ('తా', 'U'), ('లు', '|'), ('బో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గా', 'U'), ('సా', 'U'), ('రా', 'U'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('మి', '|'), ('గు', '|'), ('లం', 'U'), ('జౌ', 'U'), ('క', 'U'), ('య్యె', '|'), ('గా', 'U'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('జే', 'U'), ('రం', 'U'), ('జో', 'U'), ('టి', '|'), ('క', '|'), ('నే', 'U'), ('ది', '|'), ('స', 'U'), ('త్క', '|'), ('వు', '|'), ('ల', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
         <is>
           <t>దొప్పెండెంగిలి దెచ్చియిచ్చినను గండూషాంబుధారావళిన్‌
 దొప్పం దోఁగిన చెప్పుగాల తలపై ద్రొక్కంగ నట్లైనఁ గ
@@ -4338,32 +3984,29 @@
 చెప్పన్నేరము నీ విహార మహిమల్‌ శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('దొ', 'U'), ('ప్పెం', 'U'), ('డెం', 'U'), ('గి', '|'), ('లి', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('ను', '|'), ('గం', 'U'), ('డూ', 'U'), ('షాం', 'U'), ('బు', '|'), ('ధా', 'U'), ('రా', 'U'), ('వ', '|'), ('ళిన్', 'U'), ('దొ', 'U'), ('ప్పం', 'U'), ('దో', 'U'), ('గి', '|'), ('న', '|'), ('చె', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('ల', '|'), ('త', '|'), ('ల', '|'), ('పై', 'U'), ('ద్రొ', 'U'), ('క్కం', 'U'), ('గ', '|'), ('న', 'U'), ('ట్లై', 'U'), ('న', '|'), ('గ', 'U'), ('న్న', 'U'), ('ప్పం', 'U'), ('బా', 'U'), ('త్రు', '|'), ('ని', '|'), ('జే', 'U'), ('సి', '|'), ('తిం', 'U'), ('త', '|'), ('టి', '|'), ('కి', '|'), ('స', 'U'), ('న్మా', 'U'), ('నం', 'U'), ('బు', '|'), ('దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('చె', 'U'), ('ప్ప', 'U'), ('న్నే', 'U'), ('ర', '|'), ('ము', '|'), ('నీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('మ', '|'), ('హి', '|'), ('మల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>అల యేకార్ణవ వేళ నీవు వటపత్రాకారమై యుండఁగా
 చెలువంబొప్పఁగ మాధవుండు గలిగెన్‌ జేరంగఁజోటంచుదా
@@ -4371,17 +4014,17 @@
 సిలుగుల్‌ పొందక నీ కతంబునగదా శ్రీకాళహస్తీశ్వరా!</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>srikaalahasteeswara</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
-        <is>
-          <t>srikaalahasteeswara</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
         <is>
           <t>[('అ', '|'), ('ల', '|'), ('యే', 'U'), ('కా', 'U'), ('ర్ణ', '|'), ('వ', '|'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('వు', '|'), ('వ', '|'), ('ట', '|'), ('ప', 'U'), ('త్రా', 'U'), ('కా', 'U'), ('ర', '|'), ('మై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('మా', 'U'), ('ధ', '|'), ('వుం', 'U'), ('డు', '|'), ('గ', '|'), ('లి', '|'), ('గెన్', 'U'), ('జే', 'U'), ('రం', 'U'), ('గ', '|'), ('జో', 'U'), ('టం', 'U'), ('చు', '|'), ('దా', 'U'), ('నె', '|'), ('ల', '|'), ('మిం', 'U'), ('దా', 'U'), ('మ', '|'), ('ర', '|'), ('తం', 'U'), ('ప', '|'), ('రై', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('డిం', 'U'), ('తా', 'U'), ('కు', '|'), ('పై', 'U'), ('నుం', 'U'), ('డి', '|'), ('యే', 'U'), ('సి', '|'), ('లు', '|'), ('గుల్', 'U'), ('పొం', 'U'), ('ద', '|'), ('క', '|'), ('నీ', 'U'), ('క', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('గ', '|'), ('దా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>

--- a/dataset/lg/srikaalahasteeswara.xlsx
+++ b/dataset/lg/srikaalahasteeswara.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('వి', 'U'), ('ద్యు', 'U'), ('త్క', '|'), ('లి', '|'), ('తా', 'U'), ('జ', '|'), ('వం', 'U'), ('జ', '|'), ('వ', '|'), ('మ', '|'), ('హా', 'U'), ('జీ', 'U'), ('మూ', 'U'), ('త', '|'), ('పా', 'U'), ('పాం', 'U'), ('బు', '|'), ('ధా', 'U'), ('రా', 'U'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('బ్జ', '|'), ('స', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ణ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('గో', 'U'), ('ల్పో', 'U'), ('యి', '|'), ('తిన్', 'U'), ('దే', 'U'), ('వా', 'U'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('శ', '|'), ('ర', 'U'), ('త్స', '|'), ('మ', '|'), ('య', '|'), ('మిం', 'U'), ('తే', 'U'), ('జా', 'U'), ('లు', '|'), ('స', 'U'), ('ద్భా', 'U'), ('వ', '|'), ('నా', 'U'), ('సే', 'U'), ('వం', 'U'), ('దా', 'U'), ('మ', '|'), ('ర', '|'), ('తం', 'U'), ('ప', '|'), ('రై', 'U'), ('మ', '|'), ('ని', '|'), ('యె', '|'), ('దన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('వి', 'U'), ('ద్యు', 'U'), ('త్క', '|'), ('లి', '|'), ('తా', 'U'), ('జ', '|'), ('వం', 'U'), ('జ', '|'), ('వ', '|'), ('మ', '|'), ('హా', 'U'), ('జీ', 'U'), ('మూ', 'U'), ('త', '|'), ('పా', 'U'), ('పాం', 'U'), ('బు', '|'), ('ధా', 'U'), ('రా', 'U'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('బ్జ', '|'), ('స', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ణ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('గో', 'U'), ('ల్పో', 'U'), ('యి', '|'), ('తిన్', 'U'), ('దే', 'U'), ('వా', 'U'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('శ', '|'), ('ర', 'U'), ('త్స', '|'), ('మ', '|'), ('య', '|'), ('మిం', 'U'), ('తే', 'U'), ('జా', 'U'), ('లు', '|'), ('స', 'U'), ('ద్భా', 'U'), ('వ', '|'), ('నా', 'U'), ('సే', 'U'), ('వం', 'U'), ('దా', 'U'), ('మ', '|'), ('ర', '|'), ('తం', 'U'), ('ప', '|'), ('రై', 'U'), ('మ', '|'), ('ని', '|'), ('యె', '|'), ('ద', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('అం', 'U'), ('తా', 'U'), ('మి', 'U'), ('థ్య', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('రుం', 'U'), ('డ', 'U'), ('ట్లౌ', 'U'), ('టె', '|'), ('ఱిం', 'U'), ('గిన్', 'U'), ('స', '|'), ('దా', 'U'), ('కాం', 'U'), ('త', 'U'), ('ల్పు', '|'), ('త్రు', '|'), ('లు', '|'), ('న', 'U'), ('ర్థ', '|'), ('మున్', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బం', 'U'), ('చు', '|'), ('మో', 'U'), ('హా', 'U'), ('ర్ణ', '|'), ('వ', '|'), ('భ్రాం', 'U'), ('తిం', 'U'), ('జెం', 'U'), ('ది', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('గా', 'U'), ('ని', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('దా', 'U'), ('జిం', 'U'), ('తా', 'U'), ('కం', 'U'), ('త', '|'), ('యు', '|'), ('జిం', 'U'), ('త', '|'), ('ని', 'U'), ('ల్ప', '|'), ('డు', '|'), ('గ', '|'), ('దా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అం', 'U'), ('తా', 'U'), ('మి', 'U'), ('థ్య', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('రుం', 'U'), ('డ', 'U'), ('ట్లౌ', 'U'), ('టె', '|'), ('ఱిం', 'U'), ('గి', 'U'), ('న్స', '|'), ('దా', 'U'), ('కాం', 'U'), ('త', 'U'), ('ల్పు', '|'), ('త్రు', '|'), ('లు', '|'), ('న', 'U'), ('ర్థ', '|'), ('ము', 'U'), ('న్త', '|'), ('ను', '|'), ('వు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బం', 'U'), ('చు', '|'), ('మో', 'U'), ('హా', 'U'), ('ర్ణ', '|'), ('వ', '|'), ('భ్రాం', 'U'), ('తిం', 'U'), ('జెం', 'U'), ('ది', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('గా', 'U'), ('ని', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('దా', 'U'), ('జిం', 'U'), ('తా', 'U'), ('కం', 'U'), ('త', '|'), ('యు', '|'), ('జిం', 'U'), ('త', '|'), ('ని', 'U'), ('ల్ప', '|'), ('డు', '|'), ('గ', '|'), ('దా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('నా', 'U'), ('సం', 'U'), ('దొ', '|'), ('డ', '|'), ('బా', 'U'), ('టు', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('ను', '|'), ('మా', 'U'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('జీ', 'U'), ('తం', 'U'), ('బు', '|'), ('నే', 'U'), ('గా', 'U'), ('నిం', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('క', '|'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('బు', '|'), ('మ', '|'), ('ది', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్గొ', 'U'), ('ల్తు', '|'), ('నం', 'U'), ('త', 'U'), ('స్స', '|'), ('ప', 'U'), ('త్నా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కొ', 'U'), ('ప్ప', '|'), ('గిం', 'U'), ('ప', '|'), ('కు', '|'), ('ము', '|'), ('న', 'U'), ('న్నా', 'U'), ('పా', 'U'), ('టి', '|'), ('యే', 'U'), ('చా', 'U'), ('లు', '|'), ('దే', 'U'), ('జీ', 'U'), ('నొ', 'U'), ('ల్లం', 'U'), ('గ', '|'), ('రి', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('సి', '|'), ('రు', '|'), ('లన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నీ', 'U'), ('నా', 'U'), ('సం', 'U'), ('దొ', '|'), ('డ', '|'), ('బా', 'U'), ('టు', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('ను', '|'), ('మా', 'U'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('జీ', 'U'), ('తం', 'U'), ('బు', '|'), ('నే', 'U'), ('గా', 'U'), ('నిం', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('క', '|'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('బు', '|'), ('మ', '|'), ('ది', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్గొ', 'U'), ('ల్తు', '|'), ('నం', 'U'), ('త', 'U'), ('స్స', '|'), ('ప', 'U'), ('త్నా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కొ', 'U'), ('ప్ప', '|'), ('గిం', 'U'), ('ప', '|'), ('కు', '|'), ('ము', '|'), ('న', 'U'), ('న్నా', 'U'), ('పా', 'U'), ('టి', '|'), ('యే', 'U'), ('చా', 'U'), ('లు', '|'), ('దే', 'U'), ('జీ', 'U'), ('నొ', 'U'), ('ల్లం', 'U'), ('గ', '|'), ('రి', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('సి', '|'), ('రు', '|'), ('ల', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('ది', '|'), ('వి', '|'), ('జ', 'U'), ('క్ష్మా', 'U'), ('రు', '|'), ('హ', '|'), ('ధే', 'U'), ('ను', '|'), ('ర', 'U'), ('త్న', '|'), ('ఘ', '|'), ('న', '|'), ('భూ', 'U'), ('తి', '|'), ('ప్ర', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('సా', 'U'), ('ను', '|'), ('వు', '|'), ('నీ', 'U'), ('వి', 'U'), ('ల్లు', '|'), ('ని', '|'), ('ధీ', 'U'), ('శ్వ', '|'), ('రుం', 'U'), ('డు', '|'), ('స', '|'), ('ఖు', '|'), ('డ', 'U'), ('ర్ణో', 'U'), ('రా', 'U'), ('శి', '|'), ('క', 'U'), ('న్యా', 'U'), ('వి', '|'), ('భుం', 'U'), ('డు', '|'), ('వి', '|'), ('శే', 'U'), ('షా', 'U'), ('ర్చ', '|'), ('కు', '|'), ('డిం', 'U'), ('క', '|'), ('నీ', 'U'), ('కె', '|'), ('న', '|'), ('ఘ', '|'), ('నుం', 'U'), ('డుం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('నే', 'U'), ('నీ', 'U'), ('వు', '|'), ('చూ', 'U'), ('చి', '|'), ('వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('ప', '|'), ('వు', '|'), ('లే', 'U'), ('మి', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('డు', '|'), ('పున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ది', '|'), ('వి', '|'), ('జ', 'U'), ('క్ష్మా', 'U'), ('రు', '|'), ('హ', '|'), ('ధే', 'U'), ('ను', '|'), ('ర', 'U'), ('త్న', '|'), ('ఘ', '|'), ('న', '|'), ('భూ', 'U'), ('తి', '|'), ('ప్ర', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('సా', 'U'), ('ను', '|'), ('వు', '|'), ('నీ', 'U'), ('వి', 'U'), ('ల్లు', '|'), ('ని', '|'), ('ధీ', 'U'), ('శ్వ', '|'), ('రుం', 'U'), ('డు', '|'), ('స', '|'), ('ఖు', '|'), ('డ', 'U'), ('ర్ణో', 'U'), ('రా', 'U'), ('శి', '|'), ('క', 'U'), ('న్యా', 'U'), ('వి', '|'), ('భుం', 'U'), ('డు', '|'), ('వి', '|'), ('శే', 'U'), ('షా', 'U'), ('ర్చ', '|'), ('కు', '|'), ('డిం', 'U'), ('క', '|'), ('నీ', 'U'), ('కె', '|'), ('న', '|'), ('ఘ', '|'), ('నుం', 'U'), ('డుం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('నే', 'U'), ('నీ', 'U'), ('వు', '|'), ('చూ', 'U'), ('చి', '|'), ('వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('ప', '|'), ('వు', '|'), ('లే', 'U'), ('మి', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('డు', '|'), ('పు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('తో', 'U'), ('యు', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('జే', 'U'), ('య', '|'), ('నో', 'U'), ('ప', '|'), ('గ', '|'), ('వి', '|'), ('తా', 'U'), ('ని', 'U'), ('ర్మా', 'U'), ('ణ', '|'), ('శ', 'U'), ('క్తి', 'U'), ('న్ని', '|'), ('నుం', 'U'), ('బ్రీ', 'U'), ('తుం', 'U'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('ను', '|'), ('నీ', 'U'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('దం', 'U'), ('డ్రిం', 'U'), ('జం', 'U'), ('ప', '|'), ('గా', 'U'), ('జా', 'U'), ('ల', '|'), ('నా', 'U'), ('చే', 'U'), ('త', '|'), ('న్రో', 'U'), ('క', '|'), ('ట', '|'), ('ని', 'U'), ('న్ను', '|'), ('మొ', 'U'), ('త్త', '|'), ('వె', '|'), ('ఱ', '|'), ('తుం', 'U'), ('జీ', 'U'), ('కా', 'U'), ('కు', '|'), ('నా', 'U'), ('భ', 'U'), ('క్తి', '|'), ('యే', 'U'), ('రీ', 'U'), ('తి', 'U'), ('న్నా', 'U'), ('కి', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లు', '|'), ('గున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నీ', 'U'), ('తో', 'U'), ('యు', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('జే', 'U'), ('య', '|'), ('నో', 'U'), ('ప', '|'), ('గ', '|'), ('వి', '|'), ('తా', 'U'), ('ని', 'U'), ('ర్మా', 'U'), ('ణ', '|'), ('శ', 'U'), ('క్తి', 'U'), ('న్ని', '|'), ('నుం', 'U'), ('బ్రీ', 'U'), ('తుం', 'U'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('ను', '|'), ('నీ', 'U'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('దం', 'U'), ('డ్రిం', 'U'), ('జం', 'U'), ('ప', '|'), ('గా', 'U'), ('జా', 'U'), ('ల', '|'), ('నా', 'U'), ('చే', 'U'), ('త', '|'), ('న్రో', 'U'), ('క', '|'), ('ట', '|'), ('ని', 'U'), ('న్ను', '|'), ('మొ', 'U'), ('త్త', '|'), ('వె', '|'), ('ఱ', '|'), ('తుం', 'U'), ('జీ', 'U'), ('కా', 'U'), ('కు', '|'), ('నా', 'U'), ('భ', 'U'), ('క్తి', '|'), ('యే', 'U'), ('రీ', 'U'), ('తి', 'U'), ('న్నా', 'U'), ('కి', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లు', '|'), ('గు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('ని', 'U'), ('ప్పై', 'U'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('తూ', 'U'), ('ల', '|'), ('శై', 'U'), ('ల', '|'), ('మ', '|'), ('డ', '|'), ('చు', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', 'U'), ('న్మా', 'U'), ('న', '|'), ('వుల్', 'U'), ('త', 'U'), ('ప్పన్', 'U'), ('ద', 'U'), ('వ్వు', '|'), ('ల', '|'), ('వి', 'U'), ('న్న', '|'), ('నం', 'U'), ('త', '|'), ('క', '|'), ('భు', '|'), ('జా', 'U'), ('ద', 'U'), ('ర్పో', 'U'), ('ద్ధ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శ', '|'), ('ముల్', 'U'), ('త', 'U'), ('ప్పుం', 'U'), ('దా', 'U'), ('రు', '|'), ('ను', '|'), ('ము', 'U'), ('క్తు', '|'), ('లౌ', 'U'), ('దు', '|'), ('ర', '|'), ('ని', '|'), ('శా', 'U'), ('స్త్రం', 'U'), ('బు', 'U'), ('ల్మ', '|'), ('హా', 'U'), ('పం', 'U'), ('డి', '|'), ('తుల్', 'U'), ('చె', 'U'), ('ప్పం', 'U'), ('గా', 'U'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('క', '|'), ('శం', 'U'), ('క', '|'), ('వ', '|'), ('లె', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ని', 'U'), ('ప్పై', 'U'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('తూ', 'U'), ('ల', '|'), ('శై', 'U'), ('ల', '|'), ('మ', '|'), ('డ', '|'), ('చు', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', 'U'), ('న్మా', 'U'), ('న', '|'), ('వుల్', 'U'), ('త', 'U'), ('ప్ప', 'U'), ('న్ద', 'U'), ('వ్వు', '|'), ('ల', '|'), ('వి', 'U'), ('న్న', '|'), ('నం', 'U'), ('త', '|'), ('క', '|'), ('భు', '|'), ('జా', 'U'), ('ద', 'U'), ('ర్పో', 'U'), ('ద్ధ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శ', '|'), ('ముల్', 'U'), ('త', 'U'), ('ప్పుం', 'U'), ('దా', 'U'), ('రు', '|'), ('ను', '|'), ('ము', 'U'), ('క్తు', '|'), ('లౌ', 'U'), ('దు', '|'), ('ర', '|'), ('ని', '|'), ('శా', 'U'), ('స్త్రం', 'U'), ('బు', 'U'), ('ల్మ', '|'), ('హా', 'U'), ('పం', 'U'), ('డి', '|'), ('తుల్', 'U'), ('చె', 'U'), ('ప్పం', 'U'), ('గా', 'U'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('క', '|'), ('శం', 'U'), ('క', '|'), ('వ', '|'), ('లె', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('వీ', 'U'), ('డెం', 'U'), ('బ', 'U'), ('బ్బి', '|'), ('న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('తు', 'U'), ('ల్వి', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('బొ', 'U'), ('ట్ట', '|'), ('లో', 'U'), ('గూ', 'U'), ('డు', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('శ్రీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('పై', 'U'), ('కొ', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('గా', 'U'), ('య', '|'), ('కుల్', 'U'), ('పా', 'U'), ('డం', 'U'), ('గా', 'U'), ('వి', '|'), ('ను', '|'), ('న', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('జె', '|'), ('ల', '|'), ('గు', '|'), ('దం', 'U'), ('భ', '|'), ('ప్రా', 'U'), ('య', '|'), ('వి', '|'), ('శ్రా', 'U'), ('ణ', '|'), ('న', '|'), ('క్రీ', 'U'), ('డా', 'U'), ('స', 'U'), ('క్తు', '|'), ('ల', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', '|'), ('లె', '|'), ('నో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('వీ', 'U'), ('డెం', 'U'), ('బ', 'U'), ('బ్బి', '|'), ('న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('తు', 'U'), ('ల్వి', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('బొ', 'U'), ('ట్ట', '|'), ('లో', 'U'), ('గూ', 'U'), ('డు', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('శ్రీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('పై', 'U'), ('కొ', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('గా', 'U'), ('య', '|'), ('కుల్', 'U'), ('పా', 'U'), ('డం', 'U'), ('గా', 'U'), ('వి', '|'), ('ను', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్జె', '|'), ('ల', '|'), ('గు', '|'), ('దం', 'U'), ('భ', '|'), ('ప్రా', 'U'), ('య', '|'), ('వి', '|'), ('శ్రా', 'U'), ('ణ', '|'), ('న', '|'), ('క్రీ', 'U'), ('డా', 'U'), ('స', 'U'), ('క్తు', '|'), ('ల', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', '|'), ('లె', '|'), ('నో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('గ', '|'), ('నా', 'U'), ('ప', '|'), ('ద', 'U'), ('ల్పొ', '|'), ('డ', '|'), ('మ', '|'), ('నీ', 'U'), ('ని', 'U'), ('త్యో', 'U'), ('త్స', '|'), ('వం', 'U'), ('బ', 'U'), ('బ్బ', '|'), ('నీ', 'U'), ('జ', '|'), ('న', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('న', '|'), ('నీ', 'U'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డ', '|'), ('న', '|'), ('నీ', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('పై', 'U'), ('కొ', '|'), ('న', '|'), ('నీ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('నీ', 'U'), ('గ్ర', '|'), ('హ', '|'), ('గ', '|'), ('తుల్', 'U'), ('గుం', 'U'), ('దిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('మే', 'U'), ('లు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('రా', 'U'), ('నీ', 'U'), ('య', '|'), ('వి', '|'), ('నా', 'U'), ('కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('గ', '|'), ('నా', 'U'), ('ప', '|'), ('ద', 'U'), ('ల్పొ', '|'), ('డ', '|'), ('మ', '|'), ('నీ', 'U'), ('ని', 'U'), ('త్యో', 'U'), ('త్స', '|'), ('వం', 'U'), ('బ', 'U'), ('బ్బ', '|'), ('నీ', 'U'), ('జ', '|'), ('న', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('న', '|'), ('నీ', 'U'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డ', '|'), ('న', '|'), ('నీ', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('పై', 'U'), ('కొ', '|'), ('న', '|'), ('నీ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('నీ', 'U'), ('గ్ర', '|'), ('హ', '|'), ('గ', '|'), ('తు', 'U'), ('ల్గుం', 'U'), ('దిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('మే', 'U'), ('లు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('రా', 'U'), ('నీ', 'U'), ('య', '|'), ('వి', '|'), ('నా', 'U'), ('కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('వే', 'U'), ('దం', 'U'), ('బు', '|'), ('బ', '|'), ('ఠిం', 'U'), ('చె', '|'), ('లూ', 'U'), ('త', '|'), ('భు', '|'), ('జ', '|'), ('గం', 'U'), ('బే', 'U'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', 'U'), ('ల్చూ', 'U'), ('చె', '|'), ('దా', 'U'), ('నే', 'U'), ('వి', 'U'), ('ద్యా', 'U'), ('భ్య', '|'), ('స', '|'), ('నం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('గ', '|'), ('రి', '|'), ('చెం', 'U'), ('చే', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మూ', 'U'), ('హిం', 'U'), ('చె', '|'), ('బో', 'U'), ('ధా', 'U'), ('వి', 'U'), ('ర్భా', 'U'), ('వ', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('ముల్', 'U'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('ల', 'U'), ('య్యా', 'U'), ('కా', 'U'), ('వు', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', '|'), ('సం', 'U'), ('సే', 'U'), ('వా', 'U'), ('స', 'U'), ('క్తి', '|'), ('యె', '|'), ('కా', 'U'), ('క', '|'), ('జం', 'U'), ('తు', '|'), ('త', '|'), ('తి', '|'), ('కిన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఏ', 'U'), ('వే', 'U'), ('దం', 'U'), ('బు', '|'), ('బ', '|'), ('ఠిం', 'U'), ('చె', '|'), ('లూ', 'U'), ('త', '|'), ('భు', '|'), ('జ', '|'), ('గం', 'U'), ('బే', 'U'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', 'U'), ('ల్చూ', 'U'), ('చె', '|'), ('దా', 'U'), ('నే', 'U'), ('వి', 'U'), ('ద్యా', 'U'), ('భ్య', '|'), ('స', '|'), ('నం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('గ', '|'), ('రి', '|'), ('చెం', 'U'), ('చే', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మూ', 'U'), ('హిం', 'U'), ('చె', '|'), ('బో', 'U'), ('ధా', 'U'), ('వి', 'U'), ('ర్భా', 'U'), ('వ', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('ము', 'U'), ('ల్చ', '|'), ('దు', '|'), ('వు', '|'), ('ల', 'U'), ('య్యా', 'U'), ('కా', 'U'), ('వు', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', '|'), ('సం', 'U'), ('సే', 'U'), ('వా', 'U'), ('స', 'U'), ('క్తి', '|'), ('యె', '|'), ('కా', 'U'), ('క', '|'), ('జం', 'U'), ('తు', '|'), ('త', '|'), ('తి', '|'), ('కి', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('య', 'U'), ('ల్గా', 'U'), ('చె', '|'), ('వ', '|'), ('ధూ', 'U'), ('న', '|'), ('ఖా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('గా', 'U'), ('యం', 'U'), ('బు', '|'), ('వ', 'U'), ('క్షో', 'U'), ('జ', '|'), ('ముల్', 'U'), ('రా', 'U'), ('యన్', 'U'), ('రా', 'U'), ('ప', '|'), ('డె', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('మ', 'U'), ('న్మ', '|'), ('థ', '|'), ('వి', '|'), ('హా', 'U'), ('ర', 'U'), ('క్లే', 'U'), ('శ', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('చే', 'U'), ('బ్రా', 'U'), ('యం', 'U'), ('బా', 'U'), ('యె', '|'), ('ను', '|'), ('బ', 'U'), ('ట్ట', '|'), ('గ', 'U'), ('ట్టె', '|'), ('ద', '|'), ('ల', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న్రో', 'U'), ('త', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మే', 'U'), ('జే', 'U'), ('యం', 'U'), ('జా', 'U'), ('ల', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('కా', 'U'), ('య', 'U'), ('ల్గా', 'U'), ('చె', '|'), ('వ', '|'), ('ధూ', 'U'), ('న', '|'), ('ఖా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('గా', 'U'), ('యం', 'U'), ('బు', '|'), ('వ', 'U'), ('క్షో', 'U'), ('జ', '|'), ('ముల్', 'U'), ('రా', 'U'), ('య', '|'), ('న్రా', 'U'), ('ప', '|'), ('డె', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('మ', 'U'), ('న్మ', '|'), ('థ', '|'), ('వి', '|'), ('హా', 'U'), ('ర', 'U'), ('క్లే', 'U'), ('శ', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('చే', 'U'), ('బ్రా', 'U'), ('యం', 'U'), ('బా', 'U'), ('యె', '|'), ('ను', '|'), ('బ', 'U'), ('ట్ట', '|'), ('గ', 'U'), ('ట్టె', '|'), ('ద', '|'), ('ల', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న్రో', 'U'), ('త', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మే', 'U'), ('జే', 'U'), ('యం', 'U'), ('జా', 'U'), ('ల', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('ఱా', 'U'), ('లన్', 'U'), ('ఱు', 'U'), ('వ్వ', '|'), ('గ', '|'), ('జే', 'U'), ('తు', '|'), ('లా', 'U'), ('డ', '|'), ('వు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U'), ('ర', 'U'), ('మ్ము', '|'), ('ర', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('నే', 'U'), ('జా', 'U'), ('లన్', 'U'), ('జం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('త్ర', '|'), ('ము', 'U'), ('ల్ది', '|'), ('వి', '|'), ('య', '|'), ('గా', 'U'), ('శ', 'U'), ('క్తుం', 'U'), ('డ', '|'), ('నే', 'U'), ('గా', 'U'), ('ను', '|'), ('నా', 'U'), ('శీ', 'U'), ('లం', 'U'), ('బే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('క', '|'), ('నీ', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మో', 'U'), ('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ప', '|'), ('తి', '|'), ('సే', 'U'), ('వి', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('యు', '|'), ('గ', '|'), ('ళా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఱా', 'U'), ('ల', 'U'), ('న్ఱు', 'U'), ('వ్వ', '|'), ('గ', '|'), ('జే', 'U'), ('తు', '|'), ('లా', 'U'), ('డ', '|'), ('వు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U'), ('ర', 'U'), ('మ్ము', '|'), ('ర', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('నే', 'U'), ('జా', 'U'), ('ల', 'U'), ('న్జం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('త్ర', '|'), ('ము', 'U'), ('ల్ది', '|'), ('వి', '|'), ('య', '|'), ('గా', 'U'), ('శ', 'U'), ('క్తుం', 'U'), ('డ', '|'), ('నే', 'U'), ('గా', 'U'), ('ను', '|'), ('నా', 'U'), ('శీ', 'U'), ('లం', 'U'), ('బే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('క', '|'), ('నీ', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మో', 'U'), ('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ప', '|'), ('తి', '|'), ('సే', 'U'), ('వి', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('యు', '|'), ('గ', '|'), ('ళా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('రా', 'U'), ('జు', 'U'), ('ల్మ', 'U'), ('త్తు', '|'), ('లు', '|'), ('వా', 'U'), ('రి', '|'), ('సే', 'U'), ('వ', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('ప్రా', 'U'), ('యం', 'U'), ('బు', '|'), ('వా', 'U'), ('రి', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('భో', 'U'), ('జా', 'U'), ('క్షీ', 'U'), ('చ', '|'), ('తు', '|'), ('రం', 'U'), ('త', '|'), ('యా', 'U'), ('న', '|'), ('తు', '|'), ('ర', '|'), ('గీ', 'U'), ('భూ', 'U'), ('షా', 'U'), ('దు', '|'), ('లా', 'U'), ('త్మ', 'U'), ('వ్య', '|'), ('థా', 'U'), ('బీ', 'U'), ('జం', 'U'), ('బు', 'U'), ('ల్త', '|'), ('ద', '|'), ('పే', 'U'), ('క్ష', '|'), ('చా', 'U'), ('లు', '|'), ('బ', '|'), ('రి', '|'), ('తృ', 'U'), ('ప్తిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('తిన్', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('జా', 'U'), ('గ్ర', 'U'), ('త్ప', '|'), ('రి', '|'), ('ణా', 'U'), ('మ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('రా', 'U'), ('జు', 'U'), ('ల్మ', 'U'), ('త్తు', '|'), ('లు', '|'), ('వా', 'U'), ('రి', '|'), ('సే', 'U'), ('వ', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('ప్రా', 'U'), ('యం', 'U'), ('బు', '|'), ('వా', 'U'), ('రి', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('భో', 'U'), ('జా', 'U'), ('క్షీ', 'U'), ('చ', '|'), ('తు', '|'), ('రం', 'U'), ('త', '|'), ('యా', 'U'), ('న', '|'), ('తు', '|'), ('ర', '|'), ('గీ', 'U'), ('భూ', 'U'), ('షా', 'U'), ('దు', '|'), ('లా', 'U'), ('త్మ', 'U'), ('వ్య', '|'), ('థా', 'U'), ('బీ', 'U'), ('జం', 'U'), ('బు', 'U'), ('ల్త', '|'), ('ద', '|'), ('పే', 'U'), ('క్ష', '|'), ('చా', 'U'), ('లు', '|'), ('బ', '|'), ('రి', '|'), ('తృ', 'U'), ('ప్తిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('తి', 'U'), ('న్జ్ఞా', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('జా', 'U'), ('గ్ర', 'U'), ('త్ప', '|'), ('రి', '|'), ('ణా', 'U'), ('మ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('గా', 'U'), ('దు', '|'), ('ద', '|'), ('మొ', '|'), ('దల్', 'U'), ('నే', 'U'), ('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('నున్', 'U'), ('రా', 'U'), ('రా', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('యం', 'U'), ('చు', '|'), ('జె', 'U'), ('ప్ప', '|'), ('వు', '|'), ('వృ', '|'), ('థా', 'U'), ('రం', 'U'), ('భం', 'U'), ('బు', '|'), ('లిం', 'U'), ('కే', 'U'), ('టి', '|'), ('కిన్', 'U'), ('నీ', 'U'), ('ర', 'U'), ('న్ముం', 'U'), ('పు', '|'), ('ము', '|'), ('పా', 'U'), ('ల', '|'), ('ముం', 'U'), ('పు', '|'), ('మి', '|'), ('క', '|'), ('ని', 'U'), ('న్నే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('డం', 'U'), ('జు', '|'), ('మీ', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర్చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('యు', '|'), ('గ', '|'), ('ళా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నీ', 'U'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('గా', 'U'), ('దు', '|'), ('ద', '|'), ('మొ', '|'), ('ద', 'U'), ('ల్నే', 'U'), ('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('నున్', 'U'), ('రా', 'U'), ('రా', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('యం', 'U'), ('చు', '|'), ('జె', 'U'), ('ప్ప', '|'), ('వు', '|'), ('వృ', '|'), ('థా', 'U'), ('రం', 'U'), ('భం', 'U'), ('బు', '|'), ('లిం', 'U'), ('కే', 'U'), ('టి', '|'), ('కిన్', 'U'), ('నీ', 'U'), ('ర', 'U'), ('న్ముం', 'U'), ('పు', '|'), ('ము', '|'), ('పా', 'U'), ('ల', '|'), ('ముం', 'U'), ('పు', '|'), ('మి', '|'), ('క', '|'), ('ని', 'U'), ('న్నే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('డం', 'U'), ('జు', '|'), ('మీ', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర్చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('యు', '|'), ('గ', '|'), ('ళా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('రా', 'U'), ('జ', 'U'), ('ర్థా', 'U'), ('తు', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('చో', 'U'), ('నె', '|'), ('చ', '|'), ('ట', '|'), ('ధ', 'U'), ('ర్మం', 'U'), ('బుం', 'U'), ('డు', '|'), ('నే', 'U'), ('రీ', 'U'), ('తి', '|'), ('నా', 'U'), ('నా', 'U'), ('జా', 'U'), ('తి', '|'), ('క్రి', '|'), ('య', '|'), ('లే', 'U'), ('ర్ప', '|'), ('డున్', 'U'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('మా', 'U'), ('న్య', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కె', 'U'), ('ట్ల', 'U'), ('బ్బు', '|'), ('రూ', 'U'), ('పా', 'U'), ('జీ', 'U'), ('వా', 'U'), ('ళి', '|'), ('కి', '|'), ('నే', 'U'), ('ది', '|'), ('ది', 'U'), ('క్కు', '|'), ('ధృ', '|'), ('తి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తుల్', 'U'), ('భ', '|'), ('వ', 'U'), ('త్పా', 'U'), ('ద', '|'), ('నీ', 'U'), ('రే', 'U'), ('జం', 'U'), ('బుల్', 'U'), ('భ', '|'), ('జి', '|'), ('యిం', 'U'), ('తు', '|'), ('రే', 'U'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('నన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('రా', 'U'), ('జ', 'U'), ('ర్థా', 'U'), ('తు', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('చో', 'U'), ('నె', '|'), ('చ', '|'), ('ట', '|'), ('ధ', 'U'), ('ర్మం', 'U'), ('బుం', 'U'), ('డు', '|'), ('నే', 'U'), ('రీ', 'U'), ('తి', '|'), ('నా', 'U'), ('నా', 'U'), ('జా', 'U'), ('తి', '|'), ('క్రి', '|'), ('య', '|'), ('లే', 'U'), ('ర్ప', '|'), ('డు', 'U'), ('న్సు', '|'), ('ఖ', '|'), ('ము', '|'), ('మా', 'U'), ('న్య', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కె', 'U'), ('ట్ల', 'U'), ('బ్బు', '|'), ('రూ', 'U'), ('పా', 'U'), ('జీ', 'U'), ('వా', 'U'), ('ళి', '|'), ('కి', '|'), ('నే', 'U'), ('ది', '|'), ('ది', 'U'), ('క్కు', '|'), ('ధృ', '|'), ('తి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తు', 'U'), ('ల్భ', '|'), ('వ', 'U'), ('త్పా', 'U'), ('ద', '|'), ('నీ', 'U'), ('రే', 'U'), ('జం', 'U'), ('బు', 'U'), ('ల్భ', '|'), ('జి', '|'), ('యిం', 'U'), ('తు', '|'), ('రే', 'U'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('న', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ర', '|'), ('గల్', 'U'), ('పి', 'U'), ('ప్ప', '|'), ('ల', '|'), ('ప', 'U'), ('త్త్ర', '|'), ('ముల్', 'U'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('ట', 'U'), ('ద్దం', 'U'), ('బుల్', 'U'), ('మ', '|'), ('రు', 'U'), ('ద్దీ', 'U'), ('ప', '|'), ('ము', 'U'), ('ల్క', '|'), ('రి', '|'), ('క', 'U'), ('ర్ణాం', 'U'), ('త', '|'), ('ము', '|'), ('లెం', 'U'), ('డ', '|'), ('మా', 'U'), ('వు', '|'), ('ల', '|'), ('త', '|'), ('తుల్', 'U'), ('ఖ', 'U'), ('ద్యో', 'U'), ('త', '|'), ('కీ', 'U'), ('ట', '|'), ('ప్ర', '|'), ('భల్', 'U'), ('సు', '|'), ('ర', '|'), ('వీ', 'U'), ('థీ', 'U'), ('లి', '|'), ('ఖి', '|'), ('తా', 'U'), ('క్ష', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('సు', '|'), ('వుల్', 'U'), ('జ్యో', 'U'), ('త్స్నా', 'U'), ('ప', '|'), ('యః', 'U'), ('పిం', 'U'), ('డ', '|'), ('ముల్', 'U'), ('సి', '|'), ('రు', '|'), ('లం', 'U'), ('దే', 'U'), ('ల', '|'), ('మ', '|'), ('దాం', 'U'), ('ధు', '|'), ('లౌ', 'U'), ('దు', '|'), ('రు', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('త', '|'), ('ర', '|'), ('గ', 'U'), ('ల్పి', 'U'), ('ప్ప', '|'), ('ల', '|'), ('ప', 'U'), ('త్త్ర', '|'), ('ము', 'U'), ('ల్మె', '|'), ('ఱు', '|'), ('గు', '|'), ('ట', 'U'), ('ద్దం', 'U'), ('బు', 'U'), ('ల్మ', '|'), ('రు', 'U'), ('ద్దీ', 'U'), ('ప', '|'), ('ముల్', 'U'), ('క', '|'), ('రి', '|'), ('క', 'U'), ('ర్ణాం', 'U'), ('త', '|'), ('ము', '|'), ('లెం', 'U'), ('డ', '|'), ('మా', 'U'), ('వు', '|'), ('ల', '|'), ('త', '|'), ('తు', 'U'), ('ల్ఖ', 'U'), ('ద్యో', 'U'), ('త', '|'), ('కీ', 'U'), ('ట', '|'), ('ప్ర', '|'), ('భల్', 'U'), ('సు', '|'), ('ర', '|'), ('వీ', 'U'), ('థీ', 'U'), ('లి', '|'), ('ఖి', '|'), ('తా', 'U'), ('క్ష', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('సు', '|'), ('వు', 'U'), ('ల్జ్యో', 'U'), ('త్స్నా', 'U'), ('ప', '|'), ('యః', 'U'), ('పిం', 'U'), ('డ', '|'), ('ముల్', 'U'), ('సి', '|'), ('రు', '|'), ('లం', 'U'), ('దే', 'U'), ('ల', '|'), ('మ', '|'), ('దాం', 'U'), ('ధు', '|'), ('లౌ', 'U'), ('దు', '|'), ('రు', '|'), ('జ', '|'), ('ను', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('పే', 'U'), ('రున్', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('భ', '|'), ('వ', 'U'), ('న్ని', 'U'), ('ష్ఠ్యూ', 'U'), ('త', '|'), ('తాం', 'U'), ('బూ', 'U'), ('ల', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('ప', 'U'), ('ళ్ళెం', 'U'), ('బు', '|'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('ముం', 'U'), ('గొ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('నే', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('డై', 'U'), ('నా', 'U'), ('డ', '|'), ('న', 'U'), ('న్నీ', 'U'), ('పా', 'U'), ('టిం', 'U'), ('గ', '|'), ('రు', '|'), ('ణిం', 'U'), ('పు', '|'), ('మో', 'U'), ('ప', '|'), ('ని', '|'), ('క', '|'), ('నే', 'U'), ('నె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('గాన్', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టం', 'U'), ('ద', '|'), ('గు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మా', 'U'), ('న', '|'), ('ద', '|'), ('గ', '|'), ('దో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నీ', 'U'), ('పే', 'U'), ('రు', 'U'), ('న్భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('భ', '|'), ('వ', 'U'), ('న్ని', 'U'), ('ష్ఠ్యూ', 'U'), ('త', '|'), ('తాం', 'U'), ('బూ', 'U'), ('ల', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('ప', 'U'), ('ళ్ళెం', 'U'), ('బు', '|'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('ముం', 'U'), ('గొ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('నే', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('డై', 'U'), ('నా', 'U'), ('డ', '|'), ('న', 'U'), ('న్నీ', 'U'), ('పా', 'U'), ('టిం', 'U'), ('గ', '|'), ('రు', '|'), ('ణిం', 'U'), ('పు', '|'), ('మో', 'U'), ('ప', '|'), ('ని', '|'), ('క', '|'), ('నే', 'U'), ('నె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('గాన్', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టం', 'U'), ('ద', '|'), ('గు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మా', 'U'), ('న', '|'), ('ద', '|'), ('గ', '|'), ('దో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('మ్మా', 'U'), ('య', 'U'), ('య్య', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('ని', '|'), ('నే', 'U'), ('న', 'U'), ('న్న', 'U'), ('న్శి', '|'), ('వా', 'U'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('సు', 'U'), ('మ్మీ', 'U'), ('నీ', 'U'), ('మ', '|'), ('ది', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('న', '|'), ('టం', 'U'), ('చు', 'U'), ('న్జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('బో', 'U'), ('కు', '|'), ('నా', 'U'), ('కి', 'U'), ('మ్మై', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('యు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('యున్', 'U'), ('గు', '|'), ('రు', '|'), ('డు', '|'), ('నీ', 'U'), ('వే', 'U'), ('కా', 'U'), ('న', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('పుం', 'U'), ('జి', 'U'), ('మ్మం', 'U'), ('జీ', 'U'), ('క', '|'), ('టి', '|'), ('గ', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('గ', '|'), ('డు', '|'), ('పు', '|'), ('నన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', 'U'), ('మ్మా', 'U'), ('య', 'U'), ('య్య', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('ని', '|'), ('నే', 'U'), ('న', 'U'), ('న్న', 'U'), ('న్శి', '|'), ('వా', 'U'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('సు', 'U'), ('మ్మీ', 'U'), ('నీ', 'U'), ('మ', '|'), ('ది', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('న', '|'), ('టం', 'U'), ('చు', 'U'), ('న్జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('బో', 'U'), ('కు', '|'), ('నా', 'U'), ('కి', 'U'), ('మ్మై', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('యు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('యు', 'U'), ('న్గు', '|'), ('రు', '|'), ('డు', '|'), ('నీ', 'U'), ('వే', 'U'), ('కా', 'U'), ('న', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('పుం', 'U'), ('జి', 'U'), ('మ్మం', 'U'), ('జీ', 'U'), ('క', '|'), ('టి', '|'), ('గ', 'U'), ('ప్పి', '|'), ('న', 'U'), ('న్గ', '|'), ('డు', '|'), ('పు', '|'), ('న', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('డు', '|'), ('కుల్', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('ర', '|'), ('టం', 'U'), ('చు', '|'), ('నే', 'U'), ('డ్తు', '|'), ('ర', '|'), ('వి', '|'), ('వే', 'U'), ('కు', 'U'), ('ల్జీ', 'U'), ('వ', '|'), ('న', '|'), ('భ్రాం', 'U'), ('తు', '|'), ('లై', 'U'), ('కొ', '|'), ('డు', '|'), ('కుల్', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('రె', '|'), ('కౌ', 'U'), ('ర', '|'), ('వేం', 'U'), ('ద్రు', '|'), ('న', '|'), ('క', '|'), ('నే', 'U'), ('కుల్', 'U'), ('వా', 'U'), ('రి', '|'), ('చే', 'U'), ('నే', 'U'), ('గ', '|'), ('తుల్', 'U'), ('వ', '|'), ('డ', '|'), ('సెం', 'U'), ('బు', 'U'), ('త్త్రు', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('యా', 'U'), ('శు', '|'), ('కు', '|'), ('న', '|'), ('కున్', 'U'), ('బా', 'U'), ('టి', 'U'), ('ల్లె', '|'), ('నే', 'U'), ('దు', 'U'), ('ర్గ', '|'), ('తుల్', 'U'), ('చె', '|'), ('డు', '|'), ('నే', 'U'), ('మో', 'U'), ('క్ష', '|'), ('ప', '|'), ('దం', 'U'), ('బ', '|'), ('పు', 'U'), ('త్త్ర', '|'), ('కు', '|'), ('న', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('కొ', '|'), ('డు', '|'), ('కు', 'U'), ('ల్పు', 'U'), ('ట్ట', '|'), ('ర', '|'), ('టం', 'U'), ('చు', '|'), ('నే', 'U'), ('డ్తు', '|'), ('ర', '|'), ('వి', '|'), ('వే', 'U'), ('కు', 'U'), ('ల్జీ', 'U'), ('వ', '|'), ('న', '|'), ('భ్రాం', 'U'), ('తు', '|'), ('లై', 'U'), ('కొ', '|'), ('డు', '|'), ('కు', 'U'), ('ల్పు', 'U'), ('ట్ట', '|'), ('రె', '|'), ('కౌ', 'U'), ('ర', '|'), ('వేం', 'U'), ('ద్రు', '|'), ('న', '|'), ('క', '|'), ('నే', 'U'), ('కు', 'U'), ('ల్వా', 'U'), ('రి', '|'), ('చే', 'U'), ('నే', 'U'), ('గ', '|'), ('తుల్', 'U'), ('వ', '|'), ('డ', '|'), ('సెం', 'U'), ('బు', 'U'), ('త్త్రు', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('యా', 'U'), ('శు', '|'), ('కు', '|'), ('న', '|'), ('కు', 'U'), ('న్బా', 'U'), ('టి', 'U'), ('ల్లె', '|'), ('నే', 'U'), ('దు', 'U'), ('ర్గ', '|'), ('తుల్', 'U'), ('చె', '|'), ('డు', '|'), ('నే', 'U'), ('మో', 'U'), ('క్ష', '|'), ('ప', '|'), ('దం', 'U'), ('బ', '|'), ('పు', 'U'), ('త్త్ర', '|'), ('కు', '|'), ('న', '|'), ('కు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('గ్ర', '|'), ('హ', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('దు', 'U'), ('ర్ని', '|'), ('మి', 'U'), ('త్త', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ప్ర', 'U'), ('త్య', '|'), ('హ', '|'), ('ముం', 'U'), ('బే', 'U'), ('ర్కొ', '|'), ('ను', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('బా', 'U'), ('ధం', 'U'), ('బె', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('నో', 'U'), ('పు', '|'), ('నే', 'U'), ('ద', '|'), ('హ', '|'), ('నుం', 'U'), ('గ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('జా', 'U'), ('లు', '|'), ('నే', 'U'), ('శ', '|'), ('ల', '|'), ('భ', '|'), ('సం', 'U'), ('తా', 'U'), ('నం', 'U'), ('బు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('హ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శు', '|'), ('లు', '|'), ('గా', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('మ', '|'), ('ను', '|'), ('జుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('గ్ర', '|'), ('హ', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('దు', 'U'), ('ర్ని', '|'), ('మి', 'U'), ('త్త', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ప్ర', 'U'), ('త్య', '|'), ('హ', '|'), ('ముం', 'U'), ('బే', 'U'), ('ర్కొ', '|'), ('ను', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('బా', 'U'), ('ధం', 'U'), ('బె', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('నో', 'U'), ('పు', '|'), ('నే', 'U'), ('ద', '|'), ('హ', '|'), ('నుం', 'U'), ('గ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('జా', 'U'), ('లు', '|'), ('నే', 'U'), ('శ', '|'), ('ల', '|'), ('భ', '|'), ('సం', 'U'), ('తా', 'U'), ('నం', 'U'), ('బు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('హ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శు', '|'), ('లు', '|'), ('గా', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('మ', '|'), ('ను', '|'), ('జు', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('డు', '|'), ('గం', 'U'), ('బో', 'U'), ('ని', '|'), ('క', '|'), ('న', 'U'), ('న్య', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ర', '|'), ('తు', '|'), ('లం', 'U'), ('బ్రా', 'U'), ('ణా', 'U'), ('వ', '|'), ('నో', 'U'), ('త్సా', 'U'), ('హి', '|'), ('నై', 'U'), ('య', '|'), ('డు', '|'), ('గం', 'U'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('బో', 'U'), ('దు', '|'), ('నీ', 'U'), ('దు', '|'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('రా', 'U'), ('ధ', '|'), ('క', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('యు', 'U'), ('న్నె', '|'), ('డ', '|'), ('కు', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ని', '|'), ('యు', '|'), ('నా', 'U'), ('కే', 'U'), ('లా', 'U'), ('ప', '|'), ('రా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('కో', 'U'), ('రె', '|'), ('డి', '|'), ('దిం', 'U'), ('కే', 'U'), ('మి', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('మె', '|'), ('త', '|'), ('గున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('డు', '|'), ('గం', 'U'), ('బో', 'U'), ('ని', '|'), ('క', '|'), ('న', 'U'), ('న్య', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ర', '|'), ('తు', '|'), ('లం', 'U'), ('బ్రా', 'U'), ('ణా', 'U'), ('వ', '|'), ('నో', 'U'), ('త్సా', 'U'), ('హి', '|'), ('నై', 'U'), ('య', '|'), ('డు', '|'), ('గం', 'U'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('బో', 'U'), ('దు', '|'), ('నీ', 'U'), ('దు', '|'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('రా', 'U'), ('ధ', '|'), ('క', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('యు', 'U'), ('న్నె', '|'), ('డ', '|'), ('కు', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ని', '|'), ('యు', '|'), ('నా', 'U'), ('కే', 'U'), ('లా', 'U'), ('ప', '|'), ('రా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('కో', 'U'), ('రె', '|'), ('డి', '|'), ('దిం', 'U'), ('కే', 'U'), ('మి', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('మె', '|'), ('త', '|'), ('గు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ద', '|'), ('మా', 'U'), ('తం', 'U'), ('గ', '|'), ('ము', '|'), ('లం', 'U'), ('ద', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('హ', '|'), ('రు', 'U'), ('ల్మా', 'U'), ('ణి', 'U'), ('క్య', '|'), ('ము', 'U'), ('ల్ప', 'U'), ('ల్ల', '|'), ('కు', 'U'), ('ల్ము', '|'), ('ది', '|'), ('త', 'U'), ('ల్చి', '|'), ('త్ర', '|'), ('దు', '|'), ('కూ', 'U'), ('ల', '|'), ('ము', 'U'), ('ల్ప', '|'), ('రి', '|'), ('మ', '|'), ('ళం', 'U'), ('బు', 'U'), ('ల్మో', 'U'), ('క్ష', '|'), ('మీ', 'U'), ('జా', 'U'), ('లు', '|'), ('నే', 'U'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('వీ', 'U'), ('ని', '|'), ('న', '|'), ('పే', 'U'), ('క్ష', '|'), ('సే', 'U'), ('సి', '|'), ('నృ', '|'), ('ప', '|'), ('ధా', 'U'), ('మ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('చి', '|'), ('ది', '|'), ('నం', 'U'), ('బుల్', 'U'), ('వృ', '|'), ('థ', '|'), ('పు', 'U'), ('త్తు', '|'), ('ర', 'U'), ('జ్ఞు', '|'), ('ల', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('ద', '|'), ('మా', 'U'), ('తం', 'U'), ('గ', '|'), ('ము', '|'), ('లం', 'U'), ('ద', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('హ', '|'), ('రు', 'U'), ('ల్మా', 'U'), ('ణి', 'U'), ('క్య', '|'), ('ము', 'U'), ('ల్ప', 'U'), ('ల్ల', '|'), ('కుల్', 'U'), ('ము', '|'), ('ది', '|'), ('త', 'U'), ('ల్చి', '|'), ('త్ర', '|'), ('దు', '|'), ('కూ', 'U'), ('ల', '|'), ('ము', 'U'), ('ల్ప', '|'), ('రి', '|'), ('మ', '|'), ('ళం', 'U'), ('బు', 'U'), ('ల్మో', 'U'), ('క్ష', '|'), ('మీ', 'U'), ('జా', 'U'), ('లు', '|'), ('నే', 'U'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('వీ', 'U'), ('ని', '|'), ('న', '|'), ('పే', 'U'), ('క్ష', '|'), ('సే', 'U'), ('సి', '|'), ('నృ', '|'), ('ప', '|'), ('ధా', 'U'), ('మ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('చి', '|'), ('ది', '|'), ('నం', 'U'), ('బు', 'U'), ('ల్వృ', '|'), ('థ', '|'), ('పు', 'U'), ('త్తు', '|'), ('ర', 'U'), ('జ్ఞు', '|'), ('ల', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('చా', 'U'), ('వం', 'U'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('చే', 'U'), ('రు', '|'), ('వౌ', 'U'), ('టె', '|'), ('ఱి', '|'), ('గి', '|'), ('యుం', 'U'), ('జా', 'U'), ('లిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('త', 'U'), ('న్నే', 'U'), ('వై', 'U'), ('ద్యుం', 'U'), ('డు', '|'), ('చి', '|'), ('కి', 'U'), ('త్స', '|'), ('బ్రో', 'U'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('డో', 'U'), ('యే', 'U'), ('మం', 'U'), ('దు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యే', 'U'), ('వే', 'U'), ('ల్పు', 'U'), ('ల్కృ', '|'), ('ప', '|'), ('జూ', 'U'), ('తు', '|'), ('రో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('ని', 'U'), ('న్నిం', 'U'), ('తై', 'U'), ('న', '|'), ('జిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('డా', 'U'), ('జీ', 'U'), ('వ', 'U'), ('చ్ఛ్రా', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('కొ', 'U'), ('న్న', '|'), ('య', '|'), ('తి', '|'), ('యున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('చా', 'U'), ('వం', 'U'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('చే', 'U'), ('రు', '|'), ('వౌ', 'U'), ('టె', '|'), ('ఱి', '|'), ('గి', '|'), ('యుం', 'U'), ('జా', 'U'), ('లిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('త', 'U'), ('న్నే', 'U'), ('వై', 'U'), ('ద్యుం', 'U'), ('డు', '|'), ('చి', '|'), ('కి', 'U'), ('త్స', '|'), ('బ్రో', 'U'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('డో', 'U'), ('యే', 'U'), ('మం', 'U'), ('దు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యే', 'U'), ('వే', 'U'), ('ల్పు', 'U'), ('ల్కృ', '|'), ('ప', '|'), ('జూ', 'U'), ('తు', '|'), ('రో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('ని', 'U'), ('న్నిం', 'U'), ('తై', 'U'), ('న', '|'), ('జిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('డా', 'U'), ('జీ', 'U'), ('వ', 'U'), ('చ్ఛ్రా', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('కొ', 'U'), ('న్న', '|'), ('య', '|'), ('తి', '|'), ('యు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('ది', '|'), ('న', '|'), ('ముం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('లో', 'U'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ఖ', '|'), ('రీ', 'U'), ('తీ', 'U'), ('ర', '|'), ('ప్ర', '|'), ('దే', 'U'), ('శా', 'U'), ('మ్ర', '|'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('మ', 'U'), ('ధ్యో', 'U'), ('ప', '|'), ('ల', '|'), ('వే', 'U'), ('ది', '|'), ('కా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('బం', 'U'), ('క', '|'), ('జా', 'U'), ('స', '|'), ('న', '|'), ('ని', 'U'), ('ష్ఠ', 'U'), ('న్ని', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', 'U'), ('న్న', '|'), ('న', '|'), ('ది', '|'), ('వో', 'U'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('వి', '|'), ('లా', 'U'), ('సి', '|'), ('ని', '|'), ('మా', 'U'), ('యా', 'U'), ('న', '|'), ('ట', '|'), ('నల్', 'U'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('గు', '|'), ('నే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ది', '|'), ('న', '|'), ('ముం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('లో', 'U'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ఖ', '|'), ('రీ', 'U'), ('తీ', 'U'), ('ర', '|'), ('ప్ర', '|'), ('దే', 'U'), ('శా', 'U'), ('మ్ర', '|'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('మ', 'U'), ('ధ్యో', 'U'), ('ప', '|'), ('ల', '|'), ('వే', 'U'), ('ది', '|'), ('కా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('బం', 'U'), ('క', '|'), ('జా', 'U'), ('స', '|'), ('న', '|'), ('ని', 'U'), ('ష్ఠ', 'U'), ('న్ని', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', 'U'), ('న్న', '|'), ('న', '|'), ('ది', '|'), ('వో', 'U'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('వి', '|'), ('లా', 'U'), ('సి', '|'), ('ని', '|'), ('మా', 'U'), ('యా', 'U'), ('న', '|'), ('ట', '|'), ('న', 'U'), ('ల్సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('గు', '|'), ('నే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('ర', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('ర', '|'), ('మిం', 'U'), ('చి', '|'), ('నం', 'U'), ('జె', '|'), ('డ', '|'), ('దు', '|'), ('మో', 'U'), ('హం', 'U'), ('బిం', 'U'), ('త', '|'), ('యు', 'U'), ('న్బ్ర', 'U'), ('హ్మ', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ము', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('స', '|'), ('దీ', 'U'), ('ఱ', '|'), ('దు', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', '|'), ('క్రో', 'U'), ('ధ', '|'), ('మున్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', 'U'), ('న్మ్రిం', 'U'), ('గి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('దిం', 'U'), ('దు', '|'), ('గ', '|'), ('ల', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బొ', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('వా', 'U'), ('రి', '|'), ('రా', 'U'), ('శి', '|'), ('గ', '|'), ('డ', '|'), ('తున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('ర', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('ర', '|'), ('మిం', 'U'), ('చి', '|'), ('నం', 'U'), ('జె', '|'), ('డ', '|'), ('దు', '|'), ('మో', 'U'), ('హం', 'U'), ('బిం', 'U'), ('త', '|'), ('యు', 'U'), ('న్బ్ర', 'U'), ('హ్మ', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ము', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('స', '|'), ('దీ', 'U'), ('ఱ', '|'), ('దు', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', '|'), ('క్రో', 'U'), ('ధ', '|'), ('ము', 'U'), ('న్స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', 'U'), ('న్మ్రిం', 'U'), ('గి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('దిం', 'U'), ('దు', '|'), ('గ', '|'), ('ల', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బొ', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('వా', 'U'), ('రి', '|'), ('రా', 'U'), ('శి', '|'), ('గ', '|'), ('డ', '|'), ('తు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('వి', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('గ్ని', '|'), ('మం', 'U'), ('చ', '|'), ('గు', '|'), ('న', '|'), ('కూ', 'U'), ('పా', 'U'), ('రం', 'U'), ('బు', '|'), ('భూ', 'U'), ('మి', 'U'), ('స్థ', '|'), ('లం', 'U'), ('బ', '|'), ('వు', '|'), ('శ', '|'), ('త్రుం', 'U'), ('డ', '|'), ('తి', '|'), ('మి', '|'), ('త్రు', '|'), ('డౌ', 'U'), ('వి', '|'), ('ష', '|'), ('ము', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('హా', 'U'), ('ర', '|'), ('మౌ', 'U'), ('నె', 'U'), ('న్న', '|'), ('గా', 'U'), ('న', '|'), ('వ', '|'), ('నీ', 'U'), ('మం', 'U'), ('డ', '|'), ('లి', '|'), ('లో', 'U'), ('ప', '|'), ('లన్', 'U'), ('శి', '|'), ('వ', '|'), ('శి', '|'), ('వే', 'U'), ('త్యా', 'U'), ('భా', 'U'), ('ష', '|'), ('ణో', 'U'), ('ల్లా', 'U'), ('సి', '|'), ('కిన్', 'U'), ('శి', '|'), ('వ', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('స', 'U'), ('ర్వ', '|'), ('వ', 'U'), ('శ్య', '|'), ('క', '|'), ('ర', '|'), ('మౌ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('వి', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('గ్ని', '|'), ('మం', 'U'), ('చ', '|'), ('గు', '|'), ('న', '|'), ('కూ', 'U'), ('పా', 'U'), ('రం', 'U'), ('బు', '|'), ('భూ', 'U'), ('మి', 'U'), ('స్థ', '|'), ('లం', 'U'), ('బ', '|'), ('వు', '|'), ('శ', '|'), ('త్రుం', 'U'), ('డ', '|'), ('తి', '|'), ('మి', '|'), ('త్రు', '|'), ('డౌ', 'U'), ('వి', '|'), ('ష', '|'), ('ము', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('హా', 'U'), ('ర', '|'), ('మౌ', 'U'), ('నె', 'U'), ('న్న', '|'), ('గా', 'U'), ('న', '|'), ('వ', '|'), ('నీ', 'U'), ('మం', 'U'), ('డ', '|'), ('లి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', 'U'), ('న్శి', '|'), ('వ', '|'), ('శి', '|'), ('వే', 'U'), ('త్యా', 'U'), ('భా', 'U'), ('ష', '|'), ('ణో', 'U'), ('ల్లా', 'U'), ('సి', '|'), ('కిన్', 'U'), ('శి', '|'), ('వ', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('స', 'U'), ('ర్వ', '|'), ('వ', 'U'), ('శ్య', '|'), ('క', '|'), ('ర', '|'), ('మౌ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('లే', 'U'), ('వో', 'U'), ('కా', 'U'), ('న', '|'), ('ల', '|'), ('గం', 'U'), ('ద', '|'), ('మూ', 'U'), ('ల', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('లే', 'U'), ('వో', 'U'), ('గు', '|'), ('హల్', 'U'), ('తో', 'U'), ('య', '|'), ('ముల్', 'U'), ('లే', 'U'), ('వో', 'U'), ('యే', 'U'), ('ఱు', '|'), ('ల', '|'), ('బ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('స్త', '|'), ('ర', '|'), ('ణ', '|'), ('ముల్', 'U'), ('లే', 'U'), ('వో', 'U'), ('స', '|'), ('దా', 'U'), ('యా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('లే', 'U'), ('వో', 'U'), ('నీ', 'U'), ('వు', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('ల', 'U'), ('న్మ', '|'), ('ను', '|'), ('ప', '|'), ('జా', 'U'), ('లిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('భూ', 'U'), ('పా', 'U'), ('లు', '|'), ('రన్', 'U'), ('సే', 'U'), ('వ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గ', '|'), ('బో', 'U'), ('దు', '|'), ('రే', 'U'), ('లొ', '|'), ('కొ', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('లే', 'U'), ('వో', 'U'), ('కా', 'U'), ('న', '|'), ('ల', '|'), ('గం', 'U'), ('ద', '|'), ('మూ', 'U'), ('ల', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', 'U'), ('ల్లే', 'U'), ('వో', 'U'), ('గు', '|'), ('హ', 'U'), ('ల్తో', 'U'), ('య', '|'), ('ముల్', 'U'), ('లే', 'U'), ('వో', 'U'), ('యే', 'U'), ('ఱు', '|'), ('ల', '|'), ('బ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('స్త', '|'), ('ర', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్లే', 'U'), ('వో', 'U'), ('స', '|'), ('దా', 'U'), ('యా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('లే', 'U'), ('వో', 'U'), ('నీ', 'U'), ('వు', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('ల', 'U'), ('న్మ', '|'), ('ను', '|'), ('ప', '|'), ('జా', 'U'), ('లిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('భూ', 'U'), ('పా', 'U'), ('లు', '|'), ('రన్', 'U'), ('సే', 'U'), ('వ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గ', '|'), ('బో', 'U'), ('దు', '|'), ('రే', 'U'), ('లొ', '|'), ('కొ', '|'), ('జ', '|'), ('ను', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ల', '|'), ('భూ', 'U'), ('యి', 'U'), ('ష్ఠ', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('ధా', 'U'), ('మ', '|'), ('ము', '|'), ('సు', '|'), ('షు', 'U'), ('మ్నా', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('మో', 'U'), ('యా', 'U'), ('రు', '|'), ('కుం', 'U'), ('డ', '|'), ('లి', '|'), ('యో', 'U'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('రా', 'U'), ('క్షి', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('లు', '|'), ('ష', 'U'), ('ట్కం', 'U'), ('జం', 'U'), ('బు', '|'), ('లో', 'U'), ('మో', 'U'), ('ము', '|'), ('దా', 'U'), ('జ', '|'), ('ల', '|'), ('జం', 'U'), ('బో', 'U'), ('ని', '|'), ('ట', '|'), ('లం', 'U'), ('బు', '|'), ('చం', 'U'), ('ద్ర', '|'), ('క', '|'), ('ళ', '|'), ('యో', 'U'), ('సం', 'U'), ('గం', 'U'), ('బు', '|'), ('యో', 'U'), ('గం', 'U'), ('బొ', '|'), ('గా', 'U'), ('సి', '|'), ('లి', '|'), ('సే', 'U'), ('విం', 'U'), ('తు', '|'), ('రు', '|'), ('కాం', 'U'), ('త', '|'), ('లన్', 'U'), ('భు', '|'), ('వి', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('మ', '|'), ('ల', '|'), ('భూ', 'U'), ('యి', 'U'), ('ష్ఠ', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('ధా', 'U'), ('మ', '|'), ('ము', '|'), ('సు', '|'), ('షు', 'U'), ('మ్నా', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('మో', 'U'), ('యా', 'U'), ('రు', '|'), ('కుం', 'U'), ('డ', '|'), ('లి', '|'), ('యో', 'U'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('రా', 'U'), ('క్షి', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('లు', '|'), ('ష', 'U'), ('ట్కం', 'U'), ('జం', 'U'), ('బు', '|'), ('లో', 'U'), ('మో', 'U'), ('ము', '|'), ('దా', 'U'), ('జ', '|'), ('ల', '|'), ('జం', 'U'), ('బో', 'U'), ('ని', '|'), ('ట', '|'), ('లం', 'U'), ('బు', '|'), ('చం', 'U'), ('ద్ర', '|'), ('క', '|'), ('ళ', '|'), ('యో', 'U'), ('సం', 'U'), ('గం', 'U'), ('బు', '|'), ('యో', 'U'), ('గం', 'U'), ('బొ', '|'), ('గా', 'U'), ('సి', '|'), ('లి', '|'), ('సే', 'U'), ('విం', 'U'), ('తు', '|'), ('రు', '|'), ('కాం', 'U'), ('త', '|'), ('ల', 'U'), ('న్భు', '|'), ('వి', '|'), ('జ', '|'), ('ను', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('ల్ర', '|'), ('స', '|'), ('ము', 'U'), ('ల్ప్ర', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('వా', 'U'), ('చా', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్వా', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్క', '|'), ('ల', '|'), ('శ', 'U'), ('బ్ద', 'U'), ('ధ్వ', '|'), ('ను', '|'), ('లం', 'U'), ('చి', '|'), ('తాం', 'U'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('లం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('దీ', 'U'), ('ప్తు', 'U'), ('ల్మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('లు', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ము', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('గా', 'U'), ('గొ', 'U'), ('ల్తు', 'U'), ('న్ని', '|'), ('నున్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('రం', 'U'), ('జి', '|'), ('ల', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('ర్చ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('క్రి', '|'), ('యన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('ల్ర', '|'), ('స', '|'), ('ము', 'U'), ('ల్ప్ర', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('వా', 'U'), ('చా', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్వా', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్క', '|'), ('ల', '|'), ('శ', 'U'), ('బ్ద', 'U'), ('ధ్వ', '|'), ('ను', '|'), ('లం', 'U'), ('చి', '|'), ('తాం', 'U'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('లం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('దీ', 'U'), ('ప్తు', 'U'), ('ల్మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('లు', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ము', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('గా', 'U'), ('గొ', 'U'), ('ల్తు', 'U'), ('న్ని', '|'), ('ను', 'U'), ('న్భ', 'U'), ('క్తి', '|'), ('రం', 'U'), ('జి', '|'), ('ల', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('ర్చ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('క్రి', '|'), ('య', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('లీ', 'U'), ('ల', 'U'), ('న్ను', '|'), ('తి', '|'), ('యిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('ప', '|'), ('మో', 'U'), ('త్ప్రే', 'U'), ('క్షా', 'U'), ('ధ్వ', '|'), ('ని', 'U'), ('వ్యం', 'U'), ('గ్య', '|'), ('శ', 'U'), ('బ్దా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('భా', 'U'), ('ష', '|'), ('ల', '|'), ('క', '|'), ('ల', 'U'), ('భ్యం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('రూ', 'U'), ('ప', '|'), ('ముం', 'U'), ('జా', 'U'), ('లుం', 'U'), ('జా', 'U'), ('లు', '|'), ('గ', '|'), ('వి', 'U'), ('త్వ', '|'), ('ము', 'U'), ('న్ని', '|'), ('లు', '|'), ('చు', '|'), ('నే', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చు', '|'), ('చో', 'U'), ('చీ', 'U'), ('ల', 'U'), ('జ్జిం', 'U'), ('ప', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('మా', 'U'), ('దృ', '|'), ('శ', '|'), ('క', '|'), ('వుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఏ', 'U'), ('లీ', 'U'), ('ల', 'U'), ('న్ను', '|'), ('తి', '|'), ('యిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('ప', '|'), ('మో', 'U'), ('త్ప్రే', 'U'), ('క్షా', 'U'), ('ధ్వ', '|'), ('ని', 'U'), ('వ్యం', 'U'), ('గ్య', '|'), ('శ', 'U'), ('బ్దా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('భా', 'U'), ('ష', '|'), ('ల', '|'), ('క', '|'), ('ల', 'U'), ('భ్యం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('రూ', 'U'), ('ప', '|'), ('ముం', 'U'), ('జా', 'U'), ('లుం', 'U'), ('జా', 'U'), ('లు', '|'), ('గ', '|'), ('వి', 'U'), ('త్వ', '|'), ('ము', 'U'), ('న్ని', '|'), ('లు', '|'), ('చు', '|'), ('నే', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చు', '|'), ('చో', 'U'), ('చీ', 'U'), ('ల', 'U'), ('జ్జిం', 'U'), ('ప', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('మా', 'U'), ('దృ', '|'), ('శ', '|'), ('క', '|'), ('వు', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ల', '|'), ('లం', 'U'), ('చు', 'U'), ('న్శ', '|'), ('కు', '|'), ('నం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', '|'), ('గ్ర', '|'), ('హ', '|'), ('యో', 'U'), ('గం', 'U'), ('బం', 'U'), ('చు', '|'), ('సా', 'U'), ('ము', '|'), ('ద్రి', '|'), ('కం', 'U'), ('బు', '|'), ('ల', '|'), ('టం', 'U'), ('చుం', 'U'), ('దె', '|'), ('వు', '|'), ('లం', 'U'), ('చు', '|'), ('ది', 'U'), ('ష్టి', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', 'U'), ('న్వి', '|'), ('షా', 'U'), ('దు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', 'U'), ('న్ని', '|'), ('మి', '|'), ('షా', 'U'), ('ర్ధ', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('లం', 'U'), ('దుం', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('బు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('యీ', 'U'), ('సి', '|'), ('లు', '|'), ('గుల్', 'U'), ('ప్రా', 'U'), ('ణు', '|'), ('ల', '|'), ('కె', 'U'), ('న్ని', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('వ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క', '|'), ('ల', '|'), ('లం', 'U'), ('చు', 'U'), ('న్శ', '|'), ('కు', '|'), ('నం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', '|'), ('గ్ర', '|'), ('హ', '|'), ('యో', 'U'), ('గం', 'U'), ('బం', 'U'), ('చు', '|'), ('సా', 'U'), ('ము', '|'), ('ద్రి', '|'), ('కం', 'U'), ('బు', '|'), ('ల', '|'), ('టం', 'U'), ('చుం', 'U'), ('దె', '|'), ('వు', '|'), ('లం', 'U'), ('చు', '|'), ('ది', 'U'), ('ష్టి', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', 'U'), ('న్వి', '|'), ('షా', 'U'), ('దు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', 'U'), ('న్ని', '|'), ('మి', '|'), ('షా', 'U'), ('ర్ధ', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('లం', 'U'), ('దుం', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('బు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('యీ', 'U'), ('సి', '|'), ('లు', '|'), ('గు', 'U'), ('ల్ప్రా', 'U'), ('ణు', '|'), ('ల', '|'), ('కె', 'U'), ('న్ని', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('వ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('లుం', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('లు', '|'), ('మి', '|'), ('త్రు', '|'), ('లున్', 'U'), ('హి', '|'), ('తు', '|'), ('లు', '|'), ('ని', 'U'), ('శ్టా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లీ', 'U'), ('నే', 'U'), ('ర్తు', '|'), ('రే', 'U'), ('వే', 'U'), ('ళ', 'U'), ('న్వా', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('జా', 'U'), ('లి', '|'), ('ప', '|'), ('డ', '|'), ('కా', 'U'), ('వి', 'U'), ('ర్భూ', 'U'), ('త', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('గా', 'U'), ('లం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కు', '|'), ('ని', '|'), ('క', '|'), ('భ', 'U'), ('క్త', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('కే', 'U'), ('శ్రీ', 'U'), ('లె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కి', '|'), ('గూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టె', '|'), ('ద', '|'), ('వ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఆ', 'U'), ('లుం', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('లు', '|'), ('మి', '|'), ('త్రు', '|'), ('లు', 'U'), ('న్హి', '|'), ('తు', '|'), ('లు', '|'), ('ని', 'U'), ('శ్టా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లీ', 'U'), ('నే', 'U'), ('ర్తు', '|'), ('రే', 'U'), ('వే', 'U'), ('ళ', 'U'), ('న్వా', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('జా', 'U'), ('లి', '|'), ('ప', '|'), ('డ', '|'), ('కా', 'U'), ('వి', 'U'), ('ర్భూ', 'U'), ('త', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('గా', 'U'), ('లం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కు', '|'), ('ని', '|'), ('క', '|'), ('భ', 'U'), ('క్త', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('కే', 'U'), ('శ్రీ', 'U'), ('లె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కి', '|'), ('గూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టె', '|'), ('ద', '|'), ('వ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('శ్రు', '|'), ('తు', '|'), ('ల', 'U'), ('భ్యా', 'U'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('గ', '|'), ('రి', '|'), ('మ', 'U'), ('ల్శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('లన్', 'U'), ('మ', '|'), ('తి', '|'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('మ', 'U'), ('స్థి', '|'), ('ర', '|'), ('ము', '|'), ('బ్ర', 'U'), ('హ్మం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గాం', 'U'), ('చి', '|'), ('తి', '|'), ('మం', 'U'), ('చున్', 'U'), ('స', '|'), ('భ', '|'), ('లన్', 'U'), ('వృ', '|'), ('థా', 'U'), ('వ', '|'), ('చ', '|'), ('న', '|'), ('ము', 'U'), ('ల్చె', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('నే', 'U'), ('కా', 'U'), ('ని', '|'), ('ని', 'U'), ('ర్జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', 'U'), ('స్థి', '|'), ('ర', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ముల్', 'U'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('శ్రు', '|'), ('తు', '|'), ('ల', 'U'), ('భ్యా', 'U'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('గ', '|'), ('రి', '|'), ('మ', 'U'), ('ల్శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('లన్', 'U'), ('మ', '|'), ('తి', '|'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('మ', 'U'), ('స్థి', '|'), ('ర', '|'), ('ము', '|'), ('బ్ర', 'U'), ('హ్మం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గాం', 'U'), ('చి', '|'), ('తి', '|'), ('మం', 'U'), ('చు', 'U'), ('న్స', '|'), ('భ', '|'), ('ల', 'U'), ('న్వృ', '|'), ('థా', 'U'), ('వ', '|'), ('చ', '|'), ('న', '|'), ('ము', 'U'), ('ల్చె', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('నే', 'U'), ('కా', 'U'), ('ని', '|'), ('ని', 'U'), ('ర్జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', 'U'), ('స్థి', '|'), ('ర', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', 'U'), ('ల్దె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('తి', '|'), ('రా', 'U'), ('జు', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నొ', 'U'), ('క్క', '|'), ('మ', '|'), ('ఱి', '|'), ('గో', 'U'), ('రా', 'U'), ('జా', 'U'), ('శ్వు', '|'), ('నిన్', 'U'), ('నొ', 'U'), ('క్క', '|'), ('బో', 'U'), ('న', '|'), ('త', '|'), ('డా', 'U'), ('ద', 'U'), ('ర్ప', '|'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('నొ', 'U'), ('త్త', '|'), ('గ', '|'), ('వ', '|'), ('యం', 'U'), ('బా', 'U'), ('బో', 'U'), ('తు', '|'), ('నుం', 'U'), ('దా', 'U'), ('కి', '|'), ('యు', '|'), ('గ్ర', '|'), ('త', '|'), ('బో', 'U'), ('రా', 'U'), ('డ', '|'), ('గ', '|'), ('ను', 'U'), ('న్న', '|'), ('య', 'U'), ('న్న', '|'), ('డి', '|'), ('మి', '|'), ('లే', 'U'), ('గ', 'U'), ('ల్వో', 'U'), ('లె', '|'), ('శో', 'U'), ('కా', 'U'), ('న', '|'), ('ల', 'U'), ('స్థి', '|'), ('తి', '|'), ('పా', 'U'), ('లై', 'U'), ('మొ', '|'), ('ఱ', '|'), ('పె', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('మ', '|'), ('ను', '|'), ('ప', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ర', '|'), ('తి', '|'), ('రా', 'U'), ('జు', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నొ', 'U'), ('క్క', '|'), ('మ', '|'), ('ఱి', '|'), ('గో', 'U'), ('రా', 'U'), ('జా', 'U'), ('శ్వు', '|'), ('ని', 'U'), ('న్నొ', 'U'), ('క్క', '|'), ('బో', 'U'), ('న', '|'), ('త', '|'), ('డా', 'U'), ('ద', 'U'), ('ర్ప', '|'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('నొ', 'U'), ('త్త', '|'), ('గ', '|'), ('వ', '|'), ('యం', 'U'), ('బా', 'U'), ('బో', 'U'), ('తు', '|'), ('నుం', 'U'), ('దా', 'U'), ('కి', '|'), ('యు', '|'), ('గ్ర', '|'), ('త', '|'), ('బో', 'U'), ('రా', 'U'), ('డ', '|'), ('గ', '|'), ('ను', 'U'), ('న్న', '|'), ('య', 'U'), ('న్న', '|'), ('డి', '|'), ('మి', '|'), ('లే', 'U'), ('గ', 'U'), ('ల్వో', 'U'), ('లె', '|'), ('శో', 'U'), ('కా', 'U'), ('న', '|'), ('ల', 'U'), ('స్థి', '|'), ('తి', '|'), ('పా', 'U'), ('లై', 'U'), ('మొ', '|'), ('ఱ', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('న్మ', '|'), ('ను', '|'), ('ప', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('అం', 'U'), ('తా', 'U'), ('సం', 'U'), ('శ', '|'), ('య', '|'), ('మే', 'U'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('ఘ', '|'), ('ట', '|'), ('నం', 'U'), ('బం', 'U'), ('తా', 'U'), ('వి', '|'), ('చా', 'U'), ('రం', 'U'), ('బె', '|'), ('లో', 'U'), ('నం', 'U'), ('తా', 'U'), ('దుః', 'U'), ('ఖ', '|'), ('ప', '|'), ('రం', 'U'), ('ప', '|'), ('రా', 'U'), ('న్వి', '|'), ('త', '|'), ('మె', '|'), ('మే', 'U'), ('నం', 'U'), ('తా', 'U'), ('భ', '|'), ('య', '|'), ('భ్రాం', 'U'), ('త', '|'), ('మే', 'U'), ('యం', 'U'), ('తా', 'U'), ('నాం', 'U'), ('త', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('శో', 'U'), ('ష', '|'), ('ణ', '|'), ('మె', '|'), ('దు', 'U'), ('ర్వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('మే', 'U'), ('దే', 'U'), ('హి', '|'), ('కిన్', 'U'), ('జిం', 'U'), ('త', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('పొం', 'U'), ('ద', '|'), ('రు', '|'), ('న', '|'), ('రుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అం', 'U'), ('తా', 'U'), ('సం', 'U'), ('శ', '|'), ('య', '|'), ('మే', 'U'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('ఘ', '|'), ('ట', '|'), ('నం', 'U'), ('బం', 'U'), ('తా', 'U'), ('వి', '|'), ('చా', 'U'), ('రం', 'U'), ('బె', '|'), ('లో', 'U'), ('నం', 'U'), ('తా', 'U'), ('దుః', 'U'), ('ఖ', '|'), ('ప', '|'), ('రం', 'U'), ('ప', '|'), ('రా', 'U'), ('న్వి', '|'), ('త', '|'), ('మె', '|'), ('మే', 'U'), ('నం', 'U'), ('తా', 'U'), ('భ', '|'), ('య', '|'), ('భ్రాం', 'U'), ('త', '|'), ('మే', 'U'), ('యం', 'U'), ('తా', 'U'), ('నాం', 'U'), ('త', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('శో', 'U'), ('ష', '|'), ('ణ', '|'), ('మె', '|'), ('దు', 'U'), ('ర్వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('మే', 'U'), ('దే', 'U'), ('హి', '|'), ('కిన్', 'U'), ('జిం', 'U'), ('త', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('పొం', 'U'), ('ద', '|'), ('రు', '|'), ('న', '|'), ('రు', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('స్తో', 'U'), ('త్రం', 'U'), ('బ', 'U'), ('న్యు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('వ్ర', '|'), ('త', 'U'), ('స్థు', 'U'), ('ల్వో', 'U'), ('లె', '|'), ('వే', 'U'), ('సం', 'U'), ('బు', '|'), ('తో', 'U'), ('బు', 'U'), ('త్త్రీ', 'U'), ('పు', 'U'), ('త్త్ర', '|'), ('క', '|'), ('ళ', '|'), ('త్ర', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('బు', 'U'), ('ద్ధిన్', 'U'), ('నృ', '|'), ('పా', 'U'), ('లా', 'U'), ('ధ', '|'), ('మున్', 'U'), ('బా', 'U'), ('త్రం', 'U'), ('బం', 'U'), ('చు', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('బో', 'U'), ('దు', '|'), ('రి', '|'), ('ది', '|'), ('యు', 'U'), ('న్భా', 'U'), ('వ్యం', 'U'), ('బె', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('చా', 'U'), ('రి', '|'), ('త్రం', 'U'), ('బె', 'U'), ('న్న', '|'), ('డు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('నెం', 'U'), ('త', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('స్తో', 'U'), ('త్రం', 'U'), ('బ', 'U'), ('న్యు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('వ్ర', '|'), ('త', 'U'), ('స్థు', 'U'), ('ల్వో', 'U'), ('లె', '|'), ('వే', 'U'), ('సం', 'U'), ('బు', '|'), ('తో', 'U'), ('బు', 'U'), ('త్త్రీ', 'U'), ('పు', 'U'), ('త్త్ర', '|'), ('క', '|'), ('ళ', '|'), ('త్ర', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('బు', 'U'), ('ద్ధి', 'U'), ('న్నృ', '|'), ('పా', 'U'), ('లా', 'U'), ('ధ', '|'), ('మున్', 'U'), ('బా', 'U'), ('త్రం', 'U'), ('బం', 'U'), ('చు', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('బో', 'U'), ('దు', '|'), ('రి', '|'), ('ది', '|'), ('యు', 'U'), ('న్భా', 'U'), ('వ్యం', 'U'), ('బె', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('చా', 'U'), ('రి', '|'), ('త్రం', 'U'), ('బె', 'U'), ('న్న', '|'), ('డు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('నెం', 'U'), ('త', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('క', '|'), ('లం', 'U'), ('క', 'U'), ('స్థి', '|'), ('తి', '|'), ('ని', 'U'), ('ల్పి', '|'), ('నా', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('ఘం', 'U'), ('టా', 'U'), ('రా', 'U'), ('వ', '|'), ('మున్', 'U'), ('బిం', 'U'), ('దు', '|'), ('దీ', 'U'), ('ప', '|'), ('క', '|'), ('ళా', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('లొ', 'U'), ('ప్ప', 'U'), ('న్బూ', 'U'), ('ని', '|'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('దు', 'U'), ('ర్గా', 'U'), ('ట', '|'), ('వి', '|'), ('లో', 'U'), ('మ', '|'), ('నో', 'U'), ('మృ', '|'), ('గ', '|'), ('ము', '|'), ('గ', 'U'), ('ర్వ', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('వా', 'U'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('గా', 'U'), ('వీ', 'U'), ('డు', '|'), ('భ', '|'), ('వో', 'U'), ('గ్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ల', '|'), ('తి', '|'), ('కల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('క', '|'), ('లం', 'U'), ('క', 'U'), ('స్థి', '|'), ('తి', '|'), ('ని', 'U'), ('ల్పి', '|'), ('నా', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('ఘం', 'U'), ('టా', 'U'), ('రా', 'U'), ('వ', '|'), ('ము', 'U'), ('న్బిం', 'U'), ('దు', '|'), ('దీ', 'U'), ('ప', '|'), ('క', '|'), ('ళా', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('లొ', 'U'), ('ప్ప', 'U'), ('న్బూ', 'U'), ('ని', '|'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('దు', 'U'), ('ర్గా', 'U'), ('ట', '|'), ('వి', '|'), ('లో', 'U'), ('మ', '|'), ('నో', 'U'), ('మృ', '|'), ('గ', '|'), ('ము', '|'), ('గ', 'U'), ('ర్వ', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('వా', 'U'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('గా', 'U'), ('వీ', 'U'), ('డు', '|'), ('భ', '|'), ('వో', 'U'), ('గ్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ల', '|'), ('తి', '|'), ('క', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('న', '|'), ('రు', '|'), ('డే', 'U'), ('నీ', 'U'), ('చా', 'U'), ('ల', '|'), ('యం', 'U'), ('బుం', 'U'), ('జొ', '|'), ('రం', 'U'), ('డే', 'U'), ('కా', 'U'), ('ర్ప', 'U'), ('ణ్య', '|'), ('పు', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డ', '|'), ('న', '|'), ('రు', '|'), ('గం', 'U'), ('డె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('తో', 'U'), ('వే', 'U'), ('ష', '|'), ('ముల్', 'U'), ('గై', 'U'), ('కో', 'U'), ('డే', 'U'), ('మ', '|'), ('త', '|'), ('ము', 'U'), ('ల్భ', '|'), ('జిం', 'U'), ('ప', '|'), ('డి', '|'), ('ల', '|'), ('నే', 'U'), ('క', 'U'), ('ష్ట', '|'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('జీ', 'U'), ('కా', 'U'), ('కై', 'U'), ('చె', '|'), ('డి', '|'), ('పో', 'U'), ('డు', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('ద', '|'), ('శన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('న', '|'), ('రు', '|'), ('డే', 'U'), ('నీ', 'U'), ('చా', 'U'), ('ల', '|'), ('యం', 'U'), ('బుం', 'U'), ('జొ', '|'), ('రం', 'U'), ('డే', 'U'), ('కా', 'U'), ('ర్ప', 'U'), ('ణ్య', '|'), ('పు', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డ', '|'), ('న', '|'), ('రు', '|'), ('గం', 'U'), ('డె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('తో', 'U'), ('వే', 'U'), ('ష', '|'), ('ముల్', 'U'), ('గై', 'U'), ('కో', 'U'), ('డే', 'U'), ('మ', '|'), ('త', '|'), ('ము', 'U'), ('ల్భ', '|'), ('జిం', 'U'), ('ప', '|'), ('డి', '|'), ('ల', '|'), ('నే', 'U'), ('క', 'U'), ('ష్ట', '|'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('జీ', 'U'), ('కా', 'U'), ('కై', 'U'), ('చె', '|'), ('డి', '|'), ('పో', 'U'), ('డు', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('ద', '|'), ('శ', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('జ్ఞా', 'U'), ('తు', 'U'), ('ల్ద్రో', 'U'), ('హు', '|'), ('లు', '|'), ('వాం', 'U'), ('డ్రు', '|'), ('సే', 'U'), ('యు', '|'), ('క', '|'), ('ప', '|'), ('టే', 'U'), ('ర్ష్యా', 'U'), ('ది', '|'), ('క్రి', '|'), ('యా', 'U'), ('దో', 'U'), ('ష', '|'), ('ముల్', 'U'), ('మా', 'U'), ('తం', 'U'), ('డ్రా', 'U'), ('న', '|'), ('స', '|'), ('హిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('ప్ర', '|'), ('తి', '|'), ('క', 'U'), ('ర్మం', 'U'), ('బిం', 'U'), ('చు', '|'), ('కే', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('బో', 'U'), ('తే', 'U'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('మా', 'U'), ('ని', '|'), ('య', '|'), ('తి', '|'), ('నై', 'U'), ('పో', 'U'), ('గో', 'U'), ('రి', '|'), ('నన్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('దా', 'U'), ('చే', 'U'), ('తః', 'U'), ('క్రో', 'U'), ('ధ', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('దె', 'U'), ('ట్లు', '|'), ('న', '|'), ('డు', '|'), ('తున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('జ్ఞా', 'U'), ('తు', 'U'), ('ల్ద్రో', 'U'), ('హు', '|'), ('లు', '|'), ('వాం', 'U'), ('డ్రు', '|'), ('సే', 'U'), ('యు', '|'), ('క', '|'), ('ప', '|'), ('టే', 'U'), ('ర్ష్యా', 'U'), ('ది', '|'), ('క్రి', '|'), ('యా', 'U'), ('దో', 'U'), ('ష', '|'), ('ముల్', 'U'), ('మా', 'U'), ('తం', 'U'), ('డ్రా', 'U'), ('న', '|'), ('స', '|'), ('హిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('ప్ర', '|'), ('తి', '|'), ('క', 'U'), ('ర్మం', 'U'), ('బిం', 'U'), ('చు', '|'), ('కే', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('బో', 'U'), ('తే', 'U'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('మా', 'U'), ('ని', '|'), ('య', '|'), ('తి', '|'), ('నై', 'U'), ('పో', 'U'), ('గో', 'U'), ('రి', '|'), ('న', 'U'), ('న్స', 'U'), ('ర్వ', '|'), ('దా', 'U'), ('చే', 'U'), ('తః', 'U'), ('క్రో', 'U'), ('ధ', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('దె', 'U'), ('ట్లు', '|'), ('న', '|'), ('డు', '|'), ('తు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('పం', 'U'), ('డి', '|'), ('తా', 'U'), ('ధ', '|'), ('ము', '|'), ('లు', 'U'), ('స్వే', 'U'), ('చ్ఛా', 'U'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('క్రీ', 'U'), ('డ', '|'), ('లన్', 'U'), ('వ', '|'), ('ద', '|'), ('రన్', 'U'), ('సం', 'U'), ('శ', '|'), ('య', '|'), ('భీ', 'U'), ('క', '|'), ('రా', 'U'), ('ట', '|'), ('వు', '|'), ('ల', '|'), ('ద్రో', 'U'), ('వ', 'U'), ('ల్ద', 'U'), ('ప్పి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('క్రో', 'U'), ('ధ', '|'), ('కి', '|'), ('రా', 'U'), ('తు', '|'), ('లం', 'U'), ('దు', '|'), ('గ', '|'), ('ని', '|'), ('భీ', 'U'), ('మ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('చే', 'U'), ('దా', 'U'), ('కి', '|'), ('నం', 'U'), ('చె', '|'), ('ద', '|'), ('రుం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('చి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('పం', 'U'), ('డి', '|'), ('తా', 'U'), ('ధ', '|'), ('ము', '|'), ('లు', 'U'), ('స్వే', 'U'), ('చ్ఛా', 'U'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('క్రీ', 'U'), ('డ', '|'), ('లన్', 'U'), ('వ', '|'), ('ద', '|'), ('ర', 'U'), ('న్సం', 'U'), ('శ', '|'), ('య', '|'), ('భీ', 'U'), ('క', '|'), ('రా', 'U'), ('ట', '|'), ('వు', '|'), ('ల', '|'), ('ద్రో', 'U'), ('వ', 'U'), ('ల్ద', 'U'), ('ప్పి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('క్రో', 'U'), ('ధ', '|'), ('కి', '|'), ('రా', 'U'), ('తు', '|'), ('లం', 'U'), ('దు', '|'), ('గ', '|'), ('ని', '|'), ('భీ', 'U'), ('మ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('చే', 'U'), ('దా', 'U'), ('కి', '|'), ('నం', 'U'), ('చె', '|'), ('ద', '|'), ('రుం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('చి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('శై', 'U'), ('లే', 'U'), ('శు', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('నో', 'U'), ('య', '|'), ('భ', '|'), ('వు', '|'), ('గాం', 'U'), ('చీ', 'U'), ('నా', 'U'), ('థు', '|'), ('సే', 'U'), ('విం', 'U'), ('తు', '|'), ('నో', 'U'), ('కా', 'U'), ('శీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('బో', 'U'), ('దు', '|'), ('నొ', '|'), ('మ', '|'), ('హా', 'U'), ('కా', 'U'), ('ళే', 'U'), ('శు', '|'), ('బూ', 'U'), ('జిం', 'U'), ('తు', '|'), ('నో', 'U'), ('నా', 'U'), ('శీ', 'U'), ('లం', 'U'), ('బ', '|'), ('ణు', '|'), ('వై', 'U'), ('న', '|'), ('మే', 'U'), ('రు', '|'), ('వ', '|'), ('ను', '|'), ('చున్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('నీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('శ్రీ', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('శై', 'U'), ('లే', 'U'), ('శు', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('నో', 'U'), ('య', '|'), ('భ', '|'), ('వు', '|'), ('గాం', 'U'), ('చీ', 'U'), ('నా', 'U'), ('థు', '|'), ('సే', 'U'), ('విం', 'U'), ('తు', '|'), ('నో', 'U'), ('కా', 'U'), ('శీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('బో', 'U'), ('దు', '|'), ('నొ', '|'), ('మ', '|'), ('హా', 'U'), ('కా', 'U'), ('ళే', 'U'), ('శు', '|'), ('బూ', 'U'), ('జిం', 'U'), ('తు', '|'), ('నో', 'U'), ('నా', 'U'), ('శీ', 'U'), ('లం', 'U'), ('బ', '|'), ('ణు', '|'), ('వై', 'U'), ('న', '|'), ('మే', 'U'), ('రు', '|'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('న్ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('నీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('శ్రీ', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('య', '|'), ('వా', 'U'), ('రై', 'U'), ('చ', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ద', '|'), ('న', '|'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లన్', 'U'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('గొ', 'U'), ('మ్మ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ని', '|'), ('న', 'U'), ('ర్థ', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('దే', 'U'), ('హా', 'U'), ('దు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('నా', 'U'), ('సొ', 'U'), ('మ్మ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గా', 'U'), ('ని', '|'), ('న', '|'), ('రు', '|'), ('ల', 'U'), ('న్నిం', 'U'), ('దిం', 'U'), ('చి', '|'), ('ని', 'U'), ('న్నా', 'U'), ('త్మ', '|'), ('ని', 'U'), ('ష్క్రి', '|'), ('య', '|'), ('తం', 'U'), ('గా', 'U'), ('న', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('పం', 'U'), ('డి', '|'), ('తు', '|'), ('ల', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('య', '|'), ('వా', 'U'), ('రై', 'U'), ('చ', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ద', '|'), ('న', '|'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లన్', 'U'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('గొ', 'U'), ('మ్మ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ని', '|'), ('న', 'U'), ('ర్థ', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('దే', 'U'), ('హా', 'U'), ('దు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('నా', 'U'), ('సొ', 'U'), ('మ్మ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గా', 'U'), ('ని', '|'), ('న', '|'), ('రు', '|'), ('ల', 'U'), ('న్నిం', 'U'), ('దిం', 'U'), ('చి', '|'), ('ని', 'U'), ('న్నా', 'U'), ('త్మ', '|'), ('ని', 'U'), ('ష్క్రి', '|'), ('య', '|'), ('తం', 'U'), ('గా', 'U'), ('న', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('పం', 'U'), ('డి', '|'), ('తు', '|'), ('ల', '|'), ('కు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('మా', 'U'), ('యా', 'U'), ('జాం', 'U'), ('డ', '|'), ('క', '|'), ('రం', 'U'), ('డ', '|'), ('కో', 'U'), ('టి', '|'), ('బొ', '|'), ('డి', '|'), ('గా', 'U'), ('మ', 'U'), ('ర్దిం', 'U'), ('చి', '|'), ('రో', 'U'), ('వి', '|'), ('క్ర', '|'), ('మా', 'U'), ('జే', 'U'), ('యుం', 'U'), ('గా', 'U'), ('య', '|'), ('జు', '|'), ('జం', 'U'), ('పి', '|'), ('రో', 'U'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('మో', 'U'), ('హ', '|'), ('ముం', 'U'), ('బా', 'U'), ('సి', '|'), ('రో', 'U'), ('యా', 'U'), ('యు', 'U'), ('ర్దా', 'U'), ('య', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('న', '|'), ('నా', 'U'), ('యా', 'U'), ('సం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గె', 'U'), ('ల్చి', '|'), ('రో', 'U'), ('శ్రే', 'U'), ('యో', 'U'), ('దా', 'U'), ('య', '|'), ('కు', '|'), ('లౌ', 'U'), ('దు', '|'), ('రె', 'U'), ('ట్టు', '|'), ('లి', '|'), ('త', '|'), ('రుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('మా', 'U'), ('యా', 'U'), ('జాం', 'U'), ('డ', '|'), ('క', '|'), ('రం', 'U'), ('డ', '|'), ('కో', 'U'), ('టి', '|'), ('బొ', '|'), ('డి', '|'), ('గా', 'U'), ('మ', 'U'), ('ర్దిం', 'U'), ('చి', '|'), ('రో', 'U'), ('వి', '|'), ('క్ర', '|'), ('మా', 'U'), ('జే', 'U'), ('యుం', 'U'), ('గా', 'U'), ('య', '|'), ('జు', '|'), ('జం', 'U'), ('పి', '|'), ('రో', 'U'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('మో', 'U'), ('హ', '|'), ('ముం', 'U'), ('బా', 'U'), ('సి', '|'), ('రో', 'U'), ('యా', 'U'), ('యు', 'U'), ('ర్దా', 'U'), ('య', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('న', '|'), ('నా', 'U'), ('యా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', 'U'), ('న్గె', 'U'), ('ల్చి', '|'), ('రో', 'U'), ('శ్రే', 'U'), ('యో', 'U'), ('దా', 'U'), ('య', '|'), ('కు', '|'), ('లౌ', 'U'), ('దు', '|'), ('రె', 'U'), ('ట్టు', '|'), ('లి', '|'), ('త', '|'), ('రు', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('వె', '|'), ('ను', '|'), ('కం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('ర్ద', '|'), ('శ', '|'), ('లు', '|'), ('భా', 'U'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('రో', 'U'), ('త', 'U'), ('య్యె', '|'), ('డున్', 'U'), ('వె', '|'), ('ను', '|'), ('క', 'U'), ('న్ముం', 'U'), ('ద', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('దు', 'U'), ('ర్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('భీ', 'U'), ('త', 'U'), ('య్యె', '|'), ('డున్', 'U'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('జూ', 'U'), ('చి', '|'), ('యు', '|'), ('నా', 'U'), ('వి', '|'), ('ధు', 'U'), ('ల్ద', '|'), ('ల', '|'), ('చి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('కే', 'U'), ('భ', '|'), ('యం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('డుం', 'U'), ('జె', '|'), ('న', '|'), ('కుం', 'U'), ('జీ', 'U'), ('క', '|'), ('టి', '|'), ('నా', 'U'), ('యె', '|'), ('గా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('వె', '|'), ('ను', '|'), ('కం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('ర్ద', '|'), ('శ', '|'), ('లు', '|'), ('భా', 'U'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('రో', 'U'), ('త', 'U'), ('య్యె', '|'), ('డున్', 'U'), ('వె', '|'), ('ను', '|'), ('క', 'U'), ('న్ముం', 'U'), ('ద', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('దు', 'U'), ('ర్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('భీ', 'U'), ('త', 'U'), ('య్యె', '|'), ('డున్', 'U'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('జూ', 'U'), ('చి', '|'), ('యు', '|'), ('నా', 'U'), ('వి', '|'), ('ధు', 'U'), ('ల్ద', '|'), ('ల', '|'), ('చి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('కే', 'U'), ('భ', '|'), ('యం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('డుం', 'U'), ('జె', '|'), ('న', '|'), ('కుం', 'U'), ('జీ', 'U'), ('క', '|'), ('టి', '|'), ('నా', 'U'), ('యె', '|'), ('గా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('రి', '|'), ('శీ', 'U'), ('లిం', 'U'), ('చి', '|'), ('తి', '|'), ('మం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('ప్ప', 'U'), ('న్విం', 'U'), ('టి', '|'), ('సాం', 'U'), ('ఖ్యా', 'U'), ('ది', '|'), ('యో', 'U'), ('గ', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', '|'), ('లు', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('వ', 'U'), ('క్కా', 'U'), ('ణిం', 'U'), ('చి', '|'), ('తిన్', 'U'), ('శం', 'U'), ('క', '|'), ('వో', 'U'), ('ద', '|'), ('ర', '|'), ('యం', 'U'), ('గు', 'U'), ('మ్మ', '|'), ('డి', '|'), ('కా', 'U'), ('య', '|'), ('లో', 'U'), ('ను', '|'), ('య', '|'), ('వ', '|'), ('గిం', 'U'), ('జం', 'U'), ('తై', 'U'), ('న', '|'), ('న', 'U'), ('మ్మిం', 'U'), ('చి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('త్రో', 'U'), ('వ', '|'), ('జూ', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('రి', '|'), ('శీ', 'U'), ('లిం', 'U'), ('చి', '|'), ('తి', '|'), ('మం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('ప్ప', 'U'), ('న్విం', 'U'), ('టి', '|'), ('సాం', 'U'), ('ఖ్యా', 'U'), ('ది', '|'), ('యో', 'U'), ('గ', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', '|'), ('లు', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('వ', 'U'), ('క్కా', 'U'), ('ణిం', 'U'), ('చి', '|'), ('తి', 'U'), ('న్శం', 'U'), ('క', '|'), ('వో', 'U'), ('ద', '|'), ('ర', '|'), ('యం', 'U'), ('గు', 'U'), ('మ్మ', '|'), ('డి', '|'), ('కా', 'U'), ('య', '|'), ('లో', 'U'), ('ను', '|'), ('య', '|'), ('వ', '|'), ('గిం', 'U'), ('జం', 'U'), ('తై', 'U'), ('న', '|'), ('న', 'U'), ('మ్మిం', 'U'), ('చి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('త్రో', 'U'), ('వ', '|'), ('జూ', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ర్మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('దు', 'U'), ('ర్మ', '|'), ('దు', '|'), ('లై', 'U'), ('యి', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వా', 'U'), ('ర', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లొ', '|'), ('న', 'U'), ('ర్పం', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('న', 'U'), ('వ్వ', '|'), ('దె', '|'), ('రా', 'U'), ('ను', 'U'), ('న్న', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ద', '|'), ('మ', '|'), ('త్రో', 'U'), ('వం', 'U'), ('బో', 'U'), ('వ', '|'), ('రే', 'U'), ('యే', 'U'), ('ల', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('రో', 'U'), ('మీ', 'U'), ('దు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('ధ', '|'), ('ముల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ర్మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('దు', 'U'), ('ర్మ', '|'), ('దు', '|'), ('లై', 'U'), ('యి', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వా', 'U'), ('ర', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లొ', '|'), ('న', 'U'), ('ర్పం', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('న', 'U'), ('వ్వ', '|'), ('దె', '|'), ('రా', 'U'), ('ను', 'U'), ('న్న', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ద', '|'), ('మ', '|'), ('త్రో', 'U'), ('వం', 'U'), ('బో', 'U'), ('వ', '|'), ('రే', 'U'), ('యే', 'U'), ('ల', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('రో', 'U'), ('మీ', 'U'), ('దు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('ధ', '|'), ('ము', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('మ', '|'), ('కం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బ', '|'), ('రాం', 'U'), ('గ', '|'), ('నా', 'U'), ('జ', '|'), ('న', '|'), ('ప', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('లన్', 'U'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లం', 'U'), ('గ', '|'), ('మ', '|'), ('హో', 'U'), ('ద్యో', 'U'), ('గ', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('దొం', 'U'), ('గం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('పా', 'U'), ('శ', '|'), ('ము', '|'), ('లం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('బి', '|'), ('గిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('దు', '|'), ('చ', '|'), ('ర', '|'), ('ణ', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('వై', 'U'), ('చి', '|'), ('ము', '|'), ('దం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('త', '|'), ('మ', '|'), ('కం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బ', '|'), ('రాం', 'U'), ('గ', '|'), ('నా', 'U'), ('జ', '|'), ('న', '|'), ('ప', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్మ్రు', 'U'), ('చ్చి', '|'), ('లం', 'U'), ('గ', '|'), ('మ', '|'), ('హో', 'U'), ('ద్యో', 'U'), ('గ', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('దొం', 'U'), ('గం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('పా', 'U'), ('శ', '|'), ('ము', '|'), ('లం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('బి', '|'), ('గిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('దు', '|'), ('చ', '|'), ('ర', '|'), ('ణ', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('న', 'U'), ('న్గ', 'U'), ('ట్టి', '|'), ('వై', 'U'), ('చి', '|'), ('ము', '|'), ('దం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('వే', 'U'), ('ధం', 'U'), ('ది', 'U'), ('ట్ట', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('గా', 'U'), ('ని', '|'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('లం', 'U'), ('జే', 'U'), ('య', '|'), ('నే', 'U'), ('లా', 'U'), ('ధీ', 'U'), ('చా', 'U'), ('తు', '|'), ('రి', '|'), ('జే', 'U'), ('సి', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('గు', '|'), ('లా', 'U'), ('మా', 'U'), ('పా', 'U'), ('టు', '|'), ('నే', 'U'), ('పో', 'U'), ('క', 'U'), ('క్షు', 'U'), ('ద్బా', 'U'), ('ధా', 'U'), ('దుల్', 'U'), ('క', '|'), ('లి', '|'), ('గిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ల', '|'), ('య', '|'), ('ది', '|'), ('కృ', 'U'), ('త్యం', 'U'), ('బై', 'U'), ('న', '|'), ('దు', 'U'), ('ర్మా', 'U'), ('ర్గు', '|'), ('లన్', 'U'), ('ఛీ', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('శు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('నే', 'U'), ('టి', '|'), ('క', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('వే', 'U'), ('ధం', 'U'), ('ది', 'U'), ('ట్ట', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('గా', 'U'), ('ని', '|'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('లం', 'U'), ('జే', 'U'), ('య', '|'), ('నే', 'U'), ('లా', 'U'), ('ధీ', 'U'), ('చా', 'U'), ('తు', '|'), ('రి', '|'), ('జే', 'U'), ('సి', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('గు', '|'), ('లా', 'U'), ('మా', 'U'), ('పా', 'U'), ('టు', '|'), ('నే', 'U'), ('పో', 'U'), ('క', 'U'), ('క్షు', 'U'), ('ద్బా', 'U'), ('ధా', 'U'), ('దు', 'U'), ('ల్క', '|'), ('లి', '|'), ('గిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ల', '|'), ('య', '|'), ('ది', '|'), ('కృ', 'U'), ('త్యం', 'U'), ('బై', 'U'), ('న', '|'), ('దు', 'U'), ('ర్మా', 'U'), ('ర్గు', '|'), ('లన్', 'U'), ('ఛీ', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('శు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('నే', 'U'), ('టి', '|'), ('క', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('పు', '|'), ('డ', '|'), ('మి', 'U'), ('న్ని', 'U'), ('న్నొ', '|'), ('క', '|'), ('బి', 'U'), ('ల్వ', '|'), ('ప', 'U'), ('త్త్ర', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బ', '|'), ('డ', '|'), ('య', 'U'), ('న్నే', 'U'), ('ర', '|'), ('క', '|'), ('పె', 'U'), ('క్కు', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('బ', 'U'), ('ప్పుల్', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('దం', 'U'), ('బు', '|'), ('లుం', 'U'), ('గు', '|'), ('డు', '|'), ('ముల్', 'U'), ('దో', 'U'), ('సె', '|'), ('లు', '|'), ('సా', 'U'), ('రె', '|'), ('స', 'U'), ('త్తు', '|'), ('ల', '|'), ('డు', '|'), ('కుల్', 'U'), ('గు', 'U'), ('గ్గి', 'U'), ('ళ్లు', '|'), ('నుం', 'U'), ('బె', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('జె', '|'), ('డి', '|'), ('యెం', 'U'), ('దుం', 'U'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('క', '|'), ('పో', 'U'), ('దు', '|'), ('ర', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('పు', '|'), ('డ', '|'), ('మి', 'U'), ('న్ని', 'U'), ('న్నొ', '|'), ('క', '|'), ('బి', 'U'), ('ల్వ', '|'), ('ప', 'U'), ('త్త్ర', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బ', '|'), ('డ', '|'), ('య', 'U'), ('న్నే', 'U'), ('ర', '|'), ('క', '|'), ('పె', 'U'), ('క్కు', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('బ', 'U'), ('ప్పు', 'U'), ('ల్ప్ర', '|'), ('సా', 'U'), ('దం', 'U'), ('బు', '|'), ('లుం', 'U'), ('గు', '|'), ('డు', '|'), ('ము', 'U'), ('ల్దో', 'U'), ('సె', '|'), ('లు', '|'), ('సా', 'U'), ('రె', '|'), ('స', 'U'), ('త్తు', '|'), ('ల', '|'), ('డు', '|'), ('కు', 'U'), ('ల్గు', 'U'), ('గ్గి', 'U'), ('ళ్లు', '|'), ('నుం', 'U'), ('బె', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('జె', '|'), ('డి', '|'), ('యెం', 'U'), ('దుం', 'U'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('క', '|'), ('పో', 'U'), ('దు', '|'), ('ర', '|'), ('క', '|'), ('టా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('వి', 'U'), ('త్త', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('పా', 'U'), ('డు', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('భ', '|'), ('వా', 'U'), ('వే', 'U'), ('శం', 'U'), ('బు', '|'), ('ర', 'U'), ('క్షాం', 'U'), ('బు', '|'), ('వుల్', 'U'), ('మ', 'U'), ('త్త', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('త', '|'), ('దం', 'U'), ('కు', '|'), ('రం', 'U'), ('బ', '|'), ('నృ', '|'), ('త', '|'), ('ముల్', 'U'), ('మా', 'U'), ('ఱా', 'U'), ('కు', '|'), ('ల', 'U'), ('త్యం', 'U'), ('త', '|'), ('దు', 'U'), ('ర్వృ', 'U'), ('త్తుల్', 'U'), ('పు', 'U'), ('వ్వు', '|'), ('లు', '|'), ('పం', 'U'), ('డ్లు', '|'), ('మ', 'U'), ('న్మ', '|'), ('థ', '|'), ('ము', '|'), ('ఖా', 'U'), ('వి', 'U'), ('ర్భూ', 'U'), ('త', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లుం', 'U'), ('జి', 'U'), ('త్తా', 'U'), ('భ్యు', 'U'), ('న్న', '|'), ('త', '|'), ('నిం', 'U'), ('బ', '|'), ('భూ', 'U'), ('జ', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('వి', 'U'), ('త్త', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('పా', 'U'), ('డు', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('భ', '|'), ('వా', 'U'), ('వే', 'U'), ('శం', 'U'), ('బు', '|'), ('ర', 'U'), ('క్షాం', 'U'), ('బు', '|'), ('వుల్', 'U'), ('మ', 'U'), ('త్త', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('త', '|'), ('దం', 'U'), ('కు', '|'), ('రం', 'U'), ('బ', '|'), ('నృ', '|'), ('త', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('ఱా', 'U'), ('కు', '|'), ('ల', 'U'), ('త్యం', 'U'), ('త', '|'), ('దు', 'U'), ('ర్వృ', 'U'), ('త్తు', 'U'), ('ల్పు', 'U'), ('వ్వు', '|'), ('లు', '|'), ('పం', 'U'), ('డ్లు', '|'), ('మ', 'U'), ('న్మ', '|'), ('థ', '|'), ('ము', '|'), ('ఖా', 'U'), ('వి', 'U'), ('ర్భూ', 'U'), ('త', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లుం', 'U'), ('జి', 'U'), ('త్తా', 'U'), ('భ్యు', 'U'), ('న్న', '|'), ('త', '|'), ('నిం', 'U'), ('బ', '|'), ('భూ', 'U'), ('జ', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('పై', 'U'), ('గా', 'U'), ('వ్య', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('త', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('యి', 'U'), ('మ్మా', 'U'), ('పా', 'U'), ('ఠం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('తు', '|'), ('న', 'U'), ('న్న', '|'), ('య', '|'), ('త', '|'), ('డున్', 'U'), ('మం', 'U'), ('జు', '|'), ('ప్ర', '|'), ('బం', 'U'), ('ధం', 'U'), ('బు', '|'), ('ని', 'U'), ('ష్టా', 'U'), ('పూ', 'U'), ('ర్తిం', 'U'), ('బ', '|'), ('ఠి', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('త', '|'), ('డున్', 'U'), ('స', 'U'), ('ద్బాం', 'U'), ('ధ', '|'), ('వు', 'U'), ('ల్గా', 'U'), ('క', '|'), ('చీ', 'U'), ('చీ', 'U'), ('పృ', 'U'), ('శ్ఠా', 'U'), ('గ', '|'), ('త', '|'), ('బాం', 'U'), ('ధ', '|'), ('వం', 'U'), ('బు', '|'), ('ని', '|'), ('జ', '|'), ('మా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నీ', 'U'), ('పై', 'U'), ('గా', 'U'), ('వ్య', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('త', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('ప', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్వ్రా', 'U'), ('సి', '|'), ('యి', 'U'), ('మ్మా', 'U'), ('పా', 'U'), ('ఠం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('తు', '|'), ('న', 'U'), ('న్న', '|'), ('య', '|'), ('త', '|'), ('డు', 'U'), ('న్మం', 'U'), ('జు', '|'), ('ప్ర', '|'), ('బం', 'U'), ('ధం', 'U'), ('బు', '|'), ('ని', 'U'), ('ష్టా', 'U'), ('పూ', 'U'), ('ర్తిం', 'U'), ('బ', '|'), ('ఠి', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('త', '|'), ('డు', 'U'), ('న్స', 'U'), ('ద్బాం', 'U'), ('ధ', '|'), ('వు', 'U'), ('ల్గా', 'U'), ('క', '|'), ('చీ', 'U'), ('చీ', 'U'), ('పృ', 'U'), ('శ్ఠా', 'U'), ('గ', '|'), ('త', '|'), ('బాం', 'U'), ('ధ', '|'), ('వం', 'U'), ('బు', '|'), ('ని', '|'), ('జ', '|'), ('మా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('సం', 'U'), ('ప', 'U'), ('ద్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('బా', 'U'), ('ఱ', '|'), ('దో', 'U'), ('లి', '|'), ('రి', '|'), ('పు', '|'), ('లన్', 'U'), ('జం', 'U'), ('కిం', 'U'), ('చి', '|'), ('యా', 'U'), ('కాం', 'U'), ('క్ష', '|'), ('లన్', 'U'), ('దం', 'U'), ('పు', 'U'), ('ల్వె', 'U'), ('ట్టి', '|'), ('క', '|'), ('ళం', 'U'), ('క', '|'), ('ము', 'U'), ('ల్న', '|'), ('ఱి', '|'), ('కి', '|'), ('బం', 'U'), ('ధ', 'U'), ('క్లే', 'U'), ('శ', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లం', 'U'), ('జిం', 'U'), ('పు', 'U'), ('ల్చే', 'U'), ('సి', '|'), ('వ', '|'), ('యో', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('సం', 'U'), ('క్షే', 'U'), ('పిం', 'U'), ('చి', '|'), ('భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('లం', 'U'), ('జెం', 'U'), ('ప', 'U'), ('ల్వే', 'U'), ('య', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('న', '|'), ('గు', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('సం', 'U'), ('ప', 'U'), ('ద్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('బా', 'U'), ('ఱ', '|'), ('దో', 'U'), ('లి', '|'), ('రి', '|'), ('పు', '|'), ('ల', 'U'), ('న్జం', 'U'), ('కిం', 'U'), ('చి', '|'), ('యా', 'U'), ('కాం', 'U'), ('క్ష', '|'), ('లన్', 'U'), ('దం', 'U'), ('పు', 'U'), ('ల్వె', 'U'), ('ట్టి', '|'), ('క', '|'), ('ళం', 'U'), ('క', '|'), ('ము', 'U'), ('ల్న', '|'), ('ఱి', '|'), ('కి', '|'), ('బం', 'U'), ('ధ', 'U'), ('క్లే', 'U'), ('శ', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లం', 'U'), ('జిం', 'U'), ('పు', 'U'), ('ల్చే', 'U'), ('సి', '|'), ('వ', '|'), ('యో', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('సం', 'U'), ('క్షే', 'U'), ('పిం', 'U'), ('చి', '|'), ('భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('లం', 'U'), ('జెం', 'U'), ('ప', 'U'), ('ల్వే', 'U'), ('య', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('న', '|'), ('గు', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('రా', 'U'), ('జ', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కి', '|'), ('దా', 'U'), ('సు', '|'), ('లై', 'U'), ('సి', '|'), ('రు', '|'), ('ల', '|'), ('గో', 'U'), ('రం', 'U'), ('జే', 'U'), ('ర', '|'), ('గా', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మో', 'U'), ('యీ', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('త', '|'), ('రిం', 'U'), ('ప', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('మి', 'U'), ('మ్మే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('ని', 'U'), ('ర్వ్యా', 'U'), ('జా', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మో', 'U'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('లే', 'U'), ('రో', 'U'), ('మా', 'U'), ('న', '|'), ('వు', 'U'), ('ల్బా', 'U'), ('ప', '|'), ('రా', 'U'), ('జీ', 'U'), ('జా', 'U'), ('తా', 'U'), ('ది', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', '|'), ('బు', 'U'), ('ద్ధు', '|'), ('ల', '|'), ('గు', '|'), ('చున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('రా', 'U'), ('జ', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కి', '|'), ('దా', 'U'), ('సు', '|'), ('లై', 'U'), ('సి', '|'), ('రు', '|'), ('ల', '|'), ('గో', 'U'), ('రం', 'U'), ('జే', 'U'), ('ర', '|'), ('గా', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మో', 'U'), ('యీ', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('త', '|'), ('రిం', 'U'), ('ప', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('మి', 'U'), ('మ్మే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('ని', 'U'), ('ర్వ్యా', 'U'), ('జా', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మో', 'U'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('లే', 'U'), ('రో', 'U'), ('మా', 'U'), ('న', '|'), ('వు', 'U'), ('ల్బా', 'U'), ('ప', '|'), ('రా', 'U'), ('జీ', 'U'), ('జా', 'U'), ('తా', 'U'), ('ది', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', '|'), ('బు', 'U'), ('ద్ధు', '|'), ('ల', '|'), ('గు', '|'), ('చు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[('ని', 'U'), ('న్నం', 'U'), ('జూ', 'U'), ('డ', '|'), ('రొ', '|'), ('మొ', 'U'), ('న్న', '|'), ('జూ', 'U'), ('డ', '|'), ('రో', 'U'), ('జ', '|'), ('నుల్', 'U'), ('ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('జా', 'U'), ('వం', 'U'), ('గ', '|'), ('నా', 'U'), ('ప', 'U'), ('న్ను', 'U'), ('ల్గ', 'U'), ('న్న', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('మ', 'U'), ('య్యె', '|'), ('డి', '|'), ('ధ', '|'), ('న', '|'), ('భ్రాం', 'U'), ('తి', 'U'), ('న్వి', '|'), ('స', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('లే', 'U'), ('కు', 'U'), ('న్నా', 'U'), ('రె', 'U'), ('న్న', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గం', 'U'), ('దు', '|'), ('రి', '|'), ('క', '|'), ('మ', 'U'), ('ర్త్యుల్', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('రే', 'U'), ('మో', 'U'), ('ని', '|'), ('ను', 'U'), ('న్చి', 'U'), ('న్నం', 'U'), ('బు', 'U'), ('చ్చ', '|'), ('క', '|'), ('ప్రో', 'U'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('నె', '|'), ('డ', '|'), ('లన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ని', 'U'), ('న్నం', 'U'), ('జూ', 'U'), ('డ', '|'), ('రొ', '|'), ('మొ', 'U'), ('న్న', '|'), ('జూ', 'U'), ('డ', '|'), ('రో', 'U'), ('జ', '|'), ('ను', 'U'), ('ల్ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('జా', 'U'), ('వం', 'U'), ('గ', '|'), ('నా', 'U'), ('ప', 'U'), ('న్ను', 'U'), ('ల్గ', 'U'), ('న్న', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('మ', 'U'), ('య్యె', '|'), ('డి', '|'), ('ధ', '|'), ('న', '|'), ('భ్రాం', 'U'), ('తి', 'U'), ('న్వి', '|'), ('స', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('లే', 'U'), ('కు', 'U'), ('న్నా', 'U'), ('రె', 'U'), ('న్న', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గం', 'U'), ('దు', '|'), ('రి', '|'), ('క', '|'), ('మ', 'U'), ('ర్త్యు', 'U'), ('ల్గొ', 'U'), ('ల్వ', '|'), ('రే', 'U'), ('మో', 'U'), ('ని', '|'), ('ను', 'U'), ('న్చి', 'U'), ('న్నం', 'U'), ('బు', 'U'), ('చ్చ', '|'), ('క', '|'), ('ప్రో', 'U'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('నె', '|'), ('డ', '|'), ('ల', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[('ద్వా', 'U'), ('ర', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('గం', 'U'), ('చు', '|'), ('కి', '|'), ('జ', '|'), ('న', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('లన్', 'U'), ('దో', 'U'), ('రం', 'U'), ('త', 'U'), ('స్స్థ', '|'), ('లి', '|'), ('బ', 'U'), ('గ్గ', '|'), ('నం', 'U'), ('బొ', '|'), ('డు', '|'), ('చు', '|'), ('చున్', 'U'), ('దు', 'U'), ('ర్భా', 'U'), ('ష', '|'), ('లా', 'U'), ('డ', 'U'), ('న్మ', '|'), ('ఱిన్', 'U'), ('వా', 'U'), ('రిం', 'U'), ('బ్రా', 'U'), ('ర్థ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('కు', '|'), ('సే', 'U'), ('వ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గా', 'U'), ('బో', 'U'), ('రు', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('రా', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('నీ', 'U'), ('ప', '|'), ('రి', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ద్వా', 'U'), ('ర', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('గం', 'U'), ('చు', '|'), ('కి', '|'), ('జ', '|'), ('న', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('లన్', 'U'), ('దో', 'U'), ('రం', 'U'), ('త', 'U'), ('స్స్థ', '|'), ('లి', '|'), ('బ', 'U'), ('గ్గ', '|'), ('నం', 'U'), ('బొ', '|'), ('డు', '|'), ('చు', '|'), ('చు', 'U'), ('న్దు', 'U'), ('ర్భా', 'U'), ('ష', '|'), ('లా', 'U'), ('డ', 'U'), ('న్మ', '|'), ('ఱిన్', 'U'), ('వా', 'U'), ('రిం', 'U'), ('బ్రా', 'U'), ('ర్థ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('కు', '|'), ('సే', 'U'), ('వ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గా', 'U'), ('బో', 'U'), ('రు', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('రా', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('నీ', 'U'), ('ప', '|'), ('రి', '|'), ('జ', '|'), ('ను', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('ఊ', 'U'), ('రూ', 'U'), ('రం', 'U'), ('జ', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('భి', 'U'), ('క్ష', '|'), ('మి', '|'), ('డ', '|'), ('రో', 'U'), ('యుం', 'U'), ('డం', 'U'), ('గు', '|'), ('హ', 'U'), ('ల్గ', 'U'), ('ల్గ', '|'), ('వో', 'U'), ('చీ', 'U'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('ము', '|'), ('వీ', 'U'), ('థు', '|'), ('లం', 'U'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('దో', 'U'), ('శీ', 'U'), ('తా', 'U'), ('మృ', '|'), ('త', 'U'), ('స్వ', 'U'), ('చ్ఛ', '|'), ('వాః', 'U'), ('పూ', 'U'), ('రం', 'U'), ('బే', 'U'), ('ఱు', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('దో', 'U'), ('త', '|'), ('ప', '|'), ('సు', '|'), ('లం', 'U'), ('బ్రో', 'U'), ('వం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వో', 'U'), ('ప', '|'), ('వో', 'U'), ('చే', 'U'), ('రం', 'U'), ('బో', 'U'), ('వు', '|'), ('దు', '|'), ('రే', 'U'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('జ', '|'), ('నుల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఊ', 'U'), ('రూ', 'U'), ('రం', 'U'), ('జ', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('భి', 'U'), ('క్ష', '|'), ('మి', '|'), ('డ', '|'), ('రో', 'U'), ('యుం', 'U'), ('డం', 'U'), ('గు', '|'), ('హ', 'U'), ('ల్గ', 'U'), ('ల్గ', '|'), ('వో', 'U'), ('చీ', 'U'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('ము', '|'), ('వీ', 'U'), ('థు', '|'), ('లం', 'U'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('దో', 'U'), ('శీ', 'U'), ('తా', 'U'), ('మృ', '|'), ('త', 'U'), ('స్వ', 'U'), ('చ్ఛ', '|'), ('వాః', 'U'), ('పూ', 'U'), ('రం', 'U'), ('బే', 'U'), ('ఱు', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('దో', 'U'), ('త', '|'), ('ప', '|'), ('సు', '|'), ('లం', 'U'), ('బ్రో', 'U'), ('వం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వో', 'U'), ('ప', '|'), ('వో', 'U'), ('చే', 'U'), ('రం', 'U'), ('బో', 'U'), ('వు', '|'), ('దు', '|'), ('రే', 'U'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('జ', '|'), ('ను', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('ద', '|'), ('య', '|'), ('సే', 'U'), ('యుం', 'U'), ('డ', '|'), ('ని', '|'), ('గొం', 'U'), ('ద', '|'), ('ఱా', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బు', 'U'), ('న్ని', '|'), ('నుం', 'U'), ('గొ', 'U'), ('ల్చు', '|'), ('చున్', 'U'), ('ని', '|'), ('య', '|'), ('మం', 'U'), ('బెం', 'U'), ('తొ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('తి', '|'), ('య', '|'), ('గ', '|'), ('దా', 'U'), ('నీ', 'U'), ('వీ', 'U'), ('య', '|'), ('పిం', 'U'), ('డెం', 'U'), ('తొ', '|'), ('యం', 'U'), ('తి', '|'), ('య', '|'), ('కా', 'U'), ('యె', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కిం', 'U'), ('ద', '|'), ('ళం', 'U'), ('బ', '|'), ('శ', '|'), ('న', '|'), ('బు', 'U'), ('ద్ధిం', 'U'), ('జూ', 'U'), ('డ', '|'), ('నే', 'U'), ('ల', 'U'), ('బ్బు', '|'), ('స', 'U'), ('త్క్రి', '|'), ('య', '|'), ('ల', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('కి', 'U'), ('ష్ట', '|'), ('సు', '|'), ('ఖ', '|'), ('ముల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ద', '|'), ('య', '|'), ('సే', 'U'), ('యుం', 'U'), ('డ', '|'), ('ని', '|'), ('గొం', 'U'), ('ద', '|'), ('ఱా', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బు', 'U'), ('న్ని', '|'), ('నుం', 'U'), ('గొ', 'U'), ('ల్చు', '|'), ('చున్', 'U'), ('ని', '|'), ('య', '|'), ('మం', 'U'), ('బెం', 'U'), ('తొ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('తి', '|'), ('య', '|'), ('గ', '|'), ('దా', 'U'), ('నీ', 'U'), ('వీ', 'U'), ('య', '|'), ('పిం', 'U'), ('డెం', 'U'), ('తొ', '|'), ('యం', 'U'), ('తి', '|'), ('య', '|'), ('కా', 'U'), ('యె', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కిం', 'U'), ('ద', '|'), ('ళం', 'U'), ('బ', '|'), ('శ', '|'), ('న', '|'), ('బు', 'U'), ('ద్ధిం', 'U'), ('జూ', 'U'), ('డ', '|'), ('నే', 'U'), ('ల', 'U'), ('బ్బు', '|'), ('స', 'U'), ('త్క్రి', '|'), ('య', '|'), ('ల', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('కి', 'U'), ('ష్ట', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('భ', 'U'), ('క్తు', 'U'), ('ల్ప', '|'), ('ది', '|'), ('వే', 'U'), ('ల', '|'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('ని', '|'), ('ను', 'U'), ('న్సే', 'U'), ('విం', 'U'), ('పు', '|'), ('చున్', 'U'), ('వే', 'U'), ('డ', '|'), ('గా', 'U'), ('లో', 'U'), ('భం', 'U'), ('బే', 'U'), ('టి', '|'), ('కి', '|'), ('వా', 'U'), ('రి', '|'), ('కో', 'U'), ('ర్కు', '|'), ('లు', '|'), ('కృ', '|'), ('పా', 'U'), ('ళు', 'U'), ('త్వం', 'U'), ('బు', '|'), ('నం', 'U'), ('దీ', 'U'), ('ర్ప', '|'), ('రా', 'U'), ('దా', 'U'), ('భ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బి', 'U'), ('చ్చి', '|'), ('పొ', 'U'), ('మ్మ', 'U'), ('న్న', '|'), ('నీ', 'U'), ('శ్రీ', 'U'), ('భాం', 'U'), ('డా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('గొ', '|'), ('ఱం', 'U'), ('త', '|'), ('ప', '|'), ('డు', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నీ', 'U'), ('భ', 'U'), ('క్తు', 'U'), ('ల్ప', '|'), ('ది', '|'), ('వే', 'U'), ('ల', '|'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('ని', '|'), ('ను', 'U'), ('న్సే', 'U'), ('విం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్వే', 'U'), ('డ', '|'), ('గా', 'U'), ('లో', 'U'), ('భం', 'U'), ('బే', 'U'), ('టి', '|'), ('కి', '|'), ('వా', 'U'), ('రి', '|'), ('కో', 'U'), ('ర్కు', '|'), ('లు', '|'), ('కృ', '|'), ('పా', 'U'), ('ళు', 'U'), ('త్వం', 'U'), ('బు', '|'), ('నం', 'U'), ('దీ', 'U'), ('ర్ప', '|'), ('రా', 'U'), ('దా', 'U'), ('భ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బి', 'U'), ('చ్చి', '|'), ('పొ', 'U'), ('మ్మ', 'U'), ('న్న', '|'), ('నీ', 'U'), ('శ్రీ', 'U'), ('భాం', 'U'), ('డా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('గొ', '|'), ('ఱం', 'U'), ('త', '|'), ('ప', '|'), ('డు', '|'), ('నా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('ల', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('క', '|'), ('వా', 'U'), ('ట', '|'), ('బం', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('దు', 'U'), ('ష్కా', 'U'), ('ల', '|'), ('ప్ర', '|'), ('మా', 'U'), ('ణ', '|'), ('క్రి', '|'), ('యా', 'U'), ('లీ', 'U'), ('లా', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('చి', '|'), ('త్ర', '|'), ('గు', 'U'), ('ప్త', '|'), ('ము', '|'), ('ఖ', '|'), ('వ', 'U'), ('ల్మీ', 'U'), ('కో', 'U'), ('గ్ర', '|'), ('జి', 'U'), ('హ్వా', 'U'), ('ద్భు', '|'), ('త', 'U'), ('వ్యా', 'U'), ('ళ', 'U'), ('వ్యా', 'U'), ('ళ', '|'), ('వి', '|'), ('రో', 'U'), ('ధి', '|'), ('మృ', 'U'), ('త్యు', '|'), ('ము', '|'), ('ఖ', '|'), ('దం', 'U'), ('ష్ట్రా', 'U'), ('హా', 'U'), ('ర్య', '|'), ('వ', '|'), ('జ్రం', 'U'), ('బు', '|'), ('ది', 'U'), ('క్చే', 'U'), ('లా', 'U'), ('లం', 'U'), ('కృ', '|'), ('త', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('ర', '|'), ('యన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('కా', 'U'), ('ల', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('క', '|'), ('వా', 'U'), ('ట', '|'), ('బం', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('దు', 'U'), ('ష్కా', 'U'), ('ల', '|'), ('ప్ర', '|'), ('మా', 'U'), ('ణ', '|'), ('క్రి', '|'), ('యా', 'U'), ('లీ', 'U'), ('లా', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('చి', '|'), ('త్ర', '|'), ('గు', 'U'), ('ప్త', '|'), ('ము', '|'), ('ఖ', '|'), ('వ', 'U'), ('ల్మీ', 'U'), ('కో', 'U'), ('గ్ర', '|'), ('జి', 'U'), ('హ్వా', 'U'), ('ద్భు', '|'), ('త', 'U'), ('వ్యా', 'U'), ('ళ', 'U'), ('వ్యా', 'U'), ('ళ', '|'), ('వి', '|'), ('రో', 'U'), ('ధి', '|'), ('మృ', 'U'), ('త్యు', '|'), ('ము', '|'), ('ఖ', '|'), ('దం', 'U'), ('ష్ట్రా', 'U'), ('హా', 'U'), ('ర్య', '|'), ('వ', '|'), ('జ్రం', 'U'), ('బు', '|'), ('ది', 'U'), ('క్చే', 'U'), ('లా', 'U'), ('లం', 'U'), ('కృ', '|'), ('త', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('ర', '|'), ('య', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ది', '|'), ('వే', 'U'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('లో', 'U'), ('క', '|'), ('కం', 'U'), ('ట', '|'), ('కు', '|'), ('ల', '|'), ('చే', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చు', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('కిం', 'U'), ('బ', 'U'), ('థ్య', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('మ', 'U'), ('ధ్య', 'U'), ('స్థు', '|'), ('డై', 'U'), ('స', 'U'), ('త్య', '|'), ('దా', 'U'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('దు', 'U'), ('ల్గ', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('నా', 'U'), ('కొ', '|'), ('స', '|'), ('గు', '|'), ('మె', 'U'), ('న్న', 'U'), ('న్వా', 'U'), ('ని', '|'), ('నీ', 'U'), ('య', 'U'), ('ట్ల', '|'), ('చూ', 'U'), ('చి', '|'), ('ది', '|'), ('నం', 'U'), ('బు', 'U'), ('న్ము', '|'), ('ద', '|'), ('మొం', 'U'), ('దు', '|'), ('దుం', 'U'), ('గ', '|'), ('డ', '|'), ('ప', '|'), ('టన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('ది', '|'), ('వే', 'U'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('లో', 'U'), ('క', '|'), ('కం', 'U'), ('ట', '|'), ('కు', '|'), ('ల', '|'), ('చే', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చు', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('కిం', 'U'), ('బ', 'U'), ('థ్య', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('న్మ', 'U'), ('ధ్య', 'U'), ('స్థు', '|'), ('డై', 'U'), ('స', 'U'), ('త్య', '|'), ('దా', 'U'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('దు', 'U'), ('ల్గ', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('నా', 'U'), ('కొ', '|'), ('స', '|'), ('గు', '|'), ('మె', 'U'), ('న్న', 'U'), ('న్వా', 'U'), ('ని', '|'), ('నీ', 'U'), ('య', 'U'), ('ట్ల', '|'), ('చూ', 'U'), ('చి', '|'), ('ది', '|'), ('నం', 'U'), ('బు', 'U'), ('న్ము', '|'), ('ద', '|'), ('మొం', 'U'), ('దు', '|'), ('దుం', 'U'), ('గ', '|'), ('డ', '|'), ('ప', '|'), ('ట', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('తా', 'U'), ('తల్', 'U'), ('త', 'U'), ('ల్లి', '|'), ('యు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('యున్', 'U'), ('మ', '|'), ('ఱి', '|'), ('యు', '|'), ('బె', 'U'), ('ద్ద', 'U'), ('ల్చా', 'U'), ('వ', '|'), ('గా', 'U'), ('జూ', 'U'), ('డ', '|'), ('రో', 'U'), ('భీ', 'U'), ('తిం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('చా', 'U'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('బెం', 'U'), ('డ్లా', 'U'), ('ము', '|'), ('బి', 'U'), ('డ్డ', 'U'), ('ల్హి', '|'), ('త', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', 'U'), ('న్బ', '|'), ('ల', '|'), ('విం', 'U'), ('ప', '|'), ('జం', 'U'), ('తు', '|'), ('వు', '|'), ('ల', '|'), ('కు', 'U'), ('న్వా', 'U'), ('లా', 'U'), ('య', '|'), ('మై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('జే', 'U'), ('తో', 'U'), ('వీ', 'U'), ('ధి', '|'), ('న', '|'), ('రుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లు', '|'), ('వ', '|'), ('డో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('తా', 'U'), ('త', 'U'), ('ల్త', 'U'), ('ల్లి', '|'), ('యు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('యు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('యు', '|'), ('బె', 'U'), ('ద్ద', 'U'), ('ల్చా', 'U'), ('వ', '|'), ('గా', 'U'), ('జూ', 'U'), ('డ', '|'), ('రో', 'U'), ('భీ', 'U'), ('తిం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('చా', 'U'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('బెం', 'U'), ('డ్లా', 'U'), ('ము', '|'), ('బి', 'U'), ('డ్డ', 'U'), ('ల్హి', '|'), ('త', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', 'U'), ('న్బ', '|'), ('ల', '|'), ('విం', 'U'), ('ప', '|'), ('జం', 'U'), ('తు', '|'), ('వు', '|'), ('ల', '|'), ('కు', 'U'), ('న్వా', 'U'), ('లా', 'U'), ('య', '|'), ('మై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('జే', 'U'), ('తో', 'U'), ('వీ', 'U'), ('ధి', '|'), ('న', '|'), ('రుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లు', '|'), ('వ', '|'), ('డో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('జా', 'U'), ('తు', 'U'), ('ల్సె', 'U'), ('ప్పు', '|'), ('ట', '|'), ('సే', 'U'), ('వ', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('మృ', '|'), ('షల్', 'U'), ('సం', 'U'), ('ధిం', 'U'), ('చు', '|'), ('ట', 'U'), ('న్యా', 'U'), ('య', '|'), ('వి', 'U'), ('ఖ్యా', 'U'), ('తిం', 'U'), ('బొం', 'U'), ('దు', '|'), ('ట', '|'), ('కొం', 'U'), ('డె', '|'), ('కా', 'U'), ('డ', '|'), ('వు', '|'), ('ట', '|'), ('హిం', 'U'), ('సా', 'U'), ('రం', 'U'), ('భ', '|'), ('కుం', 'U'), ('డౌ', 'U'), ('ట', '|'), ('మి', 'U'), ('థ్యా', 'U'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('ము', '|'), ('లా', 'U'), ('డు', '|'), ('ట', 'U'), ('న్ని', '|'), ('యు', '|'), ('బ', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('శిం', 'U'), ('చి', '|'), ('యీ', 'U'), ('శ్రీ', 'U'), ('తా', 'U'), ('నె', 'U'), ('న్ని', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('లుం', 'U'), ('డ', '|'), ('గ', '|'), ('ల', '|'), ('దో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('జా', 'U'), ('తు', 'U'), ('ల్సె', 'U'), ('ప్పు', '|'), ('ట', '|'), ('సే', 'U'), ('వ', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('మృ', '|'), ('ష', 'U'), ('ల్సం', 'U'), ('ధిం', 'U'), ('చు', '|'), ('ట', 'U'), ('న్యా', 'U'), ('య', '|'), ('వి', 'U'), ('ఖ్యా', 'U'), ('తిం', 'U'), ('బొం', 'U'), ('దు', '|'), ('ట', '|'), ('కొం', 'U'), ('డె', '|'), ('కా', 'U'), ('డ', '|'), ('వు', '|'), ('ట', '|'), ('హిం', 'U'), ('సా', 'U'), ('రం', 'U'), ('భ', '|'), ('కుం', 'U'), ('డౌ', 'U'), ('ట', '|'), ('మి', 'U'), ('థ్యా', 'U'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('ము', '|'), ('లా', 'U'), ('డు', '|'), ('ట', 'U'), ('న్ని', '|'), ('యు', '|'), ('బ', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('శిం', 'U'), ('చి', '|'), ('యీ', 'U'), ('శ్రీ', 'U'), ('తా', 'U'), ('నె', 'U'), ('న్ని', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('లుం', 'U'), ('డ', '|'), ('గ', '|'), ('ల', '|'), ('దో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('డు', '|'), ('గుల్', 'U'), ('కొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('కూ', 'U'), ('డి', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('బ', '|'), ('నుల్', 'U'), ('చీ', 'U'), ('క', 'U'), ('ట్లు', '|'), ('దూ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('బా', 'U'), ('ల్ప', '|'), ('డి', '|'), ('తిం', 'U'), ('గా', 'U'), ('ని', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('రా', 'U'), ('ని', '|'), ('ని', '|'), ('ను', '|'), ('నొ', 'U'), ('ల్లం', 'U'), ('జా', 'U'), ('లు', '|'), ('బొ', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('ని', 'U'), ('ల్వె', '|'), ('డ', '|'), ('లం', 'U'), ('ద్రో', 'U'), ('చి', '|'), ('న', '|'), ('జూ', 'U'), ('రు', '|'), ('వ', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('నే', 'U'), ('వ్రే', 'U'), ('లా', 'U'), ('డు', '|'), ('దుం', 'U'), ('గో', 'U'), ('ర్కి', '|'), ('గో', 'U'), ('రె', '|'), ('డి', '|'), ('య', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('వో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('చె', '|'), ('డు', '|'), ('గు', 'U'), ('ల్కొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('కూ', 'U'), ('డి', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('బ', '|'), ('ను', 'U'), ('ల్చీ', 'U'), ('క', 'U'), ('ట్లు', '|'), ('దూ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('బా', 'U'), ('ల్ప', '|'), ('డి', '|'), ('తిం', 'U'), ('గా', 'U'), ('ని', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('రా', 'U'), ('ని', '|'), ('ని', '|'), ('ను', '|'), ('నొ', 'U'), ('ల్లం', 'U'), ('జా', 'U'), ('లు', '|'), ('బొ', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('ని', 'U'), ('ల్వె', '|'), ('డ', '|'), ('లం', 'U'), ('ద్రో', 'U'), ('చి', '|'), ('న', '|'), ('జూ', 'U'), ('రు', '|'), ('వ', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('నే', 'U'), ('వ్రే', 'U'), ('లా', 'U'), ('డు', '|'), ('దుం', 'U'), ('గో', 'U'), ('ర్కి', '|'), ('గో', 'U'), ('రె', '|'), ('డి', '|'), ('య', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('వో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[('భ', '|'), ('సి', '|'), ('తో', 'U'), ('ద్ధూ', 'U'), ('ళ', '|'), ('న', '|'), ('ధూ', 'U'), ('స', '|'), ('రాం', 'U'), ('గు', '|'), ('లు', '|'), ('జ', '|'), ('టా', 'U'), ('భా', 'U'), ('రో', 'U'), ('త్త', '|'), ('మాం', 'U'), ('గుల్', 'U'), ('త', '|'), ('పో', 'U'), ('వ్య', '|'), ('స', '|'), ('నుల్', 'U'), ('సా', 'U'), ('ధి', '|'), ('త', '|'), ('పం', 'U'), ('చ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ర', '|'), ('స', '|'), ('నుల్', 'U'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తుల్', 'U'), ('ని', '|'), ('తాం', 'U'), ('త', '|'), ('సు', '|'), ('ఖ', 'U'), ('స్వాం', 'U'), ('తు', '|'), ('లు', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('రు', '|'), ('ద్రా', 'U'), ('క్ష', '|'), ('రా', 'U'), ('జి', '|'), ('స', '|'), ('మే', 'U'), ('తుల్', 'U'), ('తు', '|'), ('ద', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('గొ', '|'), ('లు', '|'), ('తున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('భ', '|'), ('సి', '|'), ('తో', 'U'), ('ద్ధూ', 'U'), ('ళ', '|'), ('న', '|'), ('ధూ', 'U'), ('స', '|'), ('రాం', 'U'), ('గు', '|'), ('లు', '|'), ('జ', '|'), ('టా', 'U'), ('భా', 'U'), ('రో', 'U'), ('త్త', '|'), ('మాం', 'U'), ('గు', 'U'), ('ల్త', '|'), ('పో', 'U'), ('వ్య', '|'), ('స', '|'), ('ను', 'U'), ('ల్సా', 'U'), ('ధి', '|'), ('త', '|'), ('పం', 'U'), ('చ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ర', '|'), ('స', '|'), ('ను', 'U'), ('ల్వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', 'U'), ('ల్ని', '|'), ('తాం', 'U'), ('త', '|'), ('సు', '|'), ('ఖ', 'U'), ('స్వాం', 'U'), ('తు', '|'), ('లు', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('ష', '|'), ('ణ', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('రు', '|'), ('ద్రా', 'U'), ('క్ష', '|'), ('రా', 'U'), ('జి', '|'), ('స', '|'), ('మే', 'U'), ('తు', 'U'), ('ల్తు', '|'), ('ద', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('గొ', '|'), ('లు', '|'), ('తు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('డి', '|'), ('యల్', 'U'), ('రెం', 'U'), ('టి', '|'), ('కొ', '|'), ('మూ', 'U'), ('టి', '|'), ('కో', 'U'), ('గ', '|'), ('డి', '|'), ('య', '|'), ('కో', 'U'), ('కా', 'U'), ('దే', 'U'), ('ని', '|'), ('నే', 'U'), ('డె', 'U'), ('ల్లి', '|'), ('యో', 'U'), ('క', '|'), ('డ', '|'), ('నే', 'U'), ('డా', 'U'), ('ది', '|'), ('కొ', '|'), ('యె', 'U'), ('న్న', '|'), ('డో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('మీ', 'U'), ('కా', 'U'), ('యం', 'U'), ('బు', '|'), ('లీ', 'U'), ('భూ', 'U'), ('మి', '|'), ('పై', 'U'), ('బ', '|'), ('డ', '|'), ('గా', 'U'), ('ను', 'U'), ('న్న', '|'), ('వి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మొ', '|'), ('క', '|'), ('టిం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('ప', '|'), ('రీ', 'U'), ('మా', 'U'), ('న', '|'), ('వుల్', 'U'), ('చె', '|'), ('డు', '|'), ('గుల్', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('గ', '|'), ('డి', '|'), ('య', '|'), ('ల్రెం', 'U'), ('టి', '|'), ('కొ', '|'), ('మూ', 'U'), ('టి', '|'), ('కో', 'U'), ('గ', '|'), ('డి', '|'), ('య', '|'), ('కో', 'U'), ('కా', 'U'), ('దే', 'U'), ('ని', '|'), ('నే', 'U'), ('డె', 'U'), ('ల్లి', '|'), ('యో', 'U'), ('క', '|'), ('డ', '|'), ('నే', 'U'), ('డా', 'U'), ('ది', '|'), ('కొ', '|'), ('యె', 'U'), ('న్న', '|'), ('డో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('మీ', 'U'), ('కా', 'U'), ('యం', 'U'), ('బు', '|'), ('లీ', 'U'), ('భూ', 'U'), ('మి', '|'), ('పై', 'U'), ('బ', '|'), ('డ', '|'), ('గా', 'U'), ('ను', 'U'), ('న్న', '|'), ('వి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మొ', '|'), ('క', '|'), ('టిం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('ప', '|'), ('రీ', 'U'), ('మా', 'U'), ('న', '|'), ('వుల్', 'U'), ('చె', '|'), ('డు', '|'), ('గు', 'U'), ('ల్నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('మ', '|'), ('నే', 'U'), ('త్ర', 'U'), ('ద్యు', '|'), ('తి', '|'), ('దా', 'U'), ('మె', '|'), ('చూ', 'U'), ('డ', '|'), ('సు', '|'), ('ఖ', '|'), ('మై', 'U'), ('తా', 'U'), ('దా', 'U'), ('త్మ్య', '|'), ('ము', 'U'), ('న్గూ', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('వి', '|'), ('మ', '|'), ('ల', 'U'), ('మ్ము', 'U'), ('ల్క', '|'), ('మ', '|'), ('లా', 'U'), ('భ', '|'), ('ము', 'U'), ('ల్జి', '|'), ('త', '|'), ('ల', '|'), ('స', 'U'), ('ద్వి', 'U'), ('త్యు', 'U'), ('ల్ల', '|'), ('తా', 'U'), ('లా', 'U'), ('స్య', '|'), ('ముల్', 'U'), ('సు', '|'), ('మ', '|'), ('నో', 'U'), ('బా', 'U'), ('ణ', '|'), ('జ', '|'), ('య', '|'), ('ప్ర', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('ను', '|'), ('చు', 'U'), ('న్జూ', 'U'), ('చున్', 'U'), ('జ', '|'), ('నం', 'U'), ('బూ', 'U'), ('ని', '|'), ('హా', 'U'), ('రి', '|'), ('మృ', '|'), ('గా', 'U'), ('క్షీ', 'U'), ('ని', '|'), ('వ', '|'), ('హ', 'U'), ('మ్ము', '|'), ('క', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('లన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('త', '|'), ('మ', '|'), ('నే', 'U'), ('త్ర', 'U'), ('ద్యు', '|'), ('తి', '|'), ('దా', 'U'), ('మె', '|'), ('చూ', 'U'), ('డ', '|'), ('సు', '|'), ('ఖ', '|'), ('మై', 'U'), ('తా', 'U'), ('దా', 'U'), ('త్మ్య', '|'), ('ము', 'U'), ('న్గూ', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('వి', '|'), ('మ', '|'), ('ల', 'U'), ('మ్ము', 'U'), ('ల్క', '|'), ('మ', '|'), ('లా', 'U'), ('భ', '|'), ('ము', 'U'), ('ల్జి', '|'), ('త', '|'), ('ల', '|'), ('స', 'U'), ('ద్వి', 'U'), ('త్యు', 'U'), ('ల్ల', '|'), ('తా', 'U'), ('లా', 'U'), ('స్య', '|'), ('ముల్', 'U'), ('సు', '|'), ('మ', '|'), ('నో', 'U'), ('బా', 'U'), ('ణ', '|'), ('జ', '|'), ('య', '|'), ('ప్ర', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('ను', '|'), ('చు', 'U'), ('న్జూ', 'U'), ('చు', 'U'), ('న్జ', '|'), ('నం', 'U'), ('బూ', 'U'), ('ని', '|'), ('హా', 'U'), ('రి', '|'), ('మృ', '|'), ('గా', 'U'), ('క్షీ', 'U'), ('ని', '|'), ('వ', '|'), ('హ', 'U'), ('మ్ము', '|'), ('క', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('ల', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ట', '|'), ('వ', '|'), ('ద్ర', 'U'), ('జ్జు', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('వ', '|'), ('ద్ర', '|'), ('జ', '|'), ('త', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('చ్ఛు', 'U'), ('క్తి', '|'), ('వ', 'U'), ('ద్ఘ', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చం', 'U'), ('ద్ర', '|'), ('శి', '|'), ('లా', 'U'), ('జ', '|'), ('పా', 'U'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('రు', 'U'), ('క్సాం', 'U'), ('గ', 'U'), ('త్య', '|'), ('వ', 'U'), ('త్తం', 'U'), ('చు', '|'), ('వా', 'U'), ('క్ప', '|'), ('టి', '|'), ('మ', 'U'), ('ల్నే', 'U'), ('ర్తు', '|'), ('రు', '|'), ('చి', 'U'), ('త్సు', '|'), ('ఖం', 'U'), ('బ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('పన్', 'U'), ('లే', 'U'), ('క', '|'), ('దు', 'U'), ('ర్మే', 'U'), ('ధ', '|'), ('సుల్', 'U'), ('చి', '|'), ('టు', '|'), ('క', 'U'), ('న్నం', 'U'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('జూ', 'U'), ('తు', '|'), ('ర', '|'), ('ధ', '|'), ('ముల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('ట', '|'), ('వ', '|'), ('ద్ర', 'U'), ('జ్జు', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('వ', '|'), ('ద్ర', '|'), ('జ', '|'), ('త', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('చ్ఛు', 'U'), ('క్తి', '|'), ('వ', 'U'), ('ద్ఘ', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చం', 'U'), ('ద్ర', '|'), ('శి', '|'), ('లా', 'U'), ('జ', '|'), ('పా', 'U'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('రు', 'U'), ('క్సాం', 'U'), ('గ', 'U'), ('త్య', '|'), ('వ', 'U'), ('త్తం', 'U'), ('చు', '|'), ('వా', 'U'), ('క్ప', '|'), ('టి', '|'), ('మ', 'U'), ('ల్నే', 'U'), ('ర్తు', '|'), ('రు', '|'), ('చి', 'U'), ('త్సు', '|'), ('ఖం', 'U'), ('బ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('ప', 'U'), ('న్లే', 'U'), ('క', '|'), ('దు', 'U'), ('ర్మే', 'U'), ('ధ', '|'), ('సుల్', 'U'), ('చి', '|'), ('టు', '|'), ('క', 'U'), ('న్నం', 'U'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('జూ', 'U'), ('తు', '|'), ('ర', '|'), ('ధ', '|'), ('ము', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('నిం', 'U'), ('దిం', 'U'), ('చి', '|'), ('న', '|'), ('ద', 'U'), ('క్షు', '|'), ('పై', 'U'), ('దె', '|'), ('గ', '|'), ('వో', 'U'), ('వా', 'U'), ('ణీ', 'U'), ('నా', 'U'), ('థు', '|'), ('శా', 'U'), ('సిం', 'U'), ('ప', '|'), ('వో', 'U'), ('చ', '|'), ('ను', '|'), ('నా', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('దు', 'U'), ('చ్ఛం', 'U'), ('బా', 'U'), ('డు', '|'), ('దు', 'U'), ('ర్మా', 'U'), ('ర్గు', '|'), ('నింన్', 'U'), ('బె', '|'), ('ను', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('కు', '|'), ('ను', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్త', '|'), ('త', '|'), ('తి', '|'), ('కిన్', 'U'), ('భే', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('నం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చె', '|'), ('నో', 'U'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('నూ', 'U'), ('ఱ', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('నిం', 'U'), ('దిం', 'U'), ('చి', '|'), ('న', '|'), ('ద', 'U'), ('క్షు', '|'), ('పై', 'U'), ('దె', '|'), ('గ', '|'), ('వో', 'U'), ('వా', 'U'), ('ణీ', 'U'), ('నా', 'U'), ('థు', '|'), ('శా', 'U'), ('సిం', 'U'), ('ప', '|'), ('వో', 'U'), ('చ', '|'), ('ను', '|'), ('నా', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('దు', 'U'), ('చ్ఛం', 'U'), ('బా', 'U'), ('డు', '|'), ('దు', 'U'), ('ర్మా', 'U'), ('ర్గు', '|'), ('నింన్', 'U'), ('బె', '|'), ('ను', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('కు', '|'), ('ను', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్త', '|'), ('త', '|'), ('తి', '|'), ('కి', 'U'), ('న్భే', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('నం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చె', '|'), ('నో', 'U'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('నూ', 'U'), ('ఱ', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('రి', '|'), ('దై', 'U'), ('త్యు', 'U'), ('న్బొ', '|'), ('రి', '|'), ('గొ', 'U'), ('న్న', '|'), ('శూ', 'U'), ('ల', '|'), ('ము', '|'), ('క', '|'), ('ర', '|'), ('గ్ర', 'U'), ('స్తం', 'U'), ('బు', '|'), ('గా', 'U'), ('దో', 'U'), ('ర', '|'), ('తీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('నిన్', 'U'), ('గా', 'U'), ('ల్చి', '|'), ('న', '|'), ('ఫా', 'U'), ('ల', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('శి', '|'), ('ఖా', 'U'), ('వ', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('చ', 'U'), ('ల్లా', 'U'), ('ఱె', '|'), ('నో', 'U'), ('ప', '|'), ('ర', '|'), ('నిం', 'U'), ('దా', 'U'), ('ప', '|'), ('రు', '|'), ('ల', 'U'), ('న్వ', '|'), ('ధిం', 'U'), ('ప', '|'), ('వి', '|'), ('ది', '|'), ('యున్', 'U'), ('భా', 'U'), ('వ్యం', 'U'), ('బె', '|'), ('వా', 'U'), ('రే', 'U'), ('మి', '|'), ('చే', 'U'), ('సి', '|'), ('రి', '|'), ('నీ', 'U'), ('కు', 'U'), ('న్బ', '|'), ('ర', '|'), ('మో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('యన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క', '|'), ('రి', '|'), ('దై', 'U'), ('త్యు', 'U'), ('న్బొ', '|'), ('రి', '|'), ('గొ', 'U'), ('న్న', '|'), ('శూ', 'U'), ('ల', '|'), ('ము', '|'), ('క', '|'), ('ర', '|'), ('గ్ర', 'U'), ('స్తం', 'U'), ('బు', '|'), ('గా', 'U'), ('దో', 'U'), ('ర', '|'), ('తీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('ని', 'U'), ('న్గా', 'U'), ('ల్చి', '|'), ('న', '|'), ('ఫా', 'U'), ('ల', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('శి', '|'), ('ఖా', 'U'), ('వ', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('చ', 'U'), ('ల్లా', 'U'), ('ఱె', '|'), ('నో', 'U'), ('ప', '|'), ('ర', '|'), ('నిం', 'U'), ('దా', 'U'), ('ప', '|'), ('రు', '|'), ('ల', 'U'), ('న్వ', '|'), ('ధిం', 'U'), ('ప', '|'), ('వి', '|'), ('ది', '|'), ('యు', 'U'), ('న్భా', 'U'), ('వ్యం', 'U'), ('బె', '|'), ('వా', 'U'), ('రే', 'U'), ('మి', '|'), ('చే', 'U'), ('సి', '|'), ('రి', '|'), ('నీ', 'U'), ('కు', 'U'), ('న్బ', '|'), ('ర', '|'), ('మో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('య', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[('దు', '|'), ('ర', '|'), ('ము', 'U'), ('న్దు', 'U'), ('ర్గ', '|'), ('ము', '|'), ('రా', 'U'), ('య', '|'), ('బా', 'U'), ('ర', '|'), ('ము', '|'), ('మ', '|'), ('ఱిన్', 'U'), ('దొం', 'U'), ('గ', 'U'), ('ర్క', '|'), ('మున్', 'U'), ('వై', 'U'), ('ద్య', '|'), ('మున్', 'U'), ('న', '|'), ('ర', '|'), ('నా', 'U'), ('థా', 'U'), ('శ్ర', '|'), ('య', '|'), ('మో', 'U'), ('డ', '|'), ('బే', 'U'), ('ర', '|'), ('ము', '|'), ('ను', '|'), ('బె', 'U'), ('న్మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('అ', '|'), ('ర', '|'), ('యన్', 'U'), ('దొ', 'U'), ('డ్డ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('ది', '|'), ('గా', 'U'), ('కా', 'U'), ('కా', 'U'), ('ర్య', '|'), ('మే', 'U'), ('త', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('సి', '|'), ('రి', '|'), ('యుం', 'U'), ('బో', 'U'), ('వు', '|'), ('ను', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('ని', '|'), ('యు', '|'), ('న', '|'), ('గున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('దు', '|'), ('ర', '|'), ('ము', 'U'), ('న్దు', 'U'), ('ర్గ', '|'), ('ము', '|'), ('రా', 'U'), ('య', '|'), ('బా', 'U'), ('ర', '|'), ('ము', '|'), ('మ', '|'), ('ఱి', 'U'), ('న్దొం', 'U'), ('గ', 'U'), ('ర్క', '|'), ('ము', 'U'), ('న్వై', 'U'), ('ద్య', '|'), ('మున్', 'U'), ('న', '|'), ('ర', '|'), ('నా', 'U'), ('థా', 'U'), ('శ్ర', '|'), ('య', '|'), ('మో', 'U'), ('డ', '|'), ('బే', 'U'), ('ర', '|'), ('ము', '|'), ('ను', '|'), ('బె', 'U'), ('న్మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('అ', '|'), ('ర', '|'), ('య', 'U'), ('న్దొ', 'U'), ('డ్డ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('ది', '|'), ('గా', 'U'), ('కా', 'U'), ('కా', 'U'), ('ర్య', '|'), ('మే', 'U'), ('త', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('సి', '|'), ('రి', '|'), ('యుం', 'U'), ('బో', 'U'), ('వు', '|'), ('ను', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('ని', '|'), ('యు', '|'), ('న', '|'), ('గు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('యుం', 'U'), ('గాం', 'U'), ('చి', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('వా', 'U'), ('డి', '|'), ('ది', '|'), ('వి', '|'), ('జ', 'U'), ('స్థా', 'U'), ('నం', 'U'), ('బు', '|'), ('గ', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('వి', '|'), ('ప్రు', '|'), ('న', '|'), ('కు', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('స', 'U'), ('త్కృ', '|'), ('తి', '|'), ('కి', '|'), ('బా', 'U'), ('త్రుం', 'U'), ('డై', 'U'), ('త', '|'), ('టా', 'U'), ('కం', 'U'), ('బు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('ద్ర', 'U'), ('వ్విం', 'U'), ('చి', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('మ', '|'), ('న', '|'), ('నీ', 'U'), ('పో', 'U'), ('లే', 'U'), ('డు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('డు', '|'), ('పో', 'U'), ('వు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('త', '|'), ('న', '|'), ('యుం', 'U'), ('గాం', 'U'), ('చి', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('వా', 'U'), ('డి', '|'), ('ది', '|'), ('వి', '|'), ('జ', 'U'), ('స్థా', 'U'), ('నం', 'U'), ('బు', '|'), ('గ', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('వి', '|'), ('ప్రు', '|'), ('న', '|'), ('కు', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('స', 'U'), ('త్కృ', '|'), ('తి', '|'), ('కి', '|'), ('బా', 'U'), ('త్రుం', 'U'), ('డై', 'U'), ('త', '|'), ('టా', 'U'), ('కం', 'U'), ('బు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('ద్ర', 'U'), ('వ్విం', 'U'), ('చి', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('మ', '|'), ('న', '|'), ('నీ', 'U'), ('పో', 'U'), ('లే', 'U'), ('డు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('డు', '|'), ('పో', 'U'), ('వు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[('క్షి', '|'), ('తి', '|'), ('నా', 'U'), ('థో', 'U'), ('త్త', '|'), ('మ', '|'), ('స', 'U'), ('త్క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('వ', 'U'), ('చ్చెన్', 'U'), ('మి', 'U'), ('మ్ము', '|'), ('లం', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('త', '|'), ('డే', 'U'), ('మే', 'U'), ('టి', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('ని', '|'), ('స', 'U'), ('ద్యః', 'U'), ('కా', 'U'), ('వ్య', '|'), ('ని', 'U'), ('ర్మా', 'U'), ('త', '|'), ('త', 'U'), ('త్ప్ర', '|'), ('తి', '|'), ('భ', 'U'), ('ల్మం', 'U'), ('చి', '|'), ('వి', '|'), ('తి', 'U'), ('ట్టు', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పం', 'U'), ('డా', 'U'), ('త', '|'), ('డై', 'U'), ('నన్', 'U'), ('మ', '|'), ('ముం', 'U'), ('గ్రి', '|'), ('త', '|'), ('మే', 'U'), ('చూ', 'U'), ('చె', '|'), ('ను', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('ర', '|'), ('థ', '|'), ('ముల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క్షి', '|'), ('తి', '|'), ('నా', 'U'), ('థో', 'U'), ('త్త', '|'), ('మ', '|'), ('స', 'U'), ('త్క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('వ', 'U'), ('చ్చె', 'U'), ('న్మి', 'U'), ('మ్ము', '|'), ('లం', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('త', '|'), ('డే', 'U'), ('మే', 'U'), ('టి', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('ని', '|'), ('స', 'U'), ('ద్యః', 'U'), ('కా', 'U'), ('వ్య', '|'), ('ని', 'U'), ('ర్మా', 'U'), ('త', '|'), ('త', 'U'), ('త్ప్ర', '|'), ('తి', '|'), ('భ', 'U'), ('ల్మం', 'U'), ('చి', '|'), ('వి', '|'), ('తి', 'U'), ('ట్టు', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పం', 'U'), ('డా', 'U'), ('త', '|'), ('డై', 'U'), ('న', 'U'), ('న్మ', '|'), ('ముం', 'U'), ('గ్రి', '|'), ('త', '|'), ('మే', 'U'), ('చూ', 'U'), ('చె', '|'), ('ను', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('ర', '|'), ('థ', '|'), ('ము', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('కుం', 'U'), ('గా', 'U'), ('ని', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('నే', 'U'), ('నీ', 'U'), ('నం', 'U'), ('చు', '|'), ('మీ', 'U'), ('దె', 'U'), ('త్తి', '|'), ('తిన్', 'U'), ('జే', 'U'), ('కొం', 'U'), ('టిన్', 'U'), ('బి', '|'), ('రు', '|'), ('దం', 'U'), ('బు', '|'), ('కం', 'U'), ('క', '|'), ('ణ', '|'), ('ము', '|'), ('ముం', 'U'), ('జే', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('తిం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('తిన్', 'U'), ('లో', 'U'), ('కుల్', 'U'), ('మె', 'U'), ('చ్చ', '|'), ('వ్ర', '|'), ('తం', 'U'), ('బు', '|'), ('నా', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('కీ', 'U'), ('లున్', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('లుం', 'U'), ('గా', 'U'), ('వు', '|'), ('ఛీ', 'U'), ('ఛీ', 'U'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('రీ', 'U'), ('తి', '|'), ('ద', 'U'), ('ప్పె', '|'), ('డు', '|'), ('జు', '|'), ('మీ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నీ', 'U'), ('కుం', 'U'), ('గా', 'U'), ('ని', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('నే', 'U'), ('నీ', 'U'), ('నం', 'U'), ('చు', '|'), ('మీ', 'U'), ('దె', 'U'), ('త్తి', '|'), ('తిన్', 'U'), ('జే', 'U'), ('కొం', 'U'), ('టి', 'U'), ('న్బి', '|'), ('రు', '|'), ('దం', 'U'), ('బు', '|'), ('కం', 'U'), ('క', '|'), ('ణ', '|'), ('ము', '|'), ('ముం', 'U'), ('జే', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('తిం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('తిన్', 'U'), ('లో', 'U'), ('కు', 'U'), ('ల్మె', 'U'), ('చ్చ', '|'), ('వ్ర', '|'), ('తం', 'U'), ('బు', '|'), ('నా', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('కీ', 'U'), ('లు', 'U'), ('న్నే', 'U'), ('ర్పు', '|'), ('లుం', 'U'), ('గా', 'U'), ('వు', '|'), ('ఛీ', 'U'), ('ఛీ', 'U'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('రీ', 'U'), ('తి', '|'), ('ద', 'U'), ('ప్పె', '|'), ('డు', '|'), ('జు', '|'), ('మీ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[('ని', 'U'), ('చ్చల్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('చి', 'U'), ('న్మ', '|'), ('య', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('పీ', 'U'), ('ఠం', 'U'), ('బు', '|'), ('పై', 'U'), ('ర', 'U'), ('చ్చ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('క', '|'), ('యా', 'U'), ('ర్జ', '|'), ('వం', 'U'), ('బు', '|'), ('కు', '|'), ('జ', '|'), ('న', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('చే', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('భూ', 'U'), ('భృ', 'U'), ('చ్చం', 'U'), ('డా', 'U'), ('లు', '|'), ('ర', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('వా', 'U'), ('రు', '|'), ('ద', '|'), ('ను', '|'), ('గో', 'U'), ('పిం', 'U'), ('పన్', 'U'), ('బు', '|'), ('ధుం', 'U'), ('డా', 'U'), ('ర్తు', '|'), ('డై', 'U'), ('చి', 'U'), ('చ్చా', 'U'), ('ఱం', 'U'), ('జ', '|'), ('ము', '|'), ('రె', 'U'), ('ల్ల', '|'), ('జ', 'U'), ('ల్లు', '|'), ('కొ', '|'), ('ను', '|'), ('నో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ని', 'U'), ('చ్చ', 'U'), ('ల్ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('చి', 'U'), ('న్మ', '|'), ('య', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('పీ', 'U'), ('ఠం', 'U'), ('బు', '|'), ('పై', 'U'), ('ర', 'U'), ('చ్చ', 'U'), ('ల్సే', 'U'), ('య', '|'), ('క', '|'), ('యా', 'U'), ('ర్జ', '|'), ('వం', 'U'), ('బు', '|'), ('కు', '|'), ('జ', '|'), ('న', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('చే', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('భూ', 'U'), ('భృ', 'U'), ('చ్చం', 'U'), ('డా', 'U'), ('లు', '|'), ('ర', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('వా', 'U'), ('రు', '|'), ('ద', '|'), ('ను', '|'), ('గో', 'U'), ('పిం', 'U'), ('ప', 'U'), ('న్బు', '|'), ('ధుం', 'U'), ('డా', 'U'), ('ర్తు', '|'), ('డై', 'U'), ('చి', 'U'), ('చ్చా', 'U'), ('ఱం', 'U'), ('జ', '|'), ('ము', '|'), ('రె', 'U'), ('ల్ల', '|'), ('జ', 'U'), ('ల్లు', '|'), ('కొ', '|'), ('ను', '|'), ('నో', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[('దం', 'U'), ('తం', 'U'), ('బు', 'U'), ('ల్ప', '|'), ('డ', '|'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('నన్', 'U'), ('దా', 'U'), ('ర్ఢ్యం', 'U'), ('బు', '|'), ('ను', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('కాం', 'U'), ('తా', 'U'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('రో', 'U'), ('య', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('జ', '|'), ('రా', 'U'), ('క్రాం', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('విం', 'U'), ('త', 'U'), ('ల్మే', 'U'), ('న', '|'), ('జ', '|'), ('రిం', 'U'), ('చ', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('కు', '|'), ('రు', 'U'), ('ల్వె', 'U'), ('ల్వె', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('చిం', 'U'), ('తిం', 'U'), ('ప', 'U'), ('న్వ', '|'), ('లె', '|'), ('నీ', 'U'), ('ప', '|'), ('దాం', 'U'), ('బు', '|'), ('జ', '|'), ('ము', '|'), ('లన్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('దం', 'U'), ('తం', 'U'), ('బు', 'U'), ('ల్ప', '|'), ('డ', '|'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('న', 'U'), ('న్దా', 'U'), ('ర్ఢ్యం', 'U'), ('బు', '|'), ('ను', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('కాం', 'U'), ('తా', 'U'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('రో', 'U'), ('య', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('జ', '|'), ('రా', 'U'), ('క్రాం', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('విం', 'U'), ('త', 'U'), ('ల్మే', 'U'), ('న', '|'), ('జ', '|'), ('రిం', 'U'), ('చ', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('కు', '|'), ('రు', 'U'), ('ల్వె', 'U'), ('ల్వె', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('చిం', 'U'), ('తిం', 'U'), ('ప', 'U'), ('న్వ', '|'), ('లె', '|'), ('నీ', 'U'), ('ప', '|'), ('దాం', 'U'), ('బు', '|'), ('జ', '|'), ('ము', '|'), ('ల', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[('ఊ', 'U'), ('రూ', 'U'), ('రన్', 'U'), ('బ', '|'), ('వి', '|'), ('నీ', 'U'), ('ని', '|'), ('కాం', 'U'), ('డ్లు', '|'), ('క', '|'), ('వు', '|'), ('లై', 'U'), ('యొ', 'U'), ('క్కొ', 'U'), ('క్క', '|'), ('చో', 'U'), ('గొం', 'U'), ('ద', '|'), ('ఱన్', 'U'), ('కే', 'U'), ('రే', 'U'), ('మీ', 'U'), ('రు', '|'), ('ను', '|'), ('బా', 'U'), ('ణ', '|'), ('కా', 'U'), ('దు', '|'), ('ర', '|'), ('ను', '|'), ('చున్', 'U'), ('గీ', 'U'), ('తా', 'U'), ('లు', '|'), ('బో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గా', 'U'), ('సా', 'U'), ('రా', 'U'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('మి', '|'), ('గు', '|'), ('లం', 'U'), ('జౌ', 'U'), ('క', 'U'), ('య్యె', '|'), ('గా', 'U'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('జే', 'U'), ('రం', 'U'), ('జో', 'U'), ('టి', '|'), ('క', '|'), ('నే', 'U'), ('ది', '|'), ('స', 'U'), ('త్క', '|'), ('వు', '|'), ('ల', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఊ', 'U'), ('రూ', 'U'), ('ర', 'U'), ('న్బ', '|'), ('వి', '|'), ('నీ', 'U'), ('ని', '|'), ('కాం', 'U'), ('డ్లు', '|'), ('క', '|'), ('వు', '|'), ('లై', 'U'), ('యొ', 'U'), ('క్కొ', 'U'), ('క్క', '|'), ('చో', 'U'), ('గొం', 'U'), ('ద', '|'), ('ఱన్', 'U'), ('కే', 'U'), ('రే', 'U'), ('మీ', 'U'), ('రు', '|'), ('ను', '|'), ('బా', 'U'), ('ణ', '|'), ('కా', 'U'), ('దు', '|'), ('ర', '|'), ('ను', '|'), ('చు', 'U'), ('న్గీ', 'U'), ('తా', 'U'), ('లు', '|'), ('బో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గా', 'U'), ('సా', 'U'), ('రా', 'U'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('మి', '|'), ('గు', '|'), ('లం', 'U'), ('జౌ', 'U'), ('క', 'U'), ('య్యె', '|'), ('గా', 'U'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('జే', 'U'), ('రం', 'U'), ('జో', 'U'), ('టి', '|'), ('క', '|'), ('నే', 'U'), ('ది', '|'), ('స', 'U'), ('త్క', '|'), ('వు', '|'), ('ల', '|'), ('కు', 'U'), ('న్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[('దొ', 'U'), ('ప్పెం', 'U'), ('డెం', 'U'), ('గి', '|'), ('లి', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('ను', '|'), ('గం', 'U'), ('డూ', 'U'), ('షాం', 'U'), ('బు', '|'), ('ధా', 'U'), ('రా', 'U'), ('వ', '|'), ('ళిన్', 'U'), ('దొ', 'U'), ('ప్పం', 'U'), ('దో', 'U'), ('గి', '|'), ('న', '|'), ('చె', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('ల', '|'), ('త', '|'), ('ల', '|'), ('పై', 'U'), ('ద్రొ', 'U'), ('క్కం', 'U'), ('గ', '|'), ('న', 'U'), ('ట్లై', 'U'), ('న', '|'), ('గ', 'U'), ('న్న', 'U'), ('ప్పం', 'U'), ('బా', 'U'), ('త్రు', '|'), ('ని', '|'), ('జే', 'U'), ('సి', '|'), ('తిం', 'U'), ('త', '|'), ('టి', '|'), ('కి', '|'), ('స', 'U'), ('న్మా', 'U'), ('నం', 'U'), ('బు', '|'), ('దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('చె', 'U'), ('ప్ప', 'U'), ('న్నే', 'U'), ('ర', '|'), ('ము', '|'), ('నీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('మ', '|'), ('హి', '|'), ('మల్', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('దొ', 'U'), ('ప్పెం', 'U'), ('డెం', 'U'), ('గి', '|'), ('లి', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('ను', '|'), ('గం', 'U'), ('డూ', 'U'), ('షాం', 'U'), ('బు', '|'), ('ధా', 'U'), ('రా', 'U'), ('వ', '|'), ('ళిన్', 'U'), ('దొ', 'U'), ('ప్పం', 'U'), ('దో', 'U'), ('గి', '|'), ('న', '|'), ('చె', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('ల', '|'), ('త', '|'), ('ల', '|'), ('పై', 'U'), ('ద్రొ', 'U'), ('క్కం', 'U'), ('గ', '|'), ('న', 'U'), ('ట్లై', 'U'), ('న', '|'), ('గ', 'U'), ('న్న', 'U'), ('ప్పం', 'U'), ('బా', 'U'), ('త్రు', '|'), ('ని', '|'), ('జే', 'U'), ('సి', '|'), ('తిం', 'U'), ('త', '|'), ('టి', '|'), ('కి', '|'), ('స', 'U'), ('న్మా', 'U'), ('నం', 'U'), ('బు', '|'), ('దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('చె', 'U'), ('ప్ప', 'U'), ('న్నే', 'U'), ('ర', '|'), ('ము', '|'), ('నీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('మ', '|'), ('హి', '|'), ('మ', 'U'), ('ల్శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ల', '|'), ('యే', 'U'), ('కా', 'U'), ('ర్ణ', '|'), ('వ', '|'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('వు', '|'), ('వ', '|'), ('ట', '|'), ('ప', '|'), ('త్రా', 'U'), ('కా', 'U'), ('ర', '|'), ('మై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('మా', 'U'), ('ధ', '|'), ('వుం', 'U'), ('డు', '|'), ('గ', '|'), ('లి', '|'), ('గెన్', 'U'), ('జే', 'U'), ('రం', 'U'), ('గ', '|'), ('జో', 'U'), ('టం', 'U'), ('చు', '|'), ('దా', 'U'), ('నె', '|'), ('ల', '|'), ('మిం', 'U'), ('దా', 'U'), ('మ', '|'), ('ర', '|'), ('తం', 'U'), ('ప', '|'), ('రై', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('డిం', 'U'), ('తా', 'U'), ('కు', '|'), ('పై', 'U'), ('నుం', 'U'), ('డి', '|'), ('యే', 'U'), ('సి', '|'), ('లు', '|'), ('గుల్', 'U'), ('పొం', 'U'), ('ద', '|'), ('క', '|'), ('నీ', 'U'), ('క', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('గ', '|'), ('దా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('ల', '|'), ('యే', 'U'), ('కా', 'U'), ('ర్ణ', '|'), ('వ', '|'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('వు', '|'), ('వ', '|'), ('ట', '|'), ('ప', '|'), ('త్రా', 'U'), ('కా', 'U'), ('ర', '|'), ('మై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('మా', 'U'), ('ధ', '|'), ('వుం', 'U'), ('డు', '|'), ('గ', '|'), ('లి', '|'), ('గె', 'U'), ('న్జే', 'U'), ('రం', 'U'), ('గ', '|'), ('జో', 'U'), ('టం', 'U'), ('చు', '|'), ('దా', 'U'), ('నె', '|'), ('ల', '|'), ('మిం', 'U'), ('దా', 'U'), ('మ', '|'), ('ర', '|'), ('తం', 'U'), ('ప', '|'), ('రై', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('డిం', 'U'), ('తా', 'U'), ('కు', '|'), ('పై', 'U'), ('నుం', 'U'), ('డి', '|'), ('యే', 'U'), ('సి', '|'), ('లు', '|'), ('గు', 'U'), ('ల్పొం', 'U'), ('ద', '|'), ('క', '|'), ('నీ', 'U'), ('క', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('గ', '|'), ('దా', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తీ', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
